--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F62" t="n">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, centro 102.515, Punta Ramírez - Canal Lemuy</t>
+          <t>NORESTE PUNTA AGUANTAO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CULTIVOS SANTURRON SPA</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>10/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154885769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156671155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
+          <t>Modificación de Proyecto Técnico, centro 102.515, Punta Ramírez - Canal Lemuy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26/01/2022</t>
+          <t>03/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154756826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154885769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MARES ANDINOS SpA</t>
+          <t>CULTIVOS SANTURRON SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>26/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148917546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154756826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Subestación Nueva Gamboa</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>MARES ANDINOS SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>19000</v>
+        <v>45</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148779560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148917546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regularización de la base en tierra y modificación de Proyecto Técnico para la ampliación de biomasa de abalón rojo del Centro 101154, Canal Quehui, noreste Punta Camahue, Isla Quehui, Castro ? Región de los Lagos. N° Pert 218103034</t>
+          <t>Subestación Nueva Gamboa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pesca y Cultivos Don Jorge Ltda</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1900</v>
+        <v>19000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147645415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148779560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, IMELEV. CÓDIGO DE CENTRO N° 102066</t>
+          <t>Regularización de la base en tierra y modificación de Proyecto Técnico para la ampliación de biomasa de abalón rojo del Centro 101154, Canal Quehui, noreste Punta Camahue, Isla Quehui, Castro ? Región de los Lagos. N° Pert 218103034</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Pesca y Cultivos Don Jorge Ltda</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5000</v>
+        <v>1900</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147536901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147645415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental para ?Ampliación de Biomasa Centro de Cultivo de Mitílidos Pert N° 219103043?, Sector este de Punta Pullao, Canal Hudson, Comuna de Castro, Provincia de Chiloé - Décima Región, código centro 103669</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, IMELEV. CÓDIGO DE CENTRO N° 102066</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sociedad Comercial e Insdustrial Jomar Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>260</v>
+        <v>5000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>29/05/2020</t>
+          <t>03/08/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146699104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147536901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
+          <t>Declaración de Impacto Ambiental para ?Ampliación de Biomasa Centro de Cultivo de Mitílidos Pert N° 219103043?, Sector este de Punta Pullao, Canal Hudson, Comuna de Castro, Provincia de Chiloé - Décima Región, código centro 103669</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL MAR Y MAR LTDA.</t>
+          <t>sociedad Comercial e Insdustrial Jomar Ltda.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/05/2019</t>
+          <t>29/05/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143246458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146699104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Cultivos Marinos Punta Pullao 2, N° PERT 99103222?</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>SOCIEDAD COMERCIAL MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>22/05/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142948123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143246458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, MATADERO SAN DANIEL, CASTRO, CHILOE</t>
+          <t>Modificación del Proyecto ?Cultivos Marinos Punta Pullao 2, N° PERT 99103222?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sociedad Comercial San Daniel SpA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132474245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142948123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, MATADERO SAN DANIEL, CASTRO, CHILOE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Sociedad Comercial San Daniel SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>06/09/2016</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131752002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132474245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>41000</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>06/09/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131752002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 103.844 LINGUE-ESTERO CASTRO, RIO BLANCO LTDA.</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SOCIEDAD INDUSTRIAL Y COMERCIAL RIO BLANCO LTDA.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>41000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/12/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 103.844 LINGUE-ESTERO CASTRO, RIO BLANCO LTDA.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>SOCIEDAD INDUSTRIAL Y COMERCIAL RIO BLANCO LTDA.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>41000</v>
+        <v>40</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>22/12/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>41000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/09/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
+          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>02/12/2014</t>
+          <t>23/09/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130005588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063</t>
+          <t>MODIFICACION DE PROYECTO TECNICO ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>02/12/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130005588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RELOCALIZACIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COSTA OESTE ISLA CHELIN (SECTOR 1), COMUNA CASTRO, REGIÓN DE LOS LAGOS, PERT N° 210100051</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1 PERT Nº 213103028</t>
+          <t>RELOCALIZACIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COSTA OESTE ISLA CHELIN (SECTOR 1), COMUNA CASTRO, REGIÓN DE LOS LAGOS, PERT N° 210100051</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>04/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128822375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2 PERT Nº 213103027</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1 PERT Nº 213103028</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128823101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128822375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Proyecto Técnico para el cultivo de Mitílidos del Centro Canal Lemuy, Sur este de Punta Tutil, Nº de Pert 209103036".</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2 PERT Nº 213103027</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Servicios Monprori Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15/11/2013</t>
+          <t>04/12/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128830269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128823101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1</t>
+          <t>"Proyecto Técnico para el cultivo de Mitílidos del Centro Canal Lemuy, Sur este de Punta Tutil, Nº de Pert 209103036".</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Servicios Monprori Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>15/11/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128755417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128830269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128755417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Alimentos Salmofood</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Vitapro Chile S.A</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128575060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación manejo de mortalidad mediante sistema de ensilaje en el centro de cultivo Pullao, Ensenada Pullao, Canal Hudson</t>
+          <t>Ampliación Planta de Alimentos Salmofood</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Vitapro Chile S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>90</v>
+        <v>50000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18/07/2013</t>
+          <t>12/09/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8364977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128575060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Modificación manejo de mortalidad mediante sistema de ensilaje en el centro de cultivo Pullao, Ensenada Pullao, Canal Hudson</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>18/07/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8364977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PROYECTO TÉCNICO PARA EL CULTIVO DE MITÍLIDOS, DEL CENTRO TUTIL, Nº de Pert 211103055"</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8263817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>"AMPLIACIÓN DE PROYECTO TÉCNICO PARA EL CULTIVO DE MITÍLIDOS, DEL CENTRO TUTIL, Nº de Pert 211103055"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>19/06/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8263817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Aguantao, Comuna de Castro, Décima Región. Nº PERT 211103088"</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2000</v>
+        <v>2475</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7867000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de abalones, Punta Chulequehue, Canal Dalcahue, Comuna de Castro, Décima Región. Nº PERT 211103043".</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Aguantao, Comuna de Castro, Décima Región. Nº PERT 211103088"</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>19/02/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7856866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7867000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SUR DE PUNTA PINDO, ISLA CHELÍN, COMUNA DE CASTRO, Xa. REGIÓN DE LOS LAGOS" N° de Solicitud 211103039. AMPLIACIÓN BIOMASA CCS SUR DE PUNTA PINDO</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de abalones, Punta Chulequehue, Canal Dalcahue, Comuna de Castro, Décima Región. Nº PERT 211103043".</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>04/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7596276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7856866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Parque Eólico Pichihué</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SUR DE PUNTA PINDO, ISLA CHELÍN, COMUNA DE CASTRO, Xa. REGIÓN DE LOS LAGOS" N° de Solicitud 211103039. AMPLIACIÓN BIOMASA CCS SUR DE PUNTA PINDO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>240000</v>
+        <v>2800</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>04/12/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7596276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>INSTALACIÓN Y OPERACIÓN DE UNA ESTACIÓN DE TRANSFERENCIA DE ENSILAJE EN TERMINAL PORTUARIO MULTIPROPÓSITO DE CASTRO ESTACIÓN DE TRANSF. ENSILAJE T.PORTUARIO CASTRO</t>
+          <t>Parque Eólico Pichihué</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>Andes Mainstream SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>252</v>
+        <v>240000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>29/08/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7283633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>INSTALACIÓN Y OPERACIÓN DE UNA ESTACIÓN DE TRANSFERENCIA DE ENSILAJE EN TERMINAL PORTUARIO MULTIPROPÓSITO DE CASTRO ESTACIÓN DE TRANSF. ENSILAJE T.PORTUARIO CASTRO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>29/08/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7283633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, ESTERO CASTRO,PUNTA TUTIL, código 100.497,PERT 212103011" MODIFICACIÓN DE PROYECTO TECNICO CENTRO CULTIVO SA</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6685989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, CANAL LEMUY, SECTOR PUNTA LEPE, código 100.418, PERT 212103009" Modificación Proyecto Técnico CCS, Canal Lemuy</t>
+          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, ESTERO CASTRO,PUNTA TUTIL, código 100.497,PERT 212103011" MODIFICACIÓN DE PROYECTO TECNICO CENTRO CULTIVO SA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6686385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6685989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, CANAL LEMUY, SECTOR PUNTA LEPE, código 100.418, PERT 212103009" Modificación Proyecto Técnico CCS, Canal Lemuy</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/03/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6686385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Al Sureste de Isla Quehui, Comuna de Castro, Nº Solicitud: 210103188</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6472492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Al Sureste de Isla Quehui, Comuna de Castro, Nº Solicitud: 210103188</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>12/01/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6472492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, TUTIL, código 100.497"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2800</v>
+        <v>100</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>03/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6342215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación de biomasa de salmónidos, concesión Canal Quehui, al norte de Punta Camahue, Isla Quehui, Comuna de Castro, Nº solicitud: 211103076</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, TUTIL, código 100.497"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>21/12/2011</t>
+          <t>03/01/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6361376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6342215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Ampliación de biomasa de salmónidos, concesión Canal Quehui, al norte de Punta Camahue, Isla Quehui, Comuna de Castro, Nº solicitud: 211103076</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>21/12/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6361376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR NOROESTE PUNTA AGUANTAO Y NORESTE DE ESTERO RILAN COMUNA DE CASTRO (SOL Nº 210103212)"</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>647</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Nueva Captación y Planta de Tratamiento de Agua Potable Sector Alto Castro</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR NOROESTE PUNTA AGUANTAO Y NORESTE DE ESTERO RILAN COMUNA DE CASTRO (SOL Nº 210103212)"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>7000</v>
+        <v>647</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>19/10/2011</t>
+          <t>20/10/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5823734&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Nueva Captación y Planta de Tratamiento de Agua Potable Sector Alto Castro</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,20 +2882,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>319</v>
+        <v>7000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>19/10/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5823734&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 3 COMUNA DE CASTRO (SOL Nº 206103131)"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>656</v>
+        <v>319</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 1 COMUNA DE CASTRO (SOL Nº 206103132)"</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 3 COMUNA DE CASTRO (SOL Nº 206103131)"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA ÁNIMO, X REGION Nº 211103009 (Código del Centro: 100208)</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 1 COMUNA DE CASTRO (SOL Nº 206103132)"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2000</v>
+        <v>656</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5874896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LA ESTANCIA, X REGION" Nº de Ingreso a Trámite: 210103216 (Código del Centro: 100981)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA ÁNIMO, X REGION Nº 211103009 (Código del Centro: 100208)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22/07/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5874896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Península Rilan</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LA ESTANCIA, X REGION" Nº de Ingreso a Trámite: 210103216 (Código del Centro: 100981)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Agricola Santa Ana S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>25/04/2011</t>
+          <t>22/07/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5558971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Cementerio, código 100.417</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Península Rilan</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Agricola Santa Ana S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>25/04/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5558971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Lepe, código 100.418</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Cementerio, código 100.417</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tutil, código 100.497</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Lepe, código 100.418</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Pangue - X Región</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tutil, código 100.497</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>22/03/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Río Cude, Código 100.428"</t>
+          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Pangue - X Región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>22/03/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Putemún, Código 100.978"</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Río Cude, Código 100.428"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO LA ESTANCIA - X REGION</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Putemún, Código 100.978"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>28/02/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Aguantao</t>
+          <t>MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO LA ESTANCIA - X REGION</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>28/02/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"PROYECTO DE AMPLIACIÓN COLEGIO SAN FRANCISCO DE ASÍS"</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Aguantao</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Fundación Educacional Colegio San Francisco Asìs</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2400</v>
+        <v>84</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5289827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo Punta Chulequehue, Código Centro 102586.</t>
+          <t>"PROYECTO DE AMPLIACIÓN COLEGIO SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Fundación Educacional Colegio San Francisco Asìs</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>400</v>
+        <v>2400</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>03/11/2010</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5289827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,12 +3640,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Manejo y disposición Final de Residuos Sólidos Chiloé</t>
+          <t>Modificación de Producción Centro de Cultivo Punta Chulequehue, Código Centro 102586.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5500</v>
+        <v>400</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>03/11/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4887134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro Chelín, Punta Pindo, Isla Chelín</t>
+          <t>Centro de Manejo y disposición Final de Residuos Sólidos Chiloé</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>90</v>
+        <v>5500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4796198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4887134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro Chelín, Punta Pindo, Isla Chelín</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4796198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, SECTOR NORTE DE ESTERO RILÁN N° PERT 207103216</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Mytilus Multiexport S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, NORESTE DE PUNTA AGUANTAO N° PERT 207103186</t>
+          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, SECTOR NORTE DE ESTERO RILÁN N° PERT 207103216</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA PELLO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 204103019)"</t>
+          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, NORESTE DE PUNTA AGUANTAO N° PERT 207103186</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Mytilus Multiexport S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>07/05/2010</t>
+          <t>08/06/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO II</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA PELLO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 204103019)"</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>58</v>
+        <v>314</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>16/04/2010</t>
+          <t>07/05/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3995,21 +3995,21 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>29/03/2010</t>
+          <t>16/04/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4466226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos en Punta Pullao sector 2, N° 207103166</t>
+          <t>CULTIVOS MARINOS DEQUIO II</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>304</v>
+        <v>57</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>12/02/2010</t>
+          <t>29/03/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4466226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>¿Centro de Cultivo de Mitílidos en Punta Pullao sector 1, N° 207103167¿</t>
+          <t>Centro de Cultivo de Mitílidos en Punta Pullao sector 2, N° 207103166</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4091,11 +4091,11 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>828</v>
+        <v>304</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>12/02/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>¿Centro de Cultivo de Mitílidos en Punta Pullao sector 1, N° 207103167¿</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO DE CASTRO PUNTA DEQUIO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103068)" (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO DE CASTRO PUNTA DEQUIO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103068)" (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>02/12/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>60</v>
+        <v>2600</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4221944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO I (e-seia)</t>
+          <t>CULTIVOS MARINOS DEQUIO (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>sonia catepillan guinao</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4221944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Oeste de Isla Chelín 202103123 (e-seia)</t>
+          <t>CULTIVOS MARINOS DEQUIO I (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>sonia catepillan guinao</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4189935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas Nº Solicitud 206103102, sector Este Isla Chelin I, comuna de Castro (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Oeste de Isla Chelín 202103123 (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>JORGE ARTURO CAMPODÓNICO PELUCHONNEAU</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4189935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE ALGAS Nª SOLICITUD 206103103, SECTOR ESTE ISLA CHELIN II, COMUNA DE CASTRO (e-seia)</t>
+          <t>Centro de Cultivo de Algas Nº Solicitud 206103102, sector Este Isla Chelin I, comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE ALGAS Nª SOLICITUD 206103103, SECTOR ESTE ISLA CHELIN II, COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>JORGE ARTURO CAMPODÓNICO PELUCHONNEAU</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>377</v>
+        <v>55</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Mejoramiento Construcción Costanera de Castro, X Región de Los Lagos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>9200</v>
+        <v>377</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4030607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Mejoramiento Construcción Costanera de Castro, X Región de Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>250</v>
+        <v>9200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>08/09/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4030607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA LEPE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>03/08/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3939640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mitilicultura Ellinseng (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA LEPE (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3940385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3939640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO CULTIVO ABALON Nº 201103188 (e-seia)</t>
+          <t>Mitilicultura Ellinseng (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>08/06/2009</t>
+          <t>03/08/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3832886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3940385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACION CENTRO CULTIVO ABALON Nº 201103188 (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>08/06/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3832886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Tratamiento de Riles, de la Empresa Procesadora de Salmones Invertec Seafood S.A., con RCA aprobada Nº 436, ubicada en Llau-Llao s/n°, Comuna de Castro (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>740</v>
+        <v>22</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado del Vertedero Municipal Comuna de Castro (e-seia)</t>
+          <t>Ampliación de la Planta de Tratamiento de Riles, de la Empresa Procesadora de Salmones Invertec Seafood S.A., con RCA aprobada Nº 436, ubicada en Llau-Llao s/n°, Comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>959</v>
+        <v>740</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>14/05/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR OESTE ISLA CHELIN, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103015)" (e-seia)</t>
+          <t>Plan de Cierre y Sellado del Vertedero Municipal Comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>598</v>
+        <v>959</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>27/02/2009</t>
+          <t>14/05/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3599925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR CANAL LEMUY, CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103217)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR OESTE ISLA CHELIN, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103015)" (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>03/02/2009</t>
+          <t>27/02/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3599925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR CANAL LEMUY, CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103217)" (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>03/02/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103004)" (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3505184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN SECTOR SUR PELDEHUE, ISLA QUEHUI, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103153)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103004)" (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>570</v>
+        <v>730</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>03/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3396729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3505184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN SECTOR SUR PELDEHUE, ISLA QUEHUI, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103153)" (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>03/12/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3396729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Construcción Terminal Portuario Multipropósito de Castro (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>7285</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sistema de Cosecha, Matanza y Prefaenamiento de Salmonidos in situ (e-seia)</t>
+          <t>Construcción Terminal Portuario Multipropósito de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1500</v>
+        <v>7285</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>08/10/2008</t>
+          <t>10/11/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3247720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Sistema de Cosecha, Matanza y Prefaenamiento de Salmonidos in situ (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>20</v>
+        <v>1500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>08/10/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3247720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5727,17 +5727,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue I, Nº de pert 208103057 (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Cultivos Curahue S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>19/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2982421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue II, Nº de pert 208103006 (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue I, Nº de pert 208103057 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5819,7 +5819,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2982421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue II, Nº de pert 208103006 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cultivos Curahue S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>19/06/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>"Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, al Noroeste de Punta Tutil, Estero de Castro, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos" (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Audilio Osvaldo Galindo Oyarzo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>"Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, al Noroeste de Punta Tutil, Estero de Castro, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos" (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,20 +5954,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Audilio Osvaldo Galindo Oyarzo</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>429</v>
+        <v>72</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, Sector Punta Tutil, Canal Lemuy, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Marcos Marcelo Galindo Díaz</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>06/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitílidos Concesión de Acuicultura para Cultivo de Mitilidos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, Sector Punta Tutil, Canal Lemuy, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Marcos Marcelo Galindo Díaz</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>06/09/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitílidos Concesión de Acuicultura para Cultivo de Mitilidos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>mejoramiento de suelos a través del tratamiento de biofouling proveniente del proceso de ordenado de redes de cultivo (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Marcelo Calderón Pérez</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>23/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2113599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Matadero San Daniel (e-seia)</t>
+          <t>mejoramiento de suelos a través del tratamiento de biofouling proveniente del proceso de ordenado de redes de cultivo (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad Comercial San Daniel SpA</t>
+          <t>Marcelo Calderón Pérez</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>18/04/2007</t>
+          <t>23/04/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2113599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE ABALON ROJO Nº SOLICITUD 201103232, SECTOR CARAHUE, CANAL LEMUY COMUNA DE CASTRO (e-seia)</t>
+          <t>Matadero San Daniel (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Sociedad Comercial San Daniel SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>18/04/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Archipielago Gestión Ambiental (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE ABALON ROJO Nº SOLICITUD 201103232, SECTOR CARAHUE, CANAL LEMUY COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ARCHIPIELAGO GESTION AMBIENTAL LTDA.</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1000</v>
+        <v>191</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>29/03/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SUR PUNTA PELLO Nº SOL. 203103235 00 (e-seia)</t>
+          <t>Archipielago Gestión Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>ARCHIPIELAGO GESTION AMBIENTAL LTDA.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>66</v>
+        <v>1000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>15/03/2007</t>
+          <t>29/03/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CULTIVOS MARINOS SUR PUNTA PELLO Nº SOL. 203103235 00 (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/03/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6591,17 +6591,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITÍLIDOS CALETA CARAHUE, COMUNA DE CASTRO, CHILOÉ (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,30 +6626,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MEJILLONES PATAGONIA S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>03/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ampliación Instalaciones Planta de Harinas y Aceites de Salmón, Castro (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITÍLIDOS CALETA CARAHUE, COMUNA DE CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>MEJILLONES PATAGONIA S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>03/11/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1762638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Ampliación Instalaciones Planta de Harinas y Aceites de Salmón, Castro (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1762638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CONSTRUCCION 200 VIVIENDAS SOCIALES SECTOR LA CHACRA COMUNA DE CASTRO (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,30 +6770,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2356</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Operaciones Punta Pullao (e-seia)</t>
+          <t>CONSTRUCCION 200 VIVIENDAS SOCIALES SECTOR LA CHACRA COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>600</v>
+        <v>2356</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>20/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1686197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Acopio de Conchas y Planta de Cal Agrícola Chiloé (e-seia)</t>
+          <t>Centro de Operaciones Punta Pullao (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,15 +6871,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Cal Austral S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>20/09/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1686197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR PULLAO, COMUNA DE CASTRO (SOL Nº 201103246)" (e-seia)</t>
+          <t>Acopio de Conchas y Planta de Cal Agrícola Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Cal Austral S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>866</v>
+        <v>700</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>30/08/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1662095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR PULLAO, COMUNA DE CASTRO (SOL Nº 201103246)" (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,20 +6962,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>80</v>
+        <v>866</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>30/08/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1662095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Vertedero San José, Castro, Chiloé (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,30 +7010,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>21/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1585876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Vertedero San José, Castro, Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,30 +7058,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>21/07/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1585876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PROYECTO VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,20 +7106,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>13/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Enjoy Castro Casino &amp; Resort (e-seia)</t>
+          <t>PROYECTO VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Rantrur Sociedad Anónima</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>23221</v>
+        <v>48</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>13/06/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1463347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE CULTIVO DE CHORITO EN PUERTO HUITE, AL OESTE DE PUNTA ARENAS, COMUNA DE QUEMCHI (e-seia)</t>
+          <t>Enjoy Castro Casino &amp; Resort (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,25 +7207,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SALMONES ANDES SALMONES ANDES</t>
+          <t>Rantrur Sociedad Anónima</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>236</v>
+        <v>23221</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>19/05/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1463347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>AMPLIACION CENTRO DE CULTIVO DE CHORITO EN PUERTO HUITE, AL OESTE DE PUNTA ARENAS, COMUNA DE QUEMCHI (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,20 +7250,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>SALMONES ANDES SALMONES ANDES</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>500</v>
+        <v>236</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>19/05/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7311,17 +7311,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7407,17 +7407,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Isla Chelin Punta Pindo, X Región Nº Pert 97103106 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,30 +7490,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>31/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Isla Chelin Punta Pindo, X Región Nº Pert 97103106 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,15 +7543,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>56</v>
+        <v>2400</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>10/11/2005</t>
+          <t>31/01/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,20 +7586,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>10/11/2005</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles, para Planta Procesadora de Salmones Invertec Seafood S.A., Llau-llao s/n°, comuna de Castro (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,20 +7634,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>27/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Construcción de un Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles de la empresa, Pesca y Cultivos Don Jorge S.A. en Llicaldad, Castro X° Región 0 (e-seia)</t>
+          <t>Planta de Tratamiento de Riles, para Planta Procesadora de Salmones Invertec Seafood S.A., Llau-llao s/n°, comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,15 +7687,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Mauricio Cabrera Silva</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>09/06/2005</t>
+          <t>27/10/2005</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, PLANTA PIRUQUINA, CASTRO, DÉCIMA REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Construcción de un Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles de la empresa, Pesca y Cultivos Don Jorge S.A. en Llicaldad, Castro X° Región 0 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,15 +7735,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>Mauricio Cabrera Silva</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>09/06/2005</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TAUCUO. PERT 203103054 (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, PLANTA PIRUQUINA, CASTRO, DÉCIMA REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Mytilus Multiexport S.A.</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>17/05/2005</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS PUNTA CHULEQUEHUE, CANAL DALCAHUE COMUNA DE CASTRO, CHILOE, DECIMA REGION. Nº PERT 203103168 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TAUCUO. PERT 203103054 (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Mytilus Multiexport S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>08/04/2005</t>
+          <t>17/05/2005</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=649216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA ATAL Nº PERT 203103162 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS PUNTA CHULEQUEHUE, CANAL DALCAHUE COMUNA DE CASTRO, CHILOE, DECIMA REGION. Nº PERT 203103168 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>SIXTO OMAR PAREDES MILLÀN</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>55</v>
+        <v>310</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>21/03/2005</t>
+          <t>08/04/2005</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=649216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVOS AGUANTAO. Nª PERT: 203103157 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA ATAL Nº PERT 203103162 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>SIXTO OMAR PAREDES MILLÀN</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ISLA QUEHUI. NªPERT:203103169 (e-seia)</t>
+          <t>CENTRO CULTIVOS AGUANTAO. Nª PERT: 203103157 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>413</v>
+        <v>55</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PELDEHUE. Nª PERT: 203103170 (e-seia)</t>
+          <t>CULTIVOS MARINOS ISLA QUEHUI. NªPERT:203103169 (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>530</v>
+        <v>413</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CULTIVOA MARINOS AGUANTAO Nª PERT:203103151 (e-seia)</t>
+          <t>CULTIVOS MARINOS PELDEHUE. Nª PERT: 203103170 (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>323</v>
+        <v>530</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Cultivos S.T.I. Estero Rilán Norte Nº Solicitud 97103070 (e-seia)</t>
+          <t>CULTIVOA MARINOS AGUANTAO Nª PERT:203103151 (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Cultivadores de Alga Gracilaria, Estero Rilán Norte</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>04/03/2005</t>
+          <t>21/03/2005</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>Cultivos S.T.I. Estero Rilán Norte Nº Solicitud 97103070 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Sindicato de Trabajadores Independientes Cultivadores de Alga Gracilaria, Estero Rilán Norte</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>28/01/2005</t>
+          <t>04/03/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS QUEHUI NºPERT. 201103296 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,15 +8407,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>28/01/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=570671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>COÑAO I, CULTIVO DE MOLUSCOS EN QUINCHAO, CHILOÉ. Pert Nº 202103145 (e-seia)</t>
+          <t>CULTIVOS MARINOS QUEHUI NºPERT. 201103296 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,15 +8455,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>MARÍA MAGDALENA HWARTS AVILÉZ</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>31/12/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=559479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=570671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Sistema de Neutralización de Riles (e-seia)</t>
+          <t>COÑAO I, CULTIVO DE MOLUSCOS EN QUINCHAO, CHILOÉ. Pert Nº 202103145 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,25 +8503,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>MARÍA MAGDALENA HWARTS AVILÉZ</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>31/12/2004</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=560180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=559479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Centro de cultivos Isla Chelin, PERT N° 200103184 (e-seia)</t>
+          <t>Sistema de Neutralización de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,25 +8551,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>19/11/2004</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=513496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=560180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónidos Isla Quehui, comuna de Castro, X Región (Solicitud Nº98103031) (e-seia)</t>
+          <t>Centro de cultivos Isla Chelin, PERT N° 200103184 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,25 +8599,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sea Fine Salmon S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>19/11/2004</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=513496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cultivos Marinos PUNTA PULLAO 1 Nº PERT: 200103037 (e-seia)</t>
+          <t>Centro de Engorda de Salmónidos Isla Quehui, comuna de Castro, X Región (Solicitud Nº98103031) (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,15 +8647,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Sea Fine Salmon S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>29/10/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cultivos Marinos PUNTA PULLAO 2 Nº PERT: 99103222 (e-seia)</t>
+          <t>Cultivos Marinos PUNTA PULLAO 1 Nº PERT: 200103037 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AGUANTAO, CULTIVO DE MOLUSCOS EN CHILOÉ (SOLICITUD Nº 202103079) (e-seia)</t>
+          <t>Cultivos Marinos PUNTA PULLAO 2 Nº PERT: 99103222 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,15 +8743,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>29/10/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Mitilicultura Ellingsen. Nº Solicitud 201103293 (e-seia)</t>
+          <t>AGUANTAO, CULTIVO DE MOLUSCOS EN CHILOÉ (SOLICITUD Nº 202103079) (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,15 +8791,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>29/09/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PULLAO, CULTIVO DE MOLUSCOS EN CASTRO, CHILOÉ (Solicitud Nº201103235) (e-seia)</t>
+          <t>Mitilicultura Ellingsen. Nº Solicitud 201103293 (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,15 +8839,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>29/09/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=463045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS SECTOR PULLAO, COMUNA DE CASTRO, DECIMA REGION. Nº PERT 98103113 (e-seia)</t>
+          <t>PULLAO, CULTIVO DE MOLUSCOS EN CASTRO, CHILOÉ (Solicitud Nº201103235) (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,15 +8887,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>24/09/2004</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=454582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=463045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MOLUSCOS CANAL QUEHUI N° SOLICITUD 201103253 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS SECTOR PULLAO, COMUNA DE CASTRO, DECIMA REGION. Nº PERT 98103113 (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>RODRIGO AQUILES RUIZ PEREZ</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=454582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Centro de Cultivos y Engorda de Moluscos, Rilan 2004, (Nº Sol. 99103018) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MOLUSCOS CANAL QUEHUI N° SOLICITUD 201103253 (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>RODRIGO AQUILES RUIZ PEREZ</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>30/08/2004</t>
+          <t>24/09/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Centro de Cultivos y Engorda de Moluscos, Rilan 2004, (Nº Sol. 99103018) (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,20 +9026,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>30/08/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR PUNTA PINDO, ISLA CHELIN, CASTRO, PROVINCIA DE CHILOE (Sol. 200103097) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,20 +9074,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>30/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=414978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR PUNTA PINDO, ISLA CHELIN, CASTRO, PROVINCIA DE CHILOE (Sol. 200103097) (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,20 +9122,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>4000</v>
+        <v>659</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>30/07/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=414978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS, SECTOR PUNTA VALENZUELA, SAN JOSE, COMUNA DE CASTRO (Nº SOL. 98103007) (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,20 +9170,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ERNESTO ALFONSO OLAVARRIA HERNANDEZ</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>127</v>
+        <v>4000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>12/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=398599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CURAHUE Nº 98103027 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS, SECTOR PUNTA VALENZUELA, SAN JOSE, COMUNA DE CASTRO (Nº SOL. 98103007) (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,15 +9223,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Cultivos Curahue S.A.</t>
+          <t>ERNESTO ALFONSO OLAVARRIA HERNANDEZ</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>07/07/2004</t>
+          <t>12/07/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=394709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=398599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>CULTIVOS MARINOS CURAHUE Nº 98103027 (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,20 +9266,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Cultivos Curahue S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>07/07/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=394709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,12 +9314,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, Nº Sol. 97103106 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,15 +9415,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>17/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>"Centro de Cultivo de Mitílidos, Punta Lepe, Canal Lemuy, Comuna de Castro, X Región, N° Pert. 201103292" (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, Nº Sol. 97103106 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>19/05/2004</t>
+          <t>17/06/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=357056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>"Centro de Cultivo de Mitílidos, Punta Lepe, Canal Lemuy, Comuna de Castro, X Región, N° Pert. 201103292" (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,30 +9506,30 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>19/05/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=357056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Plan Regulador de Castro (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,30 +9554,30 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>19/04/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=323663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>CULTIVO MARINOS CURAHUE 1 Nº98103026 (e-seia)</t>
+          <t>Plan Regulador de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,15 +9607,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>LUIS FRANCISCO HIDALGO SOLAR</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>13/04/2004</t>
+          <t>19/04/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=319362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=323663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Sector Quinched (no. pert 202103127) (e-seia)</t>
+          <t>CULTIVO MARINOS CURAHUE 1 Nº98103026 (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,15 +9655,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Arturo Rosendo Astroza Manosalva</t>
+          <t>LUIS FRANCISCO HIDALGO SOLAR</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>27/02/2004</t>
+          <t>13/04/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=319362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Cultivos Lingue (Nº Sol. 97103098) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Sector Quinched (no. pert 202103127) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,15 +9703,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Carlos Victor Sandoval Dunkler</t>
+          <t>Arturo Rosendo Astroza Manosalva</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>27/02/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=255083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
+          <t>Cultivos Lingue (Nº Sol. 97103098) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,15 +9751,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Carlos Victor Sandoval Dunkler</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>07/01/2004</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=255083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>" Cultivos Marinos Estero Rilan, N° Sol. 98103003" (e-seia)</t>
+          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,15 +9799,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>05/01/2004</t>
+          <t>07/01/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=239491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS, SECTOR PUNTA LEPE, COMUNA DE CASTRO. PERT Nº 99103028 (e-seia)</t>
+          <t>" Cultivos Marinos Estero Rilan, N° Sol. 98103003" (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,15 +9847,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CULTIVOS MAR ATLÁNTICO SpA</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>02/01/2004</t>
+          <t>05/01/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=239491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ABALONES ISLA QUINCHAO N° de Solicitud 201103186 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS, SECTOR PUNTA LEPE, COMUNA DE CASTRO. PERT Nº 99103028 (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>CULTIVOS MAR ATLÁNTICO SpA</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>22/12/2003</t>
+          <t>02/01/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>ABALONES ISLA QUINCHAO N° de Solicitud 201103186 (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,20 +9938,20 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>22/12/2003</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Cultivos Punta Pullao (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,20 +9986,20 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>860</v>
+        <v>200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>31/10/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chai Chai ( Solicitud N°99103166)</t>
+          <t>Cultivos Punta Pullao (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,15 +10039,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Pedro Edgardo Vidal Vargas</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>4</v>
+        <v>860</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>31/10/2002</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Astillero Artesanal Castro</t>
+          <t>Cultivos Marinos Chai Chai ( Solicitud N°99103166)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,25 +10087,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Dago Huberto Gonzalez Villarroel</t>
+          <t>Pedro Edgardo Vidal Vargas</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>21/03/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Concesión de Acuicultura en el Sector de Punta Pullao Comuna de Castro Provincia de Chiloé N° de Solicitud 201103014</t>
+          <t>Astillero Artesanal Castro</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,25 +10135,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Cultivos Marinos del Pacífico S.A.</t>
+          <t>Dago Huberto Gonzalez Villarroel</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>860</v>
+        <v>10</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>21/03/2002</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación de Proyecto Técnico en Concesión de Acuicultura en el Sector de Punta Pullao Comuna de Castro Provincia de Chiloé N° de Solicitud 201103014</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,30 +10178,30 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cultivos Marinos del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200</v>
+        <v>860</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ampliación de Especie Hatchery para la Producción de Semillas de Moluscos Cultivo Mare Aperto S A Ten Ten Castro Isla Chiloé</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,30 +10226,30 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Cultivos Mare Aperto S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>12/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Linlinao</t>
+          <t>Ampliación de Especie Hatchery para la Producción de Semillas de Moluscos Cultivo Mare Aperto S A Ten Ten Castro Isla Chiloé</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,15 +10279,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
+          <t>Cultivos Mare Aperto S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>17/08/2001</t>
+          <t>12/09/2001</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Taller Artesanal de Redes de Agua Dulce Don Alberto</t>
+          <t>Cultivos Marinos Linlinao</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10325,23 +10325,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
+        </is>
+      </c>
       <c r="F208" t="n">
         <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>22/06/2001</t>
+          <t>17/08/2001</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Castro (Tercera Presentación)</t>
+          <t>Taller Artesanal de Redes de Agua Dulce Don Alberto</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10369,27 +10373,23 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
-        </is>
-      </c>
+      <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>09/04/2001</t>
+          <t>22/06/2001</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Cultivo de Molusco en Yutuy Estero Castro</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Castro (Tercera Presentación)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,15 +10419,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Alonso Fernando Hernández Andrade</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>10</v>
+        <v>920</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>28/03/2001</t>
+          <t>09/04/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Castro Sector Gamboa</t>
+          <t>Cultivo de Molusco en Yutuy Estero Castro</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial de Vivienda y Urbanismo, X Región de Los Lagos</t>
+          <t>Alonso Fernando Hernández Andrade</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>27/03/2001</t>
+          <t>28/03/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Riles y Rises Emanados del Lavado de Redes Salmoneras "Taller de Redes Piscis"</t>
+          <t>Modificación al Plan Regulador Comunal de Castro Sector Gamboa</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,25 +10515,25 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Mirna Gómez Paredes</t>
+          <t>Secretaría Ministerial de Vivienda y Urbanismo, X Región de Los Lagos</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>13/02/2001</t>
+          <t>27/03/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ampliación de Camping El Pudú</t>
+          <t>Tratamiento y Disposición Final de Riles y Rises Emanados del Lavado de Redes Salmoneras "Taller de Redes Piscis"</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sociedad Hotelera Plaza Beckna Ltda.</t>
+          <t>Mirna Gómez Paredes</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>27/11/2000</t>
+          <t>13/02/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición de Riles y Rises del Lavado de Redes de Cultivo Marcelo Calderón</t>
+          <t>Ampliación de Camping El Pudú</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,25 +10611,25 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>SOC. MarMau Ltda.</t>
+          <t>Sociedad Hotelera Plaza Beckna Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>03/10/2000</t>
+          <t>27/11/2000</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Eléctrica Pid Pid</t>
+          <t>Tratamiento y Disposición de Riles y Rises del Lavado de Redes de Cultivo Marcelo Calderón</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>SOC. MarMau Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>800</v>
+        <v>140</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>02/08/2000</t>
+          <t>03/10/2000</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar Sociedad Huimar Limitada</t>
+          <t>Construcción y Operación Subestación Eléctrica Pid Pid</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Sociedad Huimar Limitada</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>02/08/2000</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta Procesadora de Productos del Mar Sociedad Huimar Limitada</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10750,20 +10750,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Sociedad Huimar Limitada</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Construcción Centro Turístico</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10798,30 +10798,30 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Adriana Den Braber Soza</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>07/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Construcción de 202 Viviendas Sociales comuna de Castro</t>
+          <t>Construcción Centro Turístico</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,25 +10851,25 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Adriana Den Braber Soza</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1440</v>
+        <v>40</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>20/10/1999</t>
+          <t>07/12/1999</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Castro sector Plaza de Armas</t>
+          <t>Construcción de 202 Viviendas Sociales comuna de Castro</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>03/03/1999</t>
+          <t>20/10/1999</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas ( Segunda Presentación)</t>
+          <t>Modificación al Plan Regulador Comunal de Castro sector Plaza de Armas</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,25 +10947,25 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>17/02/1999</t>
+          <t>03/03/1999</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Proyecto Construcción Establecimiento Educacional en Castro Isla de Chiloe</t>
+          <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas ( Segunda Presentación)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,25 +10995,25 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Archipielago S. A.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>440</v>
+        <v>9100</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>29/10/1998</t>
+          <t>17/02/1999</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,43 +11028,91 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
+          <t>Proyecto Construcción Establecimiento Educacional en Castro Isla de Chiloe</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Sociedad Inmobiliaria Archipielago S. A.</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>440</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>29/10/1998</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1453&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
           <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
         <is>
           <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
-      <c r="F223" t="n">
+      <c r="F224" t="n">
         <v>9170</v>
       </c>
-      <c r="G223" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>30/03/1998</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
+      <c r="H224" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I223" t="inlineStr">
+      <c r="I224" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=800&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J223" t="inlineStr">
+      <c r="J224" t="inlineStr">
         <is>
           <t>Castro</t>
         </is>

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/08/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J224"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NORESTE PUNTA AGUANTAO</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>CULTIVOS SANTURRON SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/08/2022</t>
+          <t>26/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156671155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156678810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, centro 102.515, Punta Ramírez - Canal Lemuy</t>
+          <t>NORESTE PUNTA AGUANTAO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CULTIVOS SANTURRON SPA</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154885769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156671155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
+          <t>Modificación de Proyecto Técnico, centro 102.515, Punta Ramírez - Canal Lemuy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>26/01/2022</t>
+          <t>03/02/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154756826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154885769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MARES ANDINOS SpA</t>
+          <t>CULTIVOS SANTURRON SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>26/01/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148917546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154756826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Subestación Nueva Gamboa</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>MARES ANDINOS SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>19000</v>
+        <v>45</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148779560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148917546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Regularización de la base en tierra y modificación de Proyecto Técnico para la ampliación de biomasa de abalón rojo del Centro 101154, Canal Quehui, noreste Punta Camahue, Isla Quehui, Castro ? Región de los Lagos. N° Pert 218103034</t>
+          <t>Subestación Nueva Gamboa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pesca y Cultivos Don Jorge Ltda</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1900</v>
+        <v>19000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147645415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148779560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, IMELEV. CÓDIGO DE CENTRO N° 102066</t>
+          <t>Regularización de la base en tierra y modificación de Proyecto Técnico para la ampliación de biomasa de abalón rojo del Centro 101154, Canal Quehui, noreste Punta Camahue, Isla Quehui, Castro ? Región de los Lagos. N° Pert 218103034</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Pesca y Cultivos Don Jorge Ltda</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5000</v>
+        <v>1900</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>03/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147536901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147645415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental para ?Ampliación de Biomasa Centro de Cultivo de Mitílidos Pert N° 219103043?, Sector este de Punta Pullao, Canal Hudson, Comuna de Castro, Provincia de Chiloé - Décima Región, código centro 103669</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, IMELEV. CÓDIGO DE CENTRO N° 102066</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sociedad Comercial e Insdustrial Jomar Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>260</v>
+        <v>5000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>29/05/2020</t>
+          <t>03/08/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146699104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147536901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
+          <t>Declaración de Impacto Ambiental para ?Ampliación de Biomasa Centro de Cultivo de Mitílidos Pert N° 219103043?, Sector este de Punta Pullao, Canal Hudson, Comuna de Castro, Provincia de Chiloé - Décima Región, código centro 103669</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL MAR Y MAR LTDA.</t>
+          <t>sociedad Comercial e Insdustrial Jomar Ltda.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/05/2019</t>
+          <t>29/05/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143246458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146699104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Cultivos Marinos Punta Pullao 2, N° PERT 99103222?</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>SOCIEDAD COMERCIAL MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>22/05/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142948123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143246458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, MATADERO SAN DANIEL, CASTRO, CHILOE</t>
+          <t>Modificación del Proyecto ?Cultivos Marinos Punta Pullao 2, N° PERT 99103222?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sociedad Comercial San Daniel SpA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132474245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142948123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, MATADERO SAN DANIEL, CASTRO, CHILOE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Sociedad Comercial San Daniel SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>06/09/2016</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131752002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132474245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>41000</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>06/09/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131752002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 103.844 LINGUE-ESTERO CASTRO, RIO BLANCO LTDA.</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SOCIEDAD INDUSTRIAL Y COMERCIAL RIO BLANCO LTDA.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>41000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/12/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 103.844 LINGUE-ESTERO CASTRO, RIO BLANCO LTDA.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>SOCIEDAD INDUSTRIAL Y COMERCIAL RIO BLANCO LTDA.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>41000</v>
+        <v>40</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>22/12/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>41000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/09/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
+          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>02/12/2014</t>
+          <t>23/09/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130005588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063</t>
+          <t>MODIFICACION DE PROYECTO TECNICO ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>02/12/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130005588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RELOCALIZACIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COSTA OESTE ISLA CHELIN (SECTOR 1), COMUNA CASTRO, REGIÓN DE LOS LAGOS, PERT N° 210100051</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1 PERT Nº 213103028</t>
+          <t>RELOCALIZACIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COSTA OESTE ISLA CHELIN (SECTOR 1), COMUNA CASTRO, REGIÓN DE LOS LAGOS, PERT N° 210100051</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>04/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128822375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2 PERT Nº 213103027</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1 PERT Nº 213103028</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128823101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128822375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Proyecto Técnico para el cultivo de Mitílidos del Centro Canal Lemuy, Sur este de Punta Tutil, Nº de Pert 209103036".</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2 PERT Nº 213103027</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Servicios Monprori Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15/11/2013</t>
+          <t>04/12/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128830269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128823101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1</t>
+          <t>"Proyecto Técnico para el cultivo de Mitílidos del Centro Canal Lemuy, Sur este de Punta Tutil, Nº de Pert 209103036".</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Servicios Monprori Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>15/11/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128755417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128830269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128755417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Alimentos Salmofood</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Vitapro Chile S.A</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128575060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Modificación manejo de mortalidad mediante sistema de ensilaje en el centro de cultivo Pullao, Ensenada Pullao, Canal Hudson</t>
+          <t>Ampliación Planta de Alimentos Salmofood</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Vitapro Chile S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>90</v>
+        <v>50000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18/07/2013</t>
+          <t>12/09/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8364977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128575060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Modificación manejo de mortalidad mediante sistema de ensilaje en el centro de cultivo Pullao, Ensenada Pullao, Canal Hudson</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>18/07/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8364977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PROYECTO TÉCNICO PARA EL CULTIVO DE MITÍLIDOS, DEL CENTRO TUTIL, Nº de Pert 211103055"</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8263817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>"AMPLIACIÓN DE PROYECTO TÉCNICO PARA EL CULTIVO DE MITÍLIDOS, DEL CENTRO TUTIL, Nº de Pert 211103055"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>19/06/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8263817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Aguantao, Comuna de Castro, Décima Región. Nº PERT 211103088"</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2000</v>
+        <v>2475</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7867000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de abalones, Punta Chulequehue, Canal Dalcahue, Comuna de Castro, Décima Región. Nº PERT 211103043".</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Aguantao, Comuna de Castro, Décima Región. Nº PERT 211103088"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>19/02/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7856866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7867000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SUR DE PUNTA PINDO, ISLA CHELÍN, COMUNA DE CASTRO, Xa. REGIÓN DE LOS LAGOS" N° de Solicitud 211103039. AMPLIACIÓN BIOMASA CCS SUR DE PUNTA PINDO</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de abalones, Punta Chulequehue, Canal Dalcahue, Comuna de Castro, Décima Región. Nº PERT 211103043".</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>04/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7596276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7856866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Parque Eólico Pichihué</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SUR DE PUNTA PINDO, ISLA CHELÍN, COMUNA DE CASTRO, Xa. REGIÓN DE LOS LAGOS" N° de Solicitud 211103039. AMPLIACIÓN BIOMASA CCS SUR DE PUNTA PINDO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>240000</v>
+        <v>2800</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>04/12/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7596276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>INSTALACIÓN Y OPERACIÓN DE UNA ESTACIÓN DE TRANSFERENCIA DE ENSILAJE EN TERMINAL PORTUARIO MULTIPROPÓSITO DE CASTRO ESTACIÓN DE TRANSF. ENSILAJE T.PORTUARIO CASTRO</t>
+          <t>Parque Eólico Pichihué</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>Andes Mainstream SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>252</v>
+        <v>240000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>29/08/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7283633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>INSTALACIÓN Y OPERACIÓN DE UNA ESTACIÓN DE TRANSFERENCIA DE ENSILAJE EN TERMINAL PORTUARIO MULTIPROPÓSITO DE CASTRO ESTACIÓN DE TRANSF. ENSILAJE T.PORTUARIO CASTRO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>29/08/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7283633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, ESTERO CASTRO,PUNTA TUTIL, código 100.497,PERT 212103011" MODIFICACIÓN DE PROYECTO TECNICO CENTRO CULTIVO SA</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6685989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, CANAL LEMUY, SECTOR PUNTA LEPE, código 100.418, PERT 212103009" Modificación Proyecto Técnico CCS, Canal Lemuy</t>
+          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, ESTERO CASTRO,PUNTA TUTIL, código 100.497,PERT 212103011" MODIFICACIÓN DE PROYECTO TECNICO CENTRO CULTIVO SA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6686385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6685989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, CANAL LEMUY, SECTOR PUNTA LEPE, código 100.418, PERT 212103009" Modificación Proyecto Técnico CCS, Canal Lemuy</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/03/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6686385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Al Sureste de Isla Quehui, Comuna de Castro, Nº Solicitud: 210103188</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6472492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Al Sureste de Isla Quehui, Comuna de Castro, Nº Solicitud: 210103188</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>12/01/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6472492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, TUTIL, código 100.497"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2800</v>
+        <v>100</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>03/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6342215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación de biomasa de salmónidos, concesión Canal Quehui, al norte de Punta Camahue, Isla Quehui, Comuna de Castro, Nº solicitud: 211103076</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, TUTIL, código 100.497"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21/12/2011</t>
+          <t>03/01/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6361376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6342215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Ampliación de biomasa de salmónidos, concesión Canal Quehui, al norte de Punta Camahue, Isla Quehui, Comuna de Castro, Nº solicitud: 211103076</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>21/12/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6361376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR NOROESTE PUNTA AGUANTAO Y NORESTE DE ESTERO RILAN COMUNA DE CASTRO (SOL Nº 210103212)"</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>647</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Nueva Captación y Planta de Tratamiento de Agua Potable Sector Alto Castro</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR NOROESTE PUNTA AGUANTAO Y NORESTE DE ESTERO RILAN COMUNA DE CASTRO (SOL Nº 210103212)"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7000</v>
+        <v>647</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>19/10/2011</t>
+          <t>20/10/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5823734&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Nueva Captación y Planta de Tratamiento de Agua Potable Sector Alto Castro</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>319</v>
+        <v>7000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>19/10/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5823734&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 3 COMUNA DE CASTRO (SOL Nº 206103131)"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>656</v>
+        <v>319</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 1 COMUNA DE CASTRO (SOL Nº 206103132)"</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 3 COMUNA DE CASTRO (SOL Nº 206103131)"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA ÁNIMO, X REGION Nº 211103009 (Código del Centro: 100208)</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 1 COMUNA DE CASTRO (SOL Nº 206103132)"</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2000</v>
+        <v>656</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5874896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LA ESTANCIA, X REGION" Nº de Ingreso a Trámite: 210103216 (Código del Centro: 100981)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA ÁNIMO, X REGION Nº 211103009 (Código del Centro: 100208)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>22/07/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5874896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Península Rilan</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LA ESTANCIA, X REGION" Nº de Ingreso a Trámite: 210103216 (Código del Centro: 100981)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Agricola Santa Ana S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>25/04/2011</t>
+          <t>22/07/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5558971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Cementerio, código 100.417</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Península Rilan</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Agricola Santa Ana S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>25/04/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5558971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Lepe, código 100.418</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Cementerio, código 100.417</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tutil, código 100.497</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Lepe, código 100.418</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Pangue - X Región</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tutil, código 100.497</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>22/03/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Río Cude, Código 100.428"</t>
+          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Pangue - X Región</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>22/03/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Putemún, Código 100.978"</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Río Cude, Código 100.428"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO LA ESTANCIA - X REGION</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Putemún, Código 100.978"</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>28/02/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Aguantao</t>
+          <t>MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO LA ESTANCIA - X REGION</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>28/02/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"PROYECTO DE AMPLIACIÓN COLEGIO SAN FRANCISCO DE ASÍS"</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Aguantao</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Fundación Educacional Colegio San Francisco Asìs</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2400</v>
+        <v>84</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5289827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo Punta Chulequehue, Código Centro 102586.</t>
+          <t>"PROYECTO DE AMPLIACIÓN COLEGIO SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Fundación Educacional Colegio San Francisco Asìs</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>400</v>
+        <v>2400</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03/11/2010</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5289827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Manejo y disposición Final de Residuos Sólidos Chiloé</t>
+          <t>Modificación de Producción Centro de Cultivo Punta Chulequehue, Código Centro 102586.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>5500</v>
+        <v>400</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>03/11/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4887134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro Chelín, Punta Pindo, Isla Chelín</t>
+          <t>Centro de Manejo y disposición Final de Residuos Sólidos Chiloé</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>90</v>
+        <v>5500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4796198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4887134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro Chelín, Punta Pindo, Isla Chelín</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4796198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, SECTOR NORTE DE ESTERO RILÁN N° PERT 207103216</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Mytilus Multiexport S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, NORESTE DE PUNTA AGUANTAO N° PERT 207103186</t>
+          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, SECTOR NORTE DE ESTERO RILÁN N° PERT 207103216</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA PELLO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 204103019)"</t>
+          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, NORESTE DE PUNTA AGUANTAO N° PERT 207103186</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Mytilus Multiexport S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>07/05/2010</t>
+          <t>08/06/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO II</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA PELLO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 204103019)"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>58</v>
+        <v>314</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>16/04/2010</t>
+          <t>07/05/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4043,21 +4043,21 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>29/03/2010</t>
+          <t>16/04/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4466226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos en Punta Pullao sector 2, N° 207103166</t>
+          <t>CULTIVOS MARINOS DEQUIO II</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>304</v>
+        <v>57</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12/02/2010</t>
+          <t>29/03/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4466226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>¿Centro de Cultivo de Mitílidos en Punta Pullao sector 1, N° 207103167¿</t>
+          <t>Centro de Cultivo de Mitílidos en Punta Pullao sector 2, N° 207103166</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4139,11 +4139,11 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>828</v>
+        <v>304</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>12/02/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>¿Centro de Cultivo de Mitílidos en Punta Pullao sector 1, N° 207103167¿</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO DE CASTRO PUNTA DEQUIO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103068)" (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>02/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO DE CASTRO PUNTA DEQUIO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103068)" (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>02/12/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4221944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO I (e-seia)</t>
+          <t>CULTIVOS MARINOS DEQUIO (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>sonia catepillan guinao</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4221944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Oeste de Isla Chelín 202103123 (e-seia)</t>
+          <t>CULTIVOS MARINOS DEQUIO I (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>sonia catepillan guinao</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4189935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas Nº Solicitud 206103102, sector Este Isla Chelin I, comuna de Castro (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Oeste de Isla Chelín 202103123 (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>JORGE ARTURO CAMPODÓNICO PELUCHONNEAU</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4189935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE ALGAS Nª SOLICITUD 206103103, SECTOR ESTE ISLA CHELIN II, COMUNA DE CASTRO (e-seia)</t>
+          <t>Centro de Cultivo de Algas Nº Solicitud 206103102, sector Este Isla Chelin I, comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE ALGAS Nª SOLICITUD 206103103, SECTOR ESTE ISLA CHELIN II, COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>JORGE ARTURO CAMPODÓNICO PELUCHONNEAU</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>377</v>
+        <v>55</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Mejoramiento Construcción Costanera de Castro, X Región de Los Lagos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>9200</v>
+        <v>377</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>08/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4030607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Mejoramiento Construcción Costanera de Castro, X Región de Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>250</v>
+        <v>9200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>08/09/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4030607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA LEPE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>03/08/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3939640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mitilicultura Ellinseng (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA LEPE (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3940385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3939640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO CULTIVO ABALON Nº 201103188 (e-seia)</t>
+          <t>Mitilicultura Ellinseng (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>08/06/2009</t>
+          <t>03/08/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3832886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3940385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACION CENTRO CULTIVO ABALON Nº 201103188 (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>08/06/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3832886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Tratamiento de Riles, de la Empresa Procesadora de Salmones Invertec Seafood S.A., con RCA aprobada Nº 436, ubicada en Llau-Llao s/n°, Comuna de Castro (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>740</v>
+        <v>22</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado del Vertedero Municipal Comuna de Castro (e-seia)</t>
+          <t>Ampliación de la Planta de Tratamiento de Riles, de la Empresa Procesadora de Salmones Invertec Seafood S.A., con RCA aprobada Nº 436, ubicada en Llau-Llao s/n°, Comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>959</v>
+        <v>740</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>14/05/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR OESTE ISLA CHELIN, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103015)" (e-seia)</t>
+          <t>Plan de Cierre y Sellado del Vertedero Municipal Comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>598</v>
+        <v>959</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>27/02/2009</t>
+          <t>14/05/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3599925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR CANAL LEMUY, CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103217)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR OESTE ISLA CHELIN, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103015)" (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>03/02/2009</t>
+          <t>27/02/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3599925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR CANAL LEMUY, CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103217)" (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>03/02/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103004)" (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3505184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN SECTOR SUR PELDEHUE, ISLA QUEHUI, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103153)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103004)" (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>570</v>
+        <v>730</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>03/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3396729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3505184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN SECTOR SUR PELDEHUE, ISLA QUEHUI, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103153)" (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>03/12/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3396729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Construcción Terminal Portuario Multipropósito de Castro (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>7285</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>10/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Sistema de Cosecha, Matanza y Prefaenamiento de Salmonidos in situ (e-seia)</t>
+          <t>Construcción Terminal Portuario Multipropósito de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1500</v>
+        <v>7285</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>08/10/2008</t>
+          <t>10/11/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3247720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Sistema de Cosecha, Matanza y Prefaenamiento de Salmonidos in situ (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>1500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>08/10/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3247720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue I, Nº de pert 208103057 (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Cultivos Curahue S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>19/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2982421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue II, Nº de pert 208103006 (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue I, Nº de pert 208103057 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2982421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue II, Nº de pert 208103006 (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cultivos Curahue S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>19/06/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>"Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, al Noroeste de Punta Tutil, Estero de Castro, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos" (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,30 +5954,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Audilio Osvaldo Galindo Oyarzo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>"Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, al Noroeste de Punta Tutil, Estero de Castro, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos" (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,20 +6002,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Audilio Osvaldo Galindo Oyarzo</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>429</v>
+        <v>72</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, Sector Punta Tutil, Canal Lemuy, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Marcos Marcelo Galindo Díaz</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>06/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitílidos Concesión de Acuicultura para Cultivo de Mitilidos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, Sector Punta Tutil, Canal Lemuy, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Marcos Marcelo Galindo Díaz</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>06/09/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitílidos Concesión de Acuicultura para Cultivo de Mitilidos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>mejoramiento de suelos a través del tratamiento de biofouling proveniente del proceso de ordenado de redes de cultivo (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Marcelo Calderón Pérez</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>23/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2113599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Matadero San Daniel (e-seia)</t>
+          <t>mejoramiento de suelos a través del tratamiento de biofouling proveniente del proceso de ordenado de redes de cultivo (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad Comercial San Daniel SpA</t>
+          <t>Marcelo Calderón Pérez</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>18/04/2007</t>
+          <t>23/04/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2113599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE ABALON ROJO Nº SOLICITUD 201103232, SECTOR CARAHUE, CANAL LEMUY COMUNA DE CASTRO (e-seia)</t>
+          <t>Matadero San Daniel (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Sociedad Comercial San Daniel SpA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>18/04/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Archipielago Gestión Ambiental (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE ABALON ROJO Nº SOLICITUD 201103232, SECTOR CARAHUE, CANAL LEMUY COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ARCHIPIELAGO GESTION AMBIENTAL LTDA.</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1000</v>
+        <v>191</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>29/03/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SUR PUNTA PELLO Nº SOL. 203103235 00 (e-seia)</t>
+          <t>Archipielago Gestión Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>ARCHIPIELAGO GESTION AMBIENTAL LTDA.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>66</v>
+        <v>1000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>15/03/2007</t>
+          <t>29/03/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CULTIVOS MARINOS SUR PUNTA PELLO Nº SOL. 203103235 00 (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/03/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6639,17 +6639,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITÍLIDOS CALETA CARAHUE, COMUNA DE CASTRO, CHILOÉ (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>MEJILLONES PATAGONIA S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>03/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Ampliación Instalaciones Planta de Harinas y Aceites de Salmón, Castro (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITÍLIDOS CALETA CARAHUE, COMUNA DE CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>MEJILLONES PATAGONIA S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>03/11/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1762638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Ampliación Instalaciones Planta de Harinas y Aceites de Salmón, Castro (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1762638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CONSTRUCCION 200 VIVIENDAS SOCIALES SECTOR LA CHACRA COMUNA DE CASTRO (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,30 +6818,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2356</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Operaciones Punta Pullao (e-seia)</t>
+          <t>CONSTRUCCION 200 VIVIENDAS SOCIALES SECTOR LA CHACRA COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,15 +6871,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>600</v>
+        <v>2356</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>20/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1686197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Acopio de Conchas y Planta de Cal Agrícola Chiloé (e-seia)</t>
+          <t>Centro de Operaciones Punta Pullao (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Cal Austral S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>20/09/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1686197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR PULLAO, COMUNA DE CASTRO (SOL Nº 201103246)" (e-seia)</t>
+          <t>Acopio de Conchas y Planta de Cal Agrícola Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Cal Austral S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>866</v>
+        <v>700</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>30/08/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1662095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR PULLAO, COMUNA DE CASTRO (SOL Nº 201103246)" (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,20 +7010,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>80</v>
+        <v>866</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>30/08/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1662095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Vertedero San José, Castro, Chiloé (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,30 +7058,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>21/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1585876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Vertedero San José, Castro, Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,30 +7106,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>21/07/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1585876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PROYECTO VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,20 +7154,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>13/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Enjoy Castro Casino &amp; Resort (e-seia)</t>
+          <t>PROYECTO VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,25 +7207,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Rantrur Sociedad Anónima</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>23221</v>
+        <v>48</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>13/06/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1463347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE CULTIVO DE CHORITO EN PUERTO HUITE, AL OESTE DE PUNTA ARENAS, COMUNA DE QUEMCHI (e-seia)</t>
+          <t>Enjoy Castro Casino &amp; Resort (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SALMONES ANDES SALMONES ANDES</t>
+          <t>Rantrur Sociedad Anónima</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>236</v>
+        <v>23221</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>19/05/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1463347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>AMPLIACION CENTRO DE CULTIVO DE CHORITO EN PUERTO HUITE, AL OESTE DE PUNTA ARENAS, COMUNA DE QUEMCHI (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,20 +7298,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>SALMONES ANDES SALMONES ANDES</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>500</v>
+        <v>236</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>19/05/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7359,17 +7359,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7455,17 +7455,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Isla Chelin Punta Pindo, X Región Nº Pert 97103106 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,30 +7538,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>31/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Isla Chelin Punta Pindo, X Región Nº Pert 97103106 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>56</v>
+        <v>2400</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>10/11/2005</t>
+          <t>31/01/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,20 +7634,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>10/11/2005</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles, para Planta Procesadora de Salmones Invertec Seafood S.A., Llau-llao s/n°, comuna de Castro (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,20 +7682,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>27/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Construcción de un Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles de la empresa, Pesca y Cultivos Don Jorge S.A. en Llicaldad, Castro X° Región 0 (e-seia)</t>
+          <t>Planta de Tratamiento de Riles, para Planta Procesadora de Salmones Invertec Seafood S.A., Llau-llao s/n°, comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,15 +7735,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Mauricio Cabrera Silva</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>09/06/2005</t>
+          <t>27/10/2005</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, PLANTA PIRUQUINA, CASTRO, DÉCIMA REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Construcción de un Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles de la empresa, Pesca y Cultivos Don Jorge S.A. en Llicaldad, Castro X° Región 0 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>Mauricio Cabrera Silva</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>09/06/2005</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TAUCUO. PERT 203103054 (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, PLANTA PIRUQUINA, CASTRO, DÉCIMA REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Mytilus Multiexport S.A.</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>17/05/2005</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS PUNTA CHULEQUEHUE, CANAL DALCAHUE COMUNA DE CASTRO, CHILOE, DECIMA REGION. Nº PERT 203103168 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TAUCUO. PERT 203103054 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Mytilus Multiexport S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>08/04/2005</t>
+          <t>17/05/2005</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=649216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA ATAL Nº PERT 203103162 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS PUNTA CHULEQUEHUE, CANAL DALCAHUE COMUNA DE CASTRO, CHILOE, DECIMA REGION. Nº PERT 203103168 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>SIXTO OMAR PAREDES MILLÀN</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>55</v>
+        <v>310</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>21/03/2005</t>
+          <t>08/04/2005</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=649216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVOS AGUANTAO. Nª PERT: 203103157 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA ATAL Nº PERT 203103162 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>SIXTO OMAR PAREDES MILLÀN</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ISLA QUEHUI. NªPERT:203103169 (e-seia)</t>
+          <t>CENTRO CULTIVOS AGUANTAO. Nª PERT: 203103157 (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>413</v>
+        <v>55</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PELDEHUE. Nª PERT: 203103170 (e-seia)</t>
+          <t>CULTIVOS MARINOS ISLA QUEHUI. NªPERT:203103169 (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8075,7 +8075,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>530</v>
+        <v>413</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CULTIVOA MARINOS AGUANTAO Nª PERT:203103151 (e-seia)</t>
+          <t>CULTIVOS MARINOS PELDEHUE. Nª PERT: 203103170 (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>323</v>
+        <v>530</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Cultivos S.T.I. Estero Rilán Norte Nº Solicitud 97103070 (e-seia)</t>
+          <t>CULTIVOA MARINOS AGUANTAO Nª PERT:203103151 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Cultivadores de Alga Gracilaria, Estero Rilán Norte</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>04/03/2005</t>
+          <t>21/03/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>Cultivos S.T.I. Estero Rilán Norte Nº Solicitud 97103070 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Sindicato de Trabajadores Independientes Cultivadores de Alga Gracilaria, Estero Rilán Norte</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>28/01/2005</t>
+          <t>04/03/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS QUEHUI NºPERT. 201103296 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,25 +8455,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>28/01/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=570671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>COÑAO I, CULTIVO DE MOLUSCOS EN QUINCHAO, CHILOÉ. Pert Nº 202103145 (e-seia)</t>
+          <t>CULTIVOS MARINOS QUEHUI NºPERT. 201103296 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,15 +8503,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>MARÍA MAGDALENA HWARTS AVILÉZ</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>31/12/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=559479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=570671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Sistema de Neutralización de Riles (e-seia)</t>
+          <t>COÑAO I, CULTIVO DE MOLUSCOS EN QUINCHAO, CHILOÉ. Pert Nº 202103145 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,25 +8551,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>MARÍA MAGDALENA HWARTS AVILÉZ</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>31/12/2004</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=560180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=559479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Centro de cultivos Isla Chelin, PERT N° 200103184 (e-seia)</t>
+          <t>Sistema de Neutralización de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,25 +8599,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>19/11/2004</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=513496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=560180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónidos Isla Quehui, comuna de Castro, X Región (Solicitud Nº98103031) (e-seia)</t>
+          <t>Centro de cultivos Isla Chelin, PERT N° 200103184 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,25 +8647,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sea Fine Salmon S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>19/11/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=513496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cultivos Marinos PUNTA PULLAO 1 Nº PERT: 200103037 (e-seia)</t>
+          <t>Centro de Engorda de Salmónidos Isla Quehui, comuna de Castro, X Región (Solicitud Nº98103031) (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,15 +8695,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Sea Fine Salmon S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>29/10/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Cultivos Marinos PUNTA PULLAO 2 Nº PERT: 99103222 (e-seia)</t>
+          <t>Cultivos Marinos PUNTA PULLAO 1 Nº PERT: 200103037 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AGUANTAO, CULTIVO DE MOLUSCOS EN CHILOÉ (SOLICITUD Nº 202103079) (e-seia)</t>
+          <t>Cultivos Marinos PUNTA PULLAO 2 Nº PERT: 99103222 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,15 +8791,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>29/10/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Mitilicultura Ellingsen. Nº Solicitud 201103293 (e-seia)</t>
+          <t>AGUANTAO, CULTIVO DE MOLUSCOS EN CHILOÉ (SOLICITUD Nº 202103079) (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,15 +8839,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>29/09/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PULLAO, CULTIVO DE MOLUSCOS EN CASTRO, CHILOÉ (Solicitud Nº201103235) (e-seia)</t>
+          <t>Mitilicultura Ellingsen. Nº Solicitud 201103293 (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,15 +8887,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>29/09/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=463045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS SECTOR PULLAO, COMUNA DE CASTRO, DECIMA REGION. Nº PERT 98103113 (e-seia)</t>
+          <t>PULLAO, CULTIVO DE MOLUSCOS EN CASTRO, CHILOÉ (Solicitud Nº201103235) (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,15 +8935,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>24/09/2004</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=454582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=463045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MOLUSCOS CANAL QUEHUI N° SOLICITUD 201103253 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS SECTOR PULLAO, COMUNA DE CASTRO, DECIMA REGION. Nº PERT 98103113 (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>RODRIGO AQUILES RUIZ PEREZ</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=454582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Centro de Cultivos y Engorda de Moluscos, Rilan 2004, (Nº Sol. 99103018) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MOLUSCOS CANAL QUEHUI N° SOLICITUD 201103253 (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,15 +9031,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>RODRIGO AQUILES RUIZ PEREZ</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>30/08/2004</t>
+          <t>24/09/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Centro de Cultivos y Engorda de Moluscos, Rilan 2004, (Nº Sol. 99103018) (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,20 +9074,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>30/08/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR PUNTA PINDO, ISLA CHELIN, CASTRO, PROVINCIA DE CHILOE (Sol. 200103097) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,20 +9122,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>30/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=414978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR PUNTA PINDO, ISLA CHELIN, CASTRO, PROVINCIA DE CHILOE (Sol. 200103097) (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,20 +9170,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>4000</v>
+        <v>659</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>30/07/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=414978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS, SECTOR PUNTA VALENZUELA, SAN JOSE, COMUNA DE CASTRO (Nº SOL. 98103007) (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,20 +9218,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ERNESTO ALFONSO OLAVARRIA HERNANDEZ</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>127</v>
+        <v>4000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>12/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=398599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CURAHUE Nº 98103027 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS, SECTOR PUNTA VALENZUELA, SAN JOSE, COMUNA DE CASTRO (Nº SOL. 98103007) (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,15 +9271,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Cultivos Curahue S.A.</t>
+          <t>ERNESTO ALFONSO OLAVARRIA HERNANDEZ</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>07/07/2004</t>
+          <t>12/07/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=394709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=398599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>CULTIVOS MARINOS CURAHUE Nº 98103027 (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,20 +9314,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Cultivos Curahue S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>07/07/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=394709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,12 +9362,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, Nº Sol. 97103106 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9471,17 +9471,17 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>17/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>"Centro de Cultivo de Mitílidos, Punta Lepe, Canal Lemuy, Comuna de Castro, X Región, N° Pert. 201103292" (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, Nº Sol. 97103106 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>19/05/2004</t>
+          <t>17/06/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=357056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>"Centro de Cultivo de Mitílidos, Punta Lepe, Canal Lemuy, Comuna de Castro, X Región, N° Pert. 201103292" (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,30 +9554,30 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>19/05/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=357056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Plan Regulador de Castro (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,30 +9602,30 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>19/04/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=323663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CULTIVO MARINOS CURAHUE 1 Nº98103026 (e-seia)</t>
+          <t>Plan Regulador de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,15 +9655,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>LUIS FRANCISCO HIDALGO SOLAR</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>13/04/2004</t>
+          <t>19/04/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=319362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=323663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Sector Quinched (no. pert 202103127) (e-seia)</t>
+          <t>CULTIVO MARINOS CURAHUE 1 Nº98103026 (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,15 +9703,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Arturo Rosendo Astroza Manosalva</t>
+          <t>LUIS FRANCISCO HIDALGO SOLAR</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>27/02/2004</t>
+          <t>13/04/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=319362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Cultivos Lingue (Nº Sol. 97103098) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Sector Quinched (no. pert 202103127) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,15 +9751,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Carlos Victor Sandoval Dunkler</t>
+          <t>Arturo Rosendo Astroza Manosalva</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>27/02/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=255083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
+          <t>Cultivos Lingue (Nº Sol. 97103098) (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,15 +9799,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Carlos Victor Sandoval Dunkler</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>07/01/2004</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=255083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>" Cultivos Marinos Estero Rilan, N° Sol. 98103003" (e-seia)</t>
+          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,15 +9847,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>05/01/2004</t>
+          <t>07/01/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=239491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS, SECTOR PUNTA LEPE, COMUNA DE CASTRO. PERT Nº 99103028 (e-seia)</t>
+          <t>" Cultivos Marinos Estero Rilan, N° Sol. 98103003" (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>CULTIVOS MAR ATLÁNTICO SpA</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>02/01/2004</t>
+          <t>05/01/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=239491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ABALONES ISLA QUINCHAO N° de Solicitud 201103186 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS, SECTOR PUNTA LEPE, COMUNA DE CASTRO. PERT Nº 99103028 (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,15 +9943,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>CULTIVOS MAR ATLÁNTICO SpA</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>22/12/2003</t>
+          <t>02/01/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>ABALONES ISLA QUINCHAO N° de Solicitud 201103186 (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,20 +9986,20 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>22/12/2003</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Cultivos Punta Pullao (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,20 +10034,20 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>860</v>
+        <v>200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>31/10/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chai Chai ( Solicitud N°99103166)</t>
+          <t>Cultivos Punta Pullao (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,15 +10087,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Pedro Edgardo Vidal Vargas</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>4</v>
+        <v>860</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>31/10/2002</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Astillero Artesanal Castro</t>
+          <t>Cultivos Marinos Chai Chai ( Solicitud N°99103166)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,25 +10135,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Dago Huberto Gonzalez Villarroel</t>
+          <t>Pedro Edgardo Vidal Vargas</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>21/03/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Concesión de Acuicultura en el Sector de Punta Pullao Comuna de Castro Provincia de Chiloé N° de Solicitud 201103014</t>
+          <t>Astillero Artesanal Castro</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,25 +10183,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Cultivos Marinos del Pacífico S.A.</t>
+          <t>Dago Huberto Gonzalez Villarroel</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>860</v>
+        <v>10</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>21/03/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación de Proyecto Técnico en Concesión de Acuicultura en el Sector de Punta Pullao Comuna de Castro Provincia de Chiloé N° de Solicitud 201103014</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,30 +10226,30 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cultivos Marinos del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200</v>
+        <v>860</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación de Especie Hatchery para la Producción de Semillas de Moluscos Cultivo Mare Aperto S A Ten Ten Castro Isla Chiloé</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,30 +10274,30 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Cultivos Mare Aperto S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>12/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Linlinao</t>
+          <t>Ampliación de Especie Hatchery para la Producción de Semillas de Moluscos Cultivo Mare Aperto S A Ten Ten Castro Isla Chiloé</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,15 +10327,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
+          <t>Cultivos Mare Aperto S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>17/08/2001</t>
+          <t>12/09/2001</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Taller Artesanal de Redes de Agua Dulce Don Alberto</t>
+          <t>Cultivos Marinos Linlinao</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10373,23 +10373,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
+        </is>
+      </c>
       <c r="F209" t="n">
         <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>22/06/2001</t>
+          <t>17/08/2001</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Castro (Tercera Presentación)</t>
+          <t>Taller Artesanal de Redes de Agua Dulce Don Alberto</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10417,27 +10421,23 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
-        </is>
-      </c>
+      <c r="E210" t="inlineStr"/>
       <c r="F210" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>09/04/2001</t>
+          <t>22/06/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Cultivo de Molusco en Yutuy Estero Castro</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Castro (Tercera Presentación)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Alonso Fernando Hernández Andrade</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>10</v>
+        <v>920</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>28/03/2001</t>
+          <t>09/04/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Castro Sector Gamboa</t>
+          <t>Cultivo de Molusco en Yutuy Estero Castro</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial de Vivienda y Urbanismo, X Región de Los Lagos</t>
+          <t>Alonso Fernando Hernández Andrade</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>27/03/2001</t>
+          <t>28/03/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Riles y Rises Emanados del Lavado de Redes Salmoneras "Taller de Redes Piscis"</t>
+          <t>Modificación al Plan Regulador Comunal de Castro Sector Gamboa</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,25 +10563,25 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Mirna Gómez Paredes</t>
+          <t>Secretaría Ministerial de Vivienda y Urbanismo, X Región de Los Lagos</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>13/02/2001</t>
+          <t>27/03/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ampliación de Camping El Pudú</t>
+          <t>Tratamiento y Disposición Final de Riles y Rises Emanados del Lavado de Redes Salmoneras "Taller de Redes Piscis"</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Sociedad Hotelera Plaza Beckna Ltda.</t>
+          <t>Mirna Gómez Paredes</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>27/11/2000</t>
+          <t>13/02/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición de Riles y Rises del Lavado de Redes de Cultivo Marcelo Calderón</t>
+          <t>Ampliación de Camping El Pudú</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,25 +10659,25 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>SOC. MarMau Ltda.</t>
+          <t>Sociedad Hotelera Plaza Beckna Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>03/10/2000</t>
+          <t>27/11/2000</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Eléctrica Pid Pid</t>
+          <t>Tratamiento y Disposición de Riles y Rises del Lavado de Redes de Cultivo Marcelo Calderón</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>SOC. MarMau Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>800</v>
+        <v>140</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>02/08/2000</t>
+          <t>03/10/2000</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar Sociedad Huimar Limitada</t>
+          <t>Construcción y Operación Subestación Eléctrica Pid Pid</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Sociedad Huimar Limitada</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>02/08/2000</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta Procesadora de Productos del Mar Sociedad Huimar Limitada</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10798,20 +10798,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Sociedad Huimar Limitada</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Construcción Centro Turístico</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10846,30 +10846,30 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Adriana Den Braber Soza</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>07/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Construcción de 202 Viviendas Sociales comuna de Castro</t>
+          <t>Construcción Centro Turístico</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,25 +10899,25 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Adriana Den Braber Soza</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1440</v>
+        <v>40</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>20/10/1999</t>
+          <t>07/12/1999</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Castro sector Plaza de Armas</t>
+          <t>Construcción de 202 Viviendas Sociales comuna de Castro</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,15 +10947,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>03/03/1999</t>
+          <t>20/10/1999</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas ( Segunda Presentación)</t>
+          <t>Modificación al Plan Regulador Comunal de Castro sector Plaza de Armas</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,25 +10995,25 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>17/02/1999</t>
+          <t>03/03/1999</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Proyecto Construcción Establecimiento Educacional en Castro Isla de Chiloe</t>
+          <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas ( Segunda Presentación)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,25 +11043,25 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Archipielago S. A.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>440</v>
+        <v>9100</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>29/10/1998</t>
+          <t>17/02/1999</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,43 +11076,91 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
+          <t>Proyecto Construcción Establecimiento Educacional en Castro Isla de Chiloe</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Sociedad Inmobiliaria Archipielago S. A.</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>440</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>29/10/1998</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1453&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
           <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
         <is>
           <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
-      <c r="F224" t="n">
+      <c r="F225" t="n">
         <v>9170</v>
       </c>
-      <c r="G224" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>30/03/1998</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
+      <c r="H225" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I224" t="inlineStr">
+      <c r="I225" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=800&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J224" t="inlineStr">
+      <c r="J225" t="inlineStr">
         <is>
           <t>Castro</t>
         </is>

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/08/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -10803,7 +10803,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Sociedad Huimar Limitada</t>
+          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SOCIEDAD INDUSTRIAL Y COMERCIAL RIO BLANCO LTDA.</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F16" t="n">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J225"/>
+  <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
+          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CULTIVOS SANTURRON SPA</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>14/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156678810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157645850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NORESTE PUNTA AGUANTAO</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>CULTIVOS SANTURRON SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/08/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156671155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156678810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, centro 102.515, Punta Ramírez - Canal Lemuy</t>
+          <t>NORESTE PUNTA AGUANTAO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CULTIVOS SANTURRON SPA</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154885769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156671155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
+          <t>Modificación de Proyecto Técnico, centro 102.515, Punta Ramírez - Canal Lemuy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26/01/2022</t>
+          <t>03/02/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154756826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154885769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MARES ANDINOS SpA</t>
+          <t>CULTIVOS SANTURRON SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>26/01/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148917546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154756826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Subestación Nueva Gamboa</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>MARES ANDINOS SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>19000</v>
+        <v>45</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148779560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148917546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Regularización de la base en tierra y modificación de Proyecto Técnico para la ampliación de biomasa de abalón rojo del Centro 101154, Canal Quehui, noreste Punta Camahue, Isla Quehui, Castro ? Región de los Lagos. N° Pert 218103034</t>
+          <t>Subestación Nueva Gamboa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pesca y Cultivos Don Jorge Ltda</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1900</v>
+        <v>19000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147645415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148779560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, IMELEV. CÓDIGO DE CENTRO N° 102066</t>
+          <t>Regularización de la base en tierra y modificación de Proyecto Técnico para la ampliación de biomasa de abalón rojo del Centro 101154, Canal Quehui, noreste Punta Camahue, Isla Quehui, Castro ? Región de los Lagos. N° Pert 218103034</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Pesca y Cultivos Don Jorge Ltda</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5000</v>
+        <v>1900</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>03/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147536901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147645415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental para ?Ampliación de Biomasa Centro de Cultivo de Mitílidos Pert N° 219103043?, Sector este de Punta Pullao, Canal Hudson, Comuna de Castro, Provincia de Chiloé - Décima Región, código centro 103669</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, IMELEV. CÓDIGO DE CENTRO N° 102066</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sociedad Comercial e Insdustrial Jomar Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>260</v>
+        <v>5000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>29/05/2020</t>
+          <t>03/08/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146699104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147536901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
+          <t>Declaración de Impacto Ambiental para ?Ampliación de Biomasa Centro de Cultivo de Mitílidos Pert N° 219103043?, Sector este de Punta Pullao, Canal Hudson, Comuna de Castro, Provincia de Chiloé - Décima Región, código centro 103669</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL MAR Y MAR LTDA.</t>
+          <t>sociedad Comercial e Insdustrial Jomar Ltda.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/05/2019</t>
+          <t>29/05/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143246458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146699104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Cultivos Marinos Punta Pullao 2, N° PERT 99103222?</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>SOCIEDAD COMERCIAL MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>22/05/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142948123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143246458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, MATADERO SAN DANIEL, CASTRO, CHILOE</t>
+          <t>Modificación del Proyecto ?Cultivos Marinos Punta Pullao 2, N° PERT 99103222?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sociedad Comercial San Daniel SpA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132474245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142948123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, MATADERO SAN DANIEL, CASTRO, CHILOE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Sociedad Comercial San Daniel SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06/09/2016</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131752002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132474245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>41000</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>06/09/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131752002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 103.844 LINGUE-ESTERO CASTRO, RIO BLANCO LTDA.</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>41000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/12/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 103.844 LINGUE-ESTERO CASTRO, RIO BLANCO LTDA.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>41000</v>
+        <v>40</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>22/12/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>41000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/09/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
+          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>02/12/2014</t>
+          <t>23/09/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130005588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063</t>
+          <t>MODIFICACION DE PROYECTO TECNICO ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>02/12/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130005588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RELOCALIZACIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COSTA OESTE ISLA CHELIN (SECTOR 1), COMUNA CASTRO, REGIÓN DE LOS LAGOS, PERT N° 210100051</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1 PERT Nº 213103028</t>
+          <t>RELOCALIZACIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COSTA OESTE ISLA CHELIN (SECTOR 1), COMUNA CASTRO, REGIÓN DE LOS LAGOS, PERT N° 210100051</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>04/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128822375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2 PERT Nº 213103027</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1 PERT Nº 213103028</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128823101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128822375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Proyecto Técnico para el cultivo de Mitílidos del Centro Canal Lemuy, Sur este de Punta Tutil, Nº de Pert 209103036".</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2 PERT Nº 213103027</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Servicios Monprori Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15/11/2013</t>
+          <t>04/12/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128830269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128823101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1</t>
+          <t>"Proyecto Técnico para el cultivo de Mitílidos del Centro Canal Lemuy, Sur este de Punta Tutil, Nº de Pert 209103036".</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Servicios Monprori Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>15/11/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128755417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128830269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128755417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Alimentos Salmofood</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Vitapro Chile S.A</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128575060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Modificación manejo de mortalidad mediante sistema de ensilaje en el centro de cultivo Pullao, Ensenada Pullao, Canal Hudson</t>
+          <t>Ampliación Planta de Alimentos Salmofood</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Vitapro Chile S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>90</v>
+        <v>50000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18/07/2013</t>
+          <t>12/09/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8364977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128575060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Modificación manejo de mortalidad mediante sistema de ensilaje en el centro de cultivo Pullao, Ensenada Pullao, Canal Hudson</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>18/07/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8364977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PROYECTO TÉCNICO PARA EL CULTIVO DE MITÍLIDOS, DEL CENTRO TUTIL, Nº de Pert 211103055"</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>19/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8263817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>"AMPLIACIÓN DE PROYECTO TÉCNICO PARA EL CULTIVO DE MITÍLIDOS, DEL CENTRO TUTIL, Nº de Pert 211103055"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>19/06/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8263817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Aguantao, Comuna de Castro, Décima Región. Nº PERT 211103088"</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2000</v>
+        <v>2475</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7867000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de abalones, Punta Chulequehue, Canal Dalcahue, Comuna de Castro, Décima Región. Nº PERT 211103043".</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Aguantao, Comuna de Castro, Décima Región. Nº PERT 211103088"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>19/02/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7856866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7867000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SUR DE PUNTA PINDO, ISLA CHELÍN, COMUNA DE CASTRO, Xa. REGIÓN DE LOS LAGOS" N° de Solicitud 211103039. AMPLIACIÓN BIOMASA CCS SUR DE PUNTA PINDO</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de abalones, Punta Chulequehue, Canal Dalcahue, Comuna de Castro, Décima Región. Nº PERT 211103043".</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>04/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7596276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7856866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Parque Eólico Pichihué</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SUR DE PUNTA PINDO, ISLA CHELÍN, COMUNA DE CASTRO, Xa. REGIÓN DE LOS LAGOS" N° de Solicitud 211103039. AMPLIACIÓN BIOMASA CCS SUR DE PUNTA PINDO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>240000</v>
+        <v>2800</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>04/12/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7596276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,12 +2344,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>INSTALACIÓN Y OPERACIÓN DE UNA ESTACIÓN DE TRANSFERENCIA DE ENSILAJE EN TERMINAL PORTUARIO MULTIPROPÓSITO DE CASTRO ESTACIÓN DE TRANSF. ENSILAJE T.PORTUARIO CASTRO</t>
+          <t>Parque Eólico Pichihué</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>Andes Mainstream SpA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>252</v>
+        <v>240000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>29/08/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7283633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>INSTALACIÓN Y OPERACIÓN DE UNA ESTACIÓN DE TRANSFERENCIA DE ENSILAJE EN TERMINAL PORTUARIO MULTIPROPÓSITO DE CASTRO ESTACIÓN DE TRANSF. ENSILAJE T.PORTUARIO CASTRO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>29/08/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7283633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, ESTERO CASTRO,PUNTA TUTIL, código 100.497,PERT 212103011" MODIFICACIÓN DE PROYECTO TECNICO CENTRO CULTIVO SA</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6685989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, CANAL LEMUY, SECTOR PUNTA LEPE, código 100.418, PERT 212103009" Modificación Proyecto Técnico CCS, Canal Lemuy</t>
+          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, ESTERO CASTRO,PUNTA TUTIL, código 100.497,PERT 212103011" MODIFICACIÓN DE PROYECTO TECNICO CENTRO CULTIVO SA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6686385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6685989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, CANAL LEMUY, SECTOR PUNTA LEPE, código 100.418, PERT 212103009" Modificación Proyecto Técnico CCS, Canal Lemuy</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/03/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6686385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Al Sureste de Isla Quehui, Comuna de Castro, Nº Solicitud: 210103188</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6472492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Al Sureste de Isla Quehui, Comuna de Castro, Nº Solicitud: 210103188</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>12/01/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6472492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, TUTIL, código 100.497"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2800</v>
+        <v>100</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>03/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6342215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de biomasa de salmónidos, concesión Canal Quehui, al norte de Punta Camahue, Isla Quehui, Comuna de Castro, Nº solicitud: 211103076</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, TUTIL, código 100.497"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>21/12/2011</t>
+          <t>03/01/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6361376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6342215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Ampliación de biomasa de salmónidos, concesión Canal Quehui, al norte de Punta Camahue, Isla Quehui, Comuna de Castro, Nº solicitud: 211103076</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>21/12/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6361376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR NOROESTE PUNTA AGUANTAO Y NORESTE DE ESTERO RILAN COMUNA DE CASTRO (SOL Nº 210103212)"</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>647</v>
+        <v>1000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Nueva Captación y Planta de Tratamiento de Agua Potable Sector Alto Castro</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR NOROESTE PUNTA AGUANTAO Y NORESTE DE ESTERO RILAN COMUNA DE CASTRO (SOL Nº 210103212)"</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7000</v>
+        <v>647</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>19/10/2011</t>
+          <t>20/10/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5823734&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Nueva Captación y Planta de Tratamiento de Agua Potable Sector Alto Castro</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,20 +2978,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>319</v>
+        <v>7000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>19/10/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5823734&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 3 COMUNA DE CASTRO (SOL Nº 206103131)"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>656</v>
+        <v>319</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 1 COMUNA DE CASTRO (SOL Nº 206103132)"</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 3 COMUNA DE CASTRO (SOL Nº 206103131)"</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA ÁNIMO, X REGION Nº 211103009 (Código del Centro: 100208)</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 1 COMUNA DE CASTRO (SOL Nº 206103132)"</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2000</v>
+        <v>656</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5874896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LA ESTANCIA, X REGION" Nº de Ingreso a Trámite: 210103216 (Código del Centro: 100981)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA ÁNIMO, X REGION Nº 211103009 (Código del Centro: 100208)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>22/07/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5874896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Península Rilan</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LA ESTANCIA, X REGION" Nº de Ingreso a Trámite: 210103216 (Código del Centro: 100981)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Agricola Santa Ana S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>25/04/2011</t>
+          <t>22/07/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5558971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Cementerio, código 100.417</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Península Rilan</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Agricola Santa Ana S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>25/04/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5558971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Lepe, código 100.418</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Cementerio, código 100.417</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tutil, código 100.497</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Lepe, código 100.418</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Pangue - X Región</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tutil, código 100.497</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>22/03/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Río Cude, Código 100.428"</t>
+          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Pangue - X Región</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>22/03/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Putemún, Código 100.978"</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Río Cude, Código 100.428"</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO LA ESTANCIA - X REGION</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Putemún, Código 100.978"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>28/02/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Aguantao</t>
+          <t>MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO LA ESTANCIA - X REGION</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>28/02/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"PROYECTO DE AMPLIACIÓN COLEGIO SAN FRANCISCO DE ASÍS"</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Aguantao</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Fundación Educacional Colegio San Francisco Asìs</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2400</v>
+        <v>84</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5289827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo Punta Chulequehue, Código Centro 102586.</t>
+          <t>"PROYECTO DE AMPLIACIÓN COLEGIO SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Fundación Educacional Colegio San Francisco Asìs</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>400</v>
+        <v>2400</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>03/11/2010</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5289827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Manejo y disposición Final de Residuos Sólidos Chiloé</t>
+          <t>Modificación de Producción Centro de Cultivo Punta Chulequehue, Código Centro 102586.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5500</v>
+        <v>400</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>03/11/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4887134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,12 +3784,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro Chelín, Punta Pindo, Isla Chelín</t>
+          <t>Centro de Manejo y disposición Final de Residuos Sólidos Chiloé</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>90</v>
+        <v>5500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4796198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4887134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro Chelín, Punta Pindo, Isla Chelín</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4796198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, SECTOR NORTE DE ESTERO RILÁN N° PERT 207103216</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Mytilus Multiexport S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, NORESTE DE PUNTA AGUANTAO N° PERT 207103186</t>
+          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, SECTOR NORTE DE ESTERO RILÁN N° PERT 207103216</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA PELLO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 204103019)"</t>
+          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, NORESTE DE PUNTA AGUANTAO N° PERT 207103186</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Mytilus Multiexport S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>07/05/2010</t>
+          <t>08/06/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO II</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA PELLO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 204103019)"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>58</v>
+        <v>314</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16/04/2010</t>
+          <t>07/05/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4091,21 +4091,21 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>29/03/2010</t>
+          <t>16/04/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4466226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos en Punta Pullao sector 2, N° 207103166</t>
+          <t>CULTIVOS MARINOS DEQUIO II</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>304</v>
+        <v>57</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>12/02/2010</t>
+          <t>29/03/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4466226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>¿Centro de Cultivo de Mitílidos en Punta Pullao sector 1, N° 207103167¿</t>
+          <t>Centro de Cultivo de Mitílidos en Punta Pullao sector 2, N° 207103166</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4187,11 +4187,11 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>828</v>
+        <v>304</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>12/02/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>¿Centro de Cultivo de Mitílidos en Punta Pullao sector 1, N° 207103167¿</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO DE CASTRO PUNTA DEQUIO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103068)" (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>02/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO DE CASTRO PUNTA DEQUIO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103068)" (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>02/12/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>60</v>
+        <v>2600</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4221944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO I (e-seia)</t>
+          <t>CULTIVOS MARINOS DEQUIO (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>sonia catepillan guinao</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4221944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Oeste de Isla Chelín 202103123 (e-seia)</t>
+          <t>CULTIVOS MARINOS DEQUIO I (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>sonia catepillan guinao</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4189935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas Nº Solicitud 206103102, sector Este Isla Chelin I, comuna de Castro (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Oeste de Isla Chelín 202103123 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>JORGE ARTURO CAMPODÓNICO PELUCHONNEAU</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4189935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE ALGAS Nª SOLICITUD 206103103, SECTOR ESTE ISLA CHELIN II, COMUNA DE CASTRO (e-seia)</t>
+          <t>Centro de Cultivo de Algas Nº Solicitud 206103102, sector Este Isla Chelin I, comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE ALGAS Nª SOLICITUD 206103103, SECTOR ESTE ISLA CHELIN II, COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>JORGE ARTURO CAMPODÓNICO PELUCHONNEAU</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>377</v>
+        <v>55</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mejoramiento Construcción Costanera de Castro, X Región de Los Lagos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>9200</v>
+        <v>377</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>08/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4030607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Mejoramiento Construcción Costanera de Castro, X Región de Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>9200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>08/09/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4030607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA LEPE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>03/08/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3939640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Mitilicultura Ellinseng (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA LEPE (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4955,7 +4955,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3940385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3939640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO CULTIVO ABALON Nº 201103188 (e-seia)</t>
+          <t>Mitilicultura Ellinseng (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>08/06/2009</t>
+          <t>03/08/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3832886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3940385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACION CENTRO CULTIVO ABALON Nº 201103188 (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>08/06/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3832886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Tratamiento de Riles, de la Empresa Procesadora de Salmones Invertec Seafood S.A., con RCA aprobada Nº 436, ubicada en Llau-Llao s/n°, Comuna de Castro (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>740</v>
+        <v>22</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado del Vertedero Municipal Comuna de Castro (e-seia)</t>
+          <t>Ampliación de la Planta de Tratamiento de Riles, de la Empresa Procesadora de Salmones Invertec Seafood S.A., con RCA aprobada Nº 436, ubicada en Llau-Llao s/n°, Comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>959</v>
+        <v>740</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>14/05/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR OESTE ISLA CHELIN, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103015)" (e-seia)</t>
+          <t>Plan de Cierre y Sellado del Vertedero Municipal Comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>598</v>
+        <v>959</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>27/02/2009</t>
+          <t>14/05/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3599925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR CANAL LEMUY, CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103217)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR OESTE ISLA CHELIN, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103015)" (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>03/02/2009</t>
+          <t>27/02/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3599925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR CANAL LEMUY, CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103217)" (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>03/02/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103004)" (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3505184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN SECTOR SUR PELDEHUE, ISLA QUEHUI, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103153)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103004)" (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>570</v>
+        <v>730</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>03/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3396729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3505184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN SECTOR SUR PELDEHUE, ISLA QUEHUI, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103153)" (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>03/12/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3396729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Construcción Terminal Portuario Multipropósito de Castro (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>7285</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>10/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sistema de Cosecha, Matanza y Prefaenamiento de Salmonidos in situ (e-seia)</t>
+          <t>Construcción Terminal Portuario Multipropósito de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1500</v>
+        <v>7285</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>08/10/2008</t>
+          <t>10/11/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3247720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Sistema de Cosecha, Matanza y Prefaenamiento de Salmonidos in situ (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>20</v>
+        <v>1500</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>08/10/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3247720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue I, Nº de pert 208103057 (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Cultivos Curahue S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>19/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2982421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue II, Nº de pert 208103006 (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue I, Nº de pert 208103057 (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2982421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue II, Nº de pert 208103006 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,30 +5954,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cultivos Curahue S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>19/06/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>"Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, al Noroeste de Punta Tutil, Estero de Castro, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos" (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Audilio Osvaldo Galindo Oyarzo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>"Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, al Noroeste de Punta Tutil, Estero de Castro, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos" (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,20 +6050,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Audilio Osvaldo Galindo Oyarzo</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>429</v>
+        <v>72</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, Sector Punta Tutil, Canal Lemuy, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Marcos Marcelo Galindo Díaz</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>06/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitílidos Concesión de Acuicultura para Cultivo de Mitilidos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, Sector Punta Tutil, Canal Lemuy, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Marcos Marcelo Galindo Díaz</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>06/09/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitílidos Concesión de Acuicultura para Cultivo de Mitilidos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>mejoramiento de suelos a través del tratamiento de biofouling proveniente del proceso de ordenado de redes de cultivo (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Marcelo Calderón Pérez</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>23/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2113599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Matadero San Daniel (e-seia)</t>
+          <t>mejoramiento de suelos a través del tratamiento de biofouling proveniente del proceso de ordenado de redes de cultivo (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad Comercial San Daniel SpA</t>
+          <t>Marcelo Calderón Pérez</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>18/04/2007</t>
+          <t>23/04/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2113599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE ABALON ROJO Nº SOLICITUD 201103232, SECTOR CARAHUE, CANAL LEMUY COMUNA DE CASTRO (e-seia)</t>
+          <t>Matadero San Daniel (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Sociedad Comercial San Daniel SpA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>18/04/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Archipielago Gestión Ambiental (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE ABALON ROJO Nº SOLICITUD 201103232, SECTOR CARAHUE, CANAL LEMUY COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ARCHIPIELAGO GESTION AMBIENTAL LTDA.</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1000</v>
+        <v>191</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>29/03/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SUR PUNTA PELLO Nº SOL. 203103235 00 (e-seia)</t>
+          <t>Archipielago Gestión Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>ARCHIPIELAGO GESTION AMBIENTAL LTDA.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>66</v>
+        <v>1000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>15/03/2007</t>
+          <t>29/03/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CULTIVOS MARINOS SUR PUNTA PELLO Nº SOL. 203103235 00 (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,30 +6626,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/03/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6687,17 +6687,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITÍLIDOS CALETA CARAHUE, COMUNA DE CASTRO, CHILOÉ (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,30 +6722,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MEJILLONES PATAGONIA S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>03/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Ampliación Instalaciones Planta de Harinas y Aceites de Salmón, Castro (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITÍLIDOS CALETA CARAHUE, COMUNA DE CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>MEJILLONES PATAGONIA S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>03/11/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1762638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Ampliación Instalaciones Planta de Harinas y Aceites de Salmón, Castro (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1762638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CONSTRUCCION 200 VIVIENDAS SOCIALES SECTOR LA CHACRA COMUNA DE CASTRO (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,30 +6866,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2356</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro de Operaciones Punta Pullao (e-seia)</t>
+          <t>CONSTRUCCION 200 VIVIENDAS SOCIALES SECTOR LA CHACRA COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>600</v>
+        <v>2356</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>20/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1686197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Acopio de Conchas y Planta de Cal Agrícola Chiloé (e-seia)</t>
+          <t>Centro de Operaciones Punta Pullao (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Cal Austral S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>20/09/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1686197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR PULLAO, COMUNA DE CASTRO (SOL Nº 201103246)" (e-seia)</t>
+          <t>Acopio de Conchas y Planta de Cal Agrícola Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Cal Austral S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>866</v>
+        <v>700</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>30/08/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1662095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR PULLAO, COMUNA DE CASTRO (SOL Nº 201103246)" (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,20 +7058,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>80</v>
+        <v>866</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>30/08/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1662095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Vertedero San José, Castro, Chiloé (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,30 +7106,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>21/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1585876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Vertedero San José, Castro, Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,30 +7154,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>21/07/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1585876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PROYECTO VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,20 +7202,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>13/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Enjoy Castro Casino &amp; Resort (e-seia)</t>
+          <t>PROYECTO VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Rantrur Sociedad Anónima</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>23221</v>
+        <v>48</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>13/06/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1463347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE CULTIVO DE CHORITO EN PUERTO HUITE, AL OESTE DE PUNTA ARENAS, COMUNA DE QUEMCHI (e-seia)</t>
+          <t>Enjoy Castro Casino &amp; Resort (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>SALMONES ANDES SALMONES ANDES</t>
+          <t>Rantrur Sociedad Anónima</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>236</v>
+        <v>23221</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>19/05/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1463347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>AMPLIACION CENTRO DE CULTIVO DE CHORITO EN PUERTO HUITE, AL OESTE DE PUNTA ARENAS, COMUNA DE QUEMCHI (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,20 +7346,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>SALMONES ANDES SALMONES ANDES</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>500</v>
+        <v>236</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>19/05/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7407,17 +7407,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7503,17 +7503,17 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Isla Chelin Punta Pindo, X Región Nº Pert 97103106 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,30 +7586,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>31/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Isla Chelin Punta Pindo, X Región Nº Pert 97103106 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,15 +7639,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>56</v>
+        <v>2400</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>10/11/2005</t>
+          <t>31/01/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,20 +7682,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>10/11/2005</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles, para Planta Procesadora de Salmones Invertec Seafood S.A., Llau-llao s/n°, comuna de Castro (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,20 +7730,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>27/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Construcción de un Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles de la empresa, Pesca y Cultivos Don Jorge S.A. en Llicaldad, Castro X° Región 0 (e-seia)</t>
+          <t>Planta de Tratamiento de Riles, para Planta Procesadora de Salmones Invertec Seafood S.A., Llau-llao s/n°, comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Mauricio Cabrera Silva</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>09/06/2005</t>
+          <t>27/10/2005</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, PLANTA PIRUQUINA, CASTRO, DÉCIMA REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Construcción de un Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles de la empresa, Pesca y Cultivos Don Jorge S.A. en Llicaldad, Castro X° Región 0 (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>Mauricio Cabrera Silva</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>09/06/2005</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TAUCUO. PERT 203103054 (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, PLANTA PIRUQUINA, CASTRO, DÉCIMA REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Mytilus Multiexport S.A.</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>17/05/2005</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS PUNTA CHULEQUEHUE, CANAL DALCAHUE COMUNA DE CASTRO, CHILOE, DECIMA REGION. Nº PERT 203103168 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TAUCUO. PERT 203103054 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Mytilus Multiexport S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>08/04/2005</t>
+          <t>17/05/2005</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=649216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA ATAL Nº PERT 203103162 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS PUNTA CHULEQUEHUE, CANAL DALCAHUE COMUNA DE CASTRO, CHILOE, DECIMA REGION. Nº PERT 203103168 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>SIXTO OMAR PAREDES MILLÀN</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>55</v>
+        <v>310</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>21/03/2005</t>
+          <t>08/04/2005</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=649216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVOS AGUANTAO. Nª PERT: 203103157 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA ATAL Nº PERT 203103162 (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>SIXTO OMAR PAREDES MILLÀN</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ISLA QUEHUI. NªPERT:203103169 (e-seia)</t>
+          <t>CENTRO CULTIVOS AGUANTAO. Nª PERT: 203103157 (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>413</v>
+        <v>55</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PELDEHUE. Nª PERT: 203103170 (e-seia)</t>
+          <t>CULTIVOS MARINOS ISLA QUEHUI. NªPERT:203103169 (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>530</v>
+        <v>413</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CULTIVOA MARINOS AGUANTAO Nª PERT:203103151 (e-seia)</t>
+          <t>CULTIVOS MARINOS PELDEHUE. Nª PERT: 203103170 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>323</v>
+        <v>530</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Cultivos S.T.I. Estero Rilán Norte Nº Solicitud 97103070 (e-seia)</t>
+          <t>CULTIVOA MARINOS AGUANTAO Nª PERT:203103151 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,15 +8215,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Cultivadores de Alga Gracilaria, Estero Rilán Norte</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>04/03/2005</t>
+          <t>21/03/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>Cultivos S.T.I. Estero Rilán Norte Nº Solicitud 97103070 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Sindicato de Trabajadores Independientes Cultivadores de Alga Gracilaria, Estero Rilán Norte</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>28/01/2005</t>
+          <t>04/03/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS QUEHUI NºPERT. 201103296 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,15 +8503,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>28/01/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=570671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>COÑAO I, CULTIVO DE MOLUSCOS EN QUINCHAO, CHILOÉ. Pert Nº 202103145 (e-seia)</t>
+          <t>CULTIVOS MARINOS QUEHUI NºPERT. 201103296 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,15 +8551,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>MARÍA MAGDALENA HWARTS AVILÉZ</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>31/12/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=559479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=570671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Sistema de Neutralización de Riles (e-seia)</t>
+          <t>COÑAO I, CULTIVO DE MOLUSCOS EN QUINCHAO, CHILOÉ. Pert Nº 202103145 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,25 +8599,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>MARÍA MAGDALENA HWARTS AVILÉZ</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>31/12/2004</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=560180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=559479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Centro de cultivos Isla Chelin, PERT N° 200103184 (e-seia)</t>
+          <t>Sistema de Neutralización de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,25 +8647,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>19/11/2004</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=513496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=560180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónidos Isla Quehui, comuna de Castro, X Región (Solicitud Nº98103031) (e-seia)</t>
+          <t>Centro de cultivos Isla Chelin, PERT N° 200103184 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,25 +8695,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sea Fine Salmon S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>19/11/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=513496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Cultivos Marinos PUNTA PULLAO 1 Nº PERT: 200103037 (e-seia)</t>
+          <t>Centro de Engorda de Salmónidos Isla Quehui, comuna de Castro, X Región (Solicitud Nº98103031) (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,15 +8743,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Sea Fine Salmon S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>29/10/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Cultivos Marinos PUNTA PULLAO 2 Nº PERT: 99103222 (e-seia)</t>
+          <t>Cultivos Marinos PUNTA PULLAO 1 Nº PERT: 200103037 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AGUANTAO, CULTIVO DE MOLUSCOS EN CHILOÉ (SOLICITUD Nº 202103079) (e-seia)</t>
+          <t>Cultivos Marinos PUNTA PULLAO 2 Nº PERT: 99103222 (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,15 +8839,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>29/10/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Mitilicultura Ellingsen. Nº Solicitud 201103293 (e-seia)</t>
+          <t>AGUANTAO, CULTIVO DE MOLUSCOS EN CHILOÉ (SOLICITUD Nº 202103079) (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,15 +8887,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>29/09/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PULLAO, CULTIVO DE MOLUSCOS EN CASTRO, CHILOÉ (Solicitud Nº201103235) (e-seia)</t>
+          <t>Mitilicultura Ellingsen. Nº Solicitud 201103293 (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,15 +8935,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>29/09/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=463045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS SECTOR PULLAO, COMUNA DE CASTRO, DECIMA REGION. Nº PERT 98103113 (e-seia)</t>
+          <t>PULLAO, CULTIVO DE MOLUSCOS EN CASTRO, CHILOÉ (Solicitud Nº201103235) (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>24/09/2004</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=454582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=463045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MOLUSCOS CANAL QUEHUI N° SOLICITUD 201103253 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS SECTOR PULLAO, COMUNA DE CASTRO, DECIMA REGION. Nº PERT 98103113 (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>RODRIGO AQUILES RUIZ PEREZ</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=454582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Centro de Cultivos y Engorda de Moluscos, Rilan 2004, (Nº Sol. 99103018) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MOLUSCOS CANAL QUEHUI N° SOLICITUD 201103253 (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,15 +9079,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>RODRIGO AQUILES RUIZ PEREZ</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>30/08/2004</t>
+          <t>24/09/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Centro de Cultivos y Engorda de Moluscos, Rilan 2004, (Nº Sol. 99103018) (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,20 +9122,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>30/08/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR PUNTA PINDO, ISLA CHELIN, CASTRO, PROVINCIA DE CHILOE (Sol. 200103097) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,20 +9170,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>30/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=414978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR PUNTA PINDO, ISLA CHELIN, CASTRO, PROVINCIA DE CHILOE (Sol. 200103097) (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,20 +9218,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>4000</v>
+        <v>659</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>30/07/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=414978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS, SECTOR PUNTA VALENZUELA, SAN JOSE, COMUNA DE CASTRO (Nº SOL. 98103007) (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,20 +9266,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ERNESTO ALFONSO OLAVARRIA HERNANDEZ</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>127</v>
+        <v>4000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>12/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=398599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CURAHUE Nº 98103027 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS, SECTOR PUNTA VALENZUELA, SAN JOSE, COMUNA DE CASTRO (Nº SOL. 98103007) (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,15 +9319,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Cultivos Curahue S.A.</t>
+          <t>ERNESTO ALFONSO OLAVARRIA HERNANDEZ</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>07/07/2004</t>
+          <t>12/07/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=394709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=398599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>CULTIVOS MARINOS CURAHUE Nº 98103027 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,20 +9362,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Cultivos Curahue S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>07/07/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=394709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,12 +9410,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, Nº Sol. 97103106 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,15 +9511,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>17/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>"Centro de Cultivo de Mitílidos, Punta Lepe, Canal Lemuy, Comuna de Castro, X Región, N° Pert. 201103292" (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, Nº Sol. 97103106 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>19/05/2004</t>
+          <t>17/06/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=357056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>"Centro de Cultivo de Mitílidos, Punta Lepe, Canal Lemuy, Comuna de Castro, X Región, N° Pert. 201103292" (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,30 +9602,30 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>19/05/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=357056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Plan Regulador de Castro (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,30 +9650,30 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>19/04/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=323663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>CULTIVO MARINOS CURAHUE 1 Nº98103026 (e-seia)</t>
+          <t>Plan Regulador de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,15 +9703,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>LUIS FRANCISCO HIDALGO SOLAR</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>13/04/2004</t>
+          <t>19/04/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=319362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=323663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Sector Quinched (no. pert 202103127) (e-seia)</t>
+          <t>CULTIVO MARINOS CURAHUE 1 Nº98103026 (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,15 +9751,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Arturo Rosendo Astroza Manosalva</t>
+          <t>LUIS FRANCISCO HIDALGO SOLAR</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>27/02/2004</t>
+          <t>13/04/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=319362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Cultivos Lingue (Nº Sol. 97103098) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Sector Quinched (no. pert 202103127) (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,15 +9799,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Carlos Victor Sandoval Dunkler</t>
+          <t>Arturo Rosendo Astroza Manosalva</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>27/02/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=255083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
+          <t>Cultivos Lingue (Nº Sol. 97103098) (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,15 +9847,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Carlos Victor Sandoval Dunkler</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>07/01/2004</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=255083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>" Cultivos Marinos Estero Rilan, N° Sol. 98103003" (e-seia)</t>
+          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>05/01/2004</t>
+          <t>07/01/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=239491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS, SECTOR PUNTA LEPE, COMUNA DE CASTRO. PERT Nº 99103028 (e-seia)</t>
+          <t>" Cultivos Marinos Estero Rilan, N° Sol. 98103003" (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,15 +9943,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>CULTIVOS MAR ATLÁNTICO SpA</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>02/01/2004</t>
+          <t>05/01/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=239491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ABALONES ISLA QUINCHAO N° de Solicitud 201103186 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS, SECTOR PUNTA LEPE, COMUNA DE CASTRO. PERT Nº 99103028 (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,15 +9991,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>CULTIVOS MAR ATLÁNTICO SpA</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>22/12/2003</t>
+          <t>02/01/2004</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>ABALONES ISLA QUINCHAO N° de Solicitud 201103186 (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,20 +10034,20 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>22/12/2003</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Cultivos Punta Pullao (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,20 +10082,20 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>860</v>
+        <v>200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>31/10/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chai Chai ( Solicitud N°99103166)</t>
+          <t>Cultivos Punta Pullao (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,15 +10135,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Pedro Edgardo Vidal Vargas</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>4</v>
+        <v>860</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>31/10/2002</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Astillero Artesanal Castro</t>
+          <t>Cultivos Marinos Chai Chai ( Solicitud N°99103166)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,25 +10183,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Dago Huberto Gonzalez Villarroel</t>
+          <t>Pedro Edgardo Vidal Vargas</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>21/03/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Concesión de Acuicultura en el Sector de Punta Pullao Comuna de Castro Provincia de Chiloé N° de Solicitud 201103014</t>
+          <t>Astillero Artesanal Castro</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,25 +10231,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Cultivos Marinos del Pacífico S.A.</t>
+          <t>Dago Huberto Gonzalez Villarroel</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>860</v>
+        <v>10</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>21/03/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación de Proyecto Técnico en Concesión de Acuicultura en el Sector de Punta Pullao Comuna de Castro Provincia de Chiloé N° de Solicitud 201103014</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,30 +10274,30 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cultivos Marinos del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>200</v>
+        <v>860</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ampliación de Especie Hatchery para la Producción de Semillas de Moluscos Cultivo Mare Aperto S A Ten Ten Castro Isla Chiloé</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,30 +10322,30 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Cultivos Mare Aperto S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>12/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Linlinao</t>
+          <t>Ampliación de Especie Hatchery para la Producción de Semillas de Moluscos Cultivo Mare Aperto S A Ten Ten Castro Isla Chiloé</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,15 +10375,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
+          <t>Cultivos Mare Aperto S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>17/08/2001</t>
+          <t>12/09/2001</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Taller Artesanal de Redes de Agua Dulce Don Alberto</t>
+          <t>Cultivos Marinos Linlinao</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10421,23 +10421,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
+        </is>
+      </c>
       <c r="F210" t="n">
         <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>22/06/2001</t>
+          <t>17/08/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Castro (Tercera Presentación)</t>
+          <t>Taller Artesanal de Redes de Agua Dulce Don Alberto</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10465,27 +10469,23 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
-        </is>
-      </c>
+      <c r="E211" t="inlineStr"/>
       <c r="F211" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>09/04/2001</t>
+          <t>22/06/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Cultivo de Molusco en Yutuy Estero Castro</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Castro (Tercera Presentación)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Alonso Fernando Hernández Andrade</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>10</v>
+        <v>920</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>28/03/2001</t>
+          <t>09/04/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Castro Sector Gamboa</t>
+          <t>Cultivo de Molusco en Yutuy Estero Castro</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial de Vivienda y Urbanismo, X Región de Los Lagos</t>
+          <t>Alonso Fernando Hernández Andrade</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>27/03/2001</t>
+          <t>28/03/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Riles y Rises Emanados del Lavado de Redes Salmoneras "Taller de Redes Piscis"</t>
+          <t>Modificación al Plan Regulador Comunal de Castro Sector Gamboa</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,25 +10611,25 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Mirna Gómez Paredes</t>
+          <t>Secretaría Ministerial de Vivienda y Urbanismo, X Región de Los Lagos</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>13/02/2001</t>
+          <t>27/03/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ampliación de Camping El Pudú</t>
+          <t>Tratamiento y Disposición Final de Riles y Rises Emanados del Lavado de Redes Salmoneras "Taller de Redes Piscis"</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Sociedad Hotelera Plaza Beckna Ltda.</t>
+          <t>Mirna Gómez Paredes</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>27/11/2000</t>
+          <t>13/02/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición de Riles y Rises del Lavado de Redes de Cultivo Marcelo Calderón</t>
+          <t>Ampliación de Camping El Pudú</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,25 +10707,25 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>SOC. MarMau Ltda.</t>
+          <t>Sociedad Hotelera Plaza Beckna Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>03/10/2000</t>
+          <t>27/11/2000</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Eléctrica Pid Pid</t>
+          <t>Tratamiento y Disposición de Riles y Rises del Lavado de Redes de Cultivo Marcelo Calderón</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>SOC. MarMau Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>800</v>
+        <v>140</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>02/08/2000</t>
+          <t>03/10/2000</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar Sociedad Huimar Limitada</t>
+          <t>Construcción y Operación Subestación Eléctrica Pid Pid</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>02/08/2000</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta Procesadora de Productos del Mar Sociedad Huimar Limitada</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10846,20 +10846,20 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Construcción Centro Turístico</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10894,30 +10894,30 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Adriana Den Braber Soza</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>07/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Construcción de 202 Viviendas Sociales comuna de Castro</t>
+          <t>Construcción Centro Turístico</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,25 +10947,25 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Adriana Den Braber Soza</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1440</v>
+        <v>40</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>20/10/1999</t>
+          <t>07/12/1999</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Castro sector Plaza de Armas</t>
+          <t>Construcción de 202 Viviendas Sociales comuna de Castro</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,15 +10995,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>03/03/1999</t>
+          <t>20/10/1999</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas ( Segunda Presentación)</t>
+          <t>Modificación al Plan Regulador Comunal de Castro sector Plaza de Armas</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,25 +11043,25 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>17/02/1999</t>
+          <t>03/03/1999</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Proyecto Construcción Establecimiento Educacional en Castro Isla de Chiloe</t>
+          <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas ( Segunda Presentación)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,25 +11091,25 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Archipielago S. A.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>440</v>
+        <v>9100</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>29/10/1998</t>
+          <t>17/02/1999</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,43 +11124,91 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
+          <t>Proyecto Construcción Establecimiento Educacional en Castro Isla de Chiloe</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Sociedad Inmobiliaria Archipielago S. A.</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>440</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>29/10/1998</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1453&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
           <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
         <is>
           <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
-      <c r="F225" t="n">
+      <c r="F226" t="n">
         <v>9170</v>
       </c>
-      <c r="G225" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>30/03/1998</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
+      <c r="H226" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I225" t="inlineStr">
+      <c r="I226" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=800&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J225" t="inlineStr">
+      <c r="J226" t="inlineStr">
         <is>
           <t>Castro</t>
         </is>

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -434,7 +434,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/11/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J226"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
+          <t>Modificación Proyecto Técnico, Centro 102548, Canal Dalcahue, al Este de Punta Atal- Comuna de Castro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>María Patricia Vargas Torrez</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>24/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157645850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157731846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
+          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CULTIVOS SANTURRON SPA</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156678810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157645850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NORESTE PUNTA AGUANTAO</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>CULTIVOS SANTURRON SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17/08/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156671155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156678810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, centro 102.515, Punta Ramírez - Canal Lemuy</t>
+          <t>NORESTE PUNTA AGUANTAO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CULTIVOS SANTURRON SPA</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154885769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156671155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
+          <t>Modificación de Proyecto Técnico, centro 102.515, Punta Ramírez - Canal Lemuy</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>26/01/2022</t>
+          <t>03/02/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154756826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154885769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MARES ANDINOS SpA</t>
+          <t>CULTIVOS SANTURRON SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>26/01/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148917546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154756826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Subestación Nueva Gamboa</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>MARES ANDINOS SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>19000</v>
+        <v>45</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148779560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148917546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Regularización de la base en tierra y modificación de Proyecto Técnico para la ampliación de biomasa de abalón rojo del Centro 101154, Canal Quehui, noreste Punta Camahue, Isla Quehui, Castro ? Región de los Lagos. N° Pert 218103034</t>
+          <t>Subestación Nueva Gamboa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pesca y Cultivos Don Jorge Ltda</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1900</v>
+        <v>19000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147645415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148779560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, IMELEV. CÓDIGO DE CENTRO N° 102066</t>
+          <t>Regularización de la base en tierra y modificación de Proyecto Técnico para la ampliación de biomasa de abalón rojo del Centro 101154, Canal Quehui, noreste Punta Camahue, Isla Quehui, Castro ? Región de los Lagos. N° Pert 218103034</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Pesca y Cultivos Don Jorge Ltda</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5000</v>
+        <v>1900</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>03/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147536901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147645415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental para ?Ampliación de Biomasa Centro de Cultivo de Mitílidos Pert N° 219103043?, Sector este de Punta Pullao, Canal Hudson, Comuna de Castro, Provincia de Chiloé - Décima Región, código centro 103669</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, IMELEV. CÓDIGO DE CENTRO N° 102066</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sociedad Comercial e Insdustrial Jomar Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>260</v>
+        <v>5000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>29/05/2020</t>
+          <t>03/08/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146699104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147536901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
+          <t>Declaración de Impacto Ambiental para ?Ampliación de Biomasa Centro de Cultivo de Mitílidos Pert N° 219103043?, Sector este de Punta Pullao, Canal Hudson, Comuna de Castro, Provincia de Chiloé - Décima Región, código centro 103669</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL MAR Y MAR LTDA.</t>
+          <t>sociedad Comercial e Insdustrial Jomar Ltda.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/05/2019</t>
+          <t>29/05/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143246458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146699104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Cultivos Marinos Punta Pullao 2, N° PERT 99103222?</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>SOCIEDAD COMERCIAL MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>22/05/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142948123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143246458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, MATADERO SAN DANIEL, CASTRO, CHILOE</t>
+          <t>Modificación del Proyecto ?Cultivos Marinos Punta Pullao 2, N° PERT 99103222?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sociedad Comercial San Daniel SpA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132474245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142948123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, MATADERO SAN DANIEL, CASTRO, CHILOE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Sociedad Comercial San Daniel SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>06/09/2016</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131752002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132474245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>41000</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>06/09/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131752002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 103.844 LINGUE-ESTERO CASTRO, RIO BLANCO LTDA.</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>41000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/12/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 103.844 LINGUE-ESTERO CASTRO, RIO BLANCO LTDA.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>41000</v>
+        <v>40</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>22/12/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>41000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/09/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
+          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>02/12/2014</t>
+          <t>23/09/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130005588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063</t>
+          <t>MODIFICACION DE PROYECTO TECNICO ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>02/12/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130005588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RELOCALIZACIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COSTA OESTE ISLA CHELIN (SECTOR 1), COMUNA CASTRO, REGIÓN DE LOS LAGOS, PERT N° 210100051</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1 PERT Nº 213103028</t>
+          <t>RELOCALIZACIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COSTA OESTE ISLA CHELIN (SECTOR 1), COMUNA CASTRO, REGIÓN DE LOS LAGOS, PERT N° 210100051</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>04/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128822375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2 PERT Nº 213103027</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1 PERT Nº 213103028</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128823101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128822375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Proyecto Técnico para el cultivo de Mitílidos del Centro Canal Lemuy, Sur este de Punta Tutil, Nº de Pert 209103036".</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2 PERT Nº 213103027</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Servicios Monprori Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15/11/2013</t>
+          <t>04/12/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128830269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128823101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1</t>
+          <t>"Proyecto Técnico para el cultivo de Mitílidos del Centro Canal Lemuy, Sur este de Punta Tutil, Nº de Pert 209103036".</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Servicios Monprori Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>15/11/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128755417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128830269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128755417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Alimentos Salmofood</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Vitapro Chile S.A</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128575060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modificación manejo de mortalidad mediante sistema de ensilaje en el centro de cultivo Pullao, Ensenada Pullao, Canal Hudson</t>
+          <t>Ampliación Planta de Alimentos Salmofood</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Vitapro Chile S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>90</v>
+        <v>50000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/07/2013</t>
+          <t>12/09/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8364977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128575060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Modificación manejo de mortalidad mediante sistema de ensilaje en el centro de cultivo Pullao, Ensenada Pullao, Canal Hudson</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>18/07/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8364977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PROYECTO TÉCNICO PARA EL CULTIVO DE MITÍLIDOS, DEL CENTRO TUTIL, Nº de Pert 211103055"</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8263817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>"AMPLIACIÓN DE PROYECTO TÉCNICO PARA EL CULTIVO DE MITÍLIDOS, DEL CENTRO TUTIL, Nº de Pert 211103055"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>19/06/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8263817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Aguantao, Comuna de Castro, Décima Región. Nº PERT 211103088"</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2000</v>
+        <v>2475</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7867000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de abalones, Punta Chulequehue, Canal Dalcahue, Comuna de Castro, Décima Región. Nº PERT 211103043".</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Aguantao, Comuna de Castro, Décima Región. Nº PERT 211103088"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>19/02/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7856866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7867000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SUR DE PUNTA PINDO, ISLA CHELÍN, COMUNA DE CASTRO, Xa. REGIÓN DE LOS LAGOS" N° de Solicitud 211103039. AMPLIACIÓN BIOMASA CCS SUR DE PUNTA PINDO</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de abalones, Punta Chulequehue, Canal Dalcahue, Comuna de Castro, Décima Región. Nº PERT 211103043".</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>04/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7596276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7856866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,12 +2344,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Parque Eólico Pichihué</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SUR DE PUNTA PINDO, ISLA CHELÍN, COMUNA DE CASTRO, Xa. REGIÓN DE LOS LAGOS" N° de Solicitud 211103039. AMPLIACIÓN BIOMASA CCS SUR DE PUNTA PINDO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>240000</v>
+        <v>2800</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>04/12/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7596276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>INSTALACIÓN Y OPERACIÓN DE UNA ESTACIÓN DE TRANSFERENCIA DE ENSILAJE EN TERMINAL PORTUARIO MULTIPROPÓSITO DE CASTRO ESTACIÓN DE TRANSF. ENSILAJE T.PORTUARIO CASTRO</t>
+          <t>Parque Eólico Pichihué</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>Andes Mainstream SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>252</v>
+        <v>240000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>29/08/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7283633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>INSTALACIÓN Y OPERACIÓN DE UNA ESTACIÓN DE TRANSFERENCIA DE ENSILAJE EN TERMINAL PORTUARIO MULTIPROPÓSITO DE CASTRO ESTACIÓN DE TRANSF. ENSILAJE T.PORTUARIO CASTRO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>29/08/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7283633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, ESTERO CASTRO,PUNTA TUTIL, código 100.497,PERT 212103011" MODIFICACIÓN DE PROYECTO TECNICO CENTRO CULTIVO SA</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6685989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, CANAL LEMUY, SECTOR PUNTA LEPE, código 100.418, PERT 212103009" Modificación Proyecto Técnico CCS, Canal Lemuy</t>
+          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, ESTERO CASTRO,PUNTA TUTIL, código 100.497,PERT 212103011" MODIFICACIÓN DE PROYECTO TECNICO CENTRO CULTIVO SA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6686385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6685989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, CANAL LEMUY, SECTOR PUNTA LEPE, código 100.418, PERT 212103009" Modificación Proyecto Técnico CCS, Canal Lemuy</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/03/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6686385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Al Sureste de Isla Quehui, Comuna de Castro, Nº Solicitud: 210103188</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6472492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Al Sureste de Isla Quehui, Comuna de Castro, Nº Solicitud: 210103188</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>12/01/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6472492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, TUTIL, código 100.497"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2800</v>
+        <v>100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>03/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6342215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación de biomasa de salmónidos, concesión Canal Quehui, al norte de Punta Camahue, Isla Quehui, Comuna de Castro, Nº solicitud: 211103076</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, TUTIL, código 100.497"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21/12/2011</t>
+          <t>03/01/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6361376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6342215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Ampliación de biomasa de salmónidos, concesión Canal Quehui, al norte de Punta Camahue, Isla Quehui, Comuna de Castro, Nº solicitud: 211103076</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>21/12/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6361376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR NOROESTE PUNTA AGUANTAO Y NORESTE DE ESTERO RILAN COMUNA DE CASTRO (SOL Nº 210103212)"</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>647</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Nueva Captación y Planta de Tratamiento de Agua Potable Sector Alto Castro</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR NOROESTE PUNTA AGUANTAO Y NORESTE DE ESTERO RILAN COMUNA DE CASTRO (SOL Nº 210103212)"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>7000</v>
+        <v>647</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19/10/2011</t>
+          <t>20/10/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5823734&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Nueva Captación y Planta de Tratamiento de Agua Potable Sector Alto Castro</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,20 +3026,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>319</v>
+        <v>7000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>19/10/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5823734&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 3 COMUNA DE CASTRO (SOL Nº 206103131)"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>656</v>
+        <v>319</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 1 COMUNA DE CASTRO (SOL Nº 206103132)"</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 3 COMUNA DE CASTRO (SOL Nº 206103131)"</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA ÁNIMO, X REGION Nº 211103009 (Código del Centro: 100208)</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 1 COMUNA DE CASTRO (SOL Nº 206103132)"</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2000</v>
+        <v>656</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5874896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LA ESTANCIA, X REGION" Nº de Ingreso a Trámite: 210103216 (Código del Centro: 100981)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA ÁNIMO, X REGION Nº 211103009 (Código del Centro: 100208)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>22/07/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5874896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Península Rilan</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LA ESTANCIA, X REGION" Nº de Ingreso a Trámite: 210103216 (Código del Centro: 100981)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Agricola Santa Ana S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>25/04/2011</t>
+          <t>22/07/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5558971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Cementerio, código 100.417</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Península Rilan</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Agricola Santa Ana S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>25/04/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5558971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Lepe, código 100.418</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Cementerio, código 100.417</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tutil, código 100.497</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Lepe, código 100.418</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Pangue - X Región</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tutil, código 100.497</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>22/03/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Río Cude, Código 100.428"</t>
+          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Pangue - X Región</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>22/03/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Putemún, Código 100.978"</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Río Cude, Código 100.428"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO LA ESTANCIA - X REGION</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Putemún, Código 100.978"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>28/02/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Aguantao</t>
+          <t>MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO LA ESTANCIA - X REGION</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>28/02/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>"PROYECTO DE AMPLIACIÓN COLEGIO SAN FRANCISCO DE ASÍS"</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Aguantao</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Fundación Educacional Colegio San Francisco Asìs</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2400</v>
+        <v>84</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5289827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo Punta Chulequehue, Código Centro 102586.</t>
+          <t>"PROYECTO DE AMPLIACIÓN COLEGIO SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Fundación Educacional Colegio San Francisco Asìs</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>400</v>
+        <v>2400</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>03/11/2010</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5289827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,12 +3784,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Centro de Manejo y disposición Final de Residuos Sólidos Chiloé</t>
+          <t>Modificación de Producción Centro de Cultivo Punta Chulequehue, Código Centro 102586.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>5500</v>
+        <v>400</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>03/11/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4887134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro Chelín, Punta Pindo, Isla Chelín</t>
+          <t>Centro de Manejo y disposición Final de Residuos Sólidos Chiloé</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>90</v>
+        <v>5500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4796198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4887134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro Chelín, Punta Pindo, Isla Chelín</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4796198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, SECTOR NORTE DE ESTERO RILÁN N° PERT 207103216</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Mytilus Multiexport S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, NORESTE DE PUNTA AGUANTAO N° PERT 207103186</t>
+          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, SECTOR NORTE DE ESTERO RILÁN N° PERT 207103216</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA PELLO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 204103019)"</t>
+          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, NORESTE DE PUNTA AGUANTAO N° PERT 207103186</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Mytilus Multiexport S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>07/05/2010</t>
+          <t>08/06/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO II</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA PELLO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 204103019)"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>58</v>
+        <v>314</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>16/04/2010</t>
+          <t>07/05/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4139,21 +4139,21 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>29/03/2010</t>
+          <t>16/04/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4466226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos en Punta Pullao sector 2, N° 207103166</t>
+          <t>CULTIVOS MARINOS DEQUIO II</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>304</v>
+        <v>57</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>12/02/2010</t>
+          <t>29/03/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4466226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>¿Centro de Cultivo de Mitílidos en Punta Pullao sector 1, N° 207103167¿</t>
+          <t>Centro de Cultivo de Mitílidos en Punta Pullao sector 2, N° 207103166</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4235,11 +4235,11 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>828</v>
+        <v>304</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>12/02/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>¿Centro de Cultivo de Mitílidos en Punta Pullao sector 1, N° 207103167¿</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO DE CASTRO PUNTA DEQUIO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103068)" (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO DE CASTRO PUNTA DEQUIO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103068)" (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2600</v>
+        <v>676</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>02/12/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4221944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO I (e-seia)</t>
+          <t>CULTIVOS MARINOS DEQUIO (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>sonia catepillan guinao</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4221944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Oeste de Isla Chelín 202103123 (e-seia)</t>
+          <t>CULTIVOS MARINOS DEQUIO I (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>sonia catepillan guinao</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4189935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas Nº Solicitud 206103102, sector Este Isla Chelin I, comuna de Castro (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Oeste de Isla Chelín 202103123 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>JORGE ARTURO CAMPODÓNICO PELUCHONNEAU</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4189935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE ALGAS Nª SOLICITUD 206103103, SECTOR ESTE ISLA CHELIN II, COMUNA DE CASTRO (e-seia)</t>
+          <t>Centro de Cultivo de Algas Nº Solicitud 206103102, sector Este Isla Chelin I, comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE ALGAS Nª SOLICITUD 206103103, SECTOR ESTE ISLA CHELIN II, COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>JORGE ARTURO CAMPODÓNICO PELUCHONNEAU</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>377</v>
+        <v>55</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mejoramiento Construcción Costanera de Castro, X Región de Los Lagos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>9200</v>
+        <v>377</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>08/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4030607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Mejoramiento Construcción Costanera de Castro, X Región de Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>9200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>08/09/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4030607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA LEPE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>03/08/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3939640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Mitilicultura Ellinseng (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA LEPE (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5003,7 +5003,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3940385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3939640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO CULTIVO ABALON Nº 201103188 (e-seia)</t>
+          <t>Mitilicultura Ellinseng (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>08/06/2009</t>
+          <t>03/08/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3832886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3940385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACION CENTRO CULTIVO ABALON Nº 201103188 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>08/06/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3832886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Tratamiento de Riles, de la Empresa Procesadora de Salmones Invertec Seafood S.A., con RCA aprobada Nº 436, ubicada en Llau-Llao s/n°, Comuna de Castro (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>740</v>
+        <v>22</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado del Vertedero Municipal Comuna de Castro (e-seia)</t>
+          <t>Ampliación de la Planta de Tratamiento de Riles, de la Empresa Procesadora de Salmones Invertec Seafood S.A., con RCA aprobada Nº 436, ubicada en Llau-Llao s/n°, Comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>959</v>
+        <v>740</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>14/05/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR OESTE ISLA CHELIN, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103015)" (e-seia)</t>
+          <t>Plan de Cierre y Sellado del Vertedero Municipal Comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>598</v>
+        <v>959</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>27/02/2009</t>
+          <t>14/05/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3599925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR CANAL LEMUY, CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103217)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR OESTE ISLA CHELIN, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103015)" (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>03/02/2009</t>
+          <t>27/02/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3599925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR CANAL LEMUY, CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103217)" (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>03/02/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103004)" (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3505184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN SECTOR SUR PELDEHUE, ISLA QUEHUI, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103153)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103004)" (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>570</v>
+        <v>730</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3396729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3505184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN SECTOR SUR PELDEHUE, ISLA QUEHUI, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103153)" (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>03/12/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3396729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Construcción Terminal Portuario Multipropósito de Castro (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>7285</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Sistema de Cosecha, Matanza y Prefaenamiento de Salmonidos in situ (e-seia)</t>
+          <t>Construcción Terminal Portuario Multipropósito de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1500</v>
+        <v>7285</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>08/10/2008</t>
+          <t>10/11/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3247720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Sistema de Cosecha, Matanza y Prefaenamiento de Salmonidos in situ (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>1500</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>08/10/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3247720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5871,17 +5871,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue I, Nº de pert 208103057 (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Cultivos Curahue S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>19/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2982421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue II, Nº de pert 208103006 (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue I, Nº de pert 208103057 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2982421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue II, Nº de pert 208103006 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cultivos Curahue S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>19/06/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>"Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, al Noroeste de Punta Tutil, Estero de Castro, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos" (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Audilio Osvaldo Galindo Oyarzo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>"Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, al Noroeste de Punta Tutil, Estero de Castro, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos" (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,20 +6098,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Audilio Osvaldo Galindo Oyarzo</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>429</v>
+        <v>72</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, Sector Punta Tutil, Canal Lemuy, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Marcos Marcelo Galindo Díaz</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>06/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitílidos Concesión de Acuicultura para Cultivo de Mitilidos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, Sector Punta Tutil, Canal Lemuy, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Marcos Marcelo Galindo Díaz</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>06/09/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitílidos Concesión de Acuicultura para Cultivo de Mitilidos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>mejoramiento de suelos a través del tratamiento de biofouling proveniente del proceso de ordenado de redes de cultivo (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Marcelo Calderón Pérez</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>23/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2113599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Matadero San Daniel (e-seia)</t>
+          <t>mejoramiento de suelos a través del tratamiento de biofouling proveniente del proceso de ordenado de redes de cultivo (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad Comercial San Daniel SpA</t>
+          <t>Marcelo Calderón Pérez</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>18/04/2007</t>
+          <t>23/04/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2113599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE ABALON ROJO Nº SOLICITUD 201103232, SECTOR CARAHUE, CANAL LEMUY COMUNA DE CASTRO (e-seia)</t>
+          <t>Matadero San Daniel (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Sociedad Comercial San Daniel SpA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>18/04/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Archipielago Gestión Ambiental (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE ABALON ROJO Nº SOLICITUD 201103232, SECTOR CARAHUE, CANAL LEMUY COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ARCHIPIELAGO GESTION AMBIENTAL LTDA.</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1000</v>
+        <v>191</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>29/03/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SUR PUNTA PELLO Nº SOL. 203103235 00 (e-seia)</t>
+          <t>Archipielago Gestión Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>ARCHIPIELAGO GESTION AMBIENTAL LTDA.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>66</v>
+        <v>1000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>15/03/2007</t>
+          <t>29/03/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CULTIVOS MARINOS SUR PUNTA PELLO Nº SOL. 203103235 00 (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/03/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6735,17 +6735,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITÍLIDOS CALETA CARAHUE, COMUNA DE CASTRO, CHILOÉ (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,30 +6770,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MEJILLONES PATAGONIA S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>03/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ampliación Instalaciones Planta de Harinas y Aceites de Salmón, Castro (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITÍLIDOS CALETA CARAHUE, COMUNA DE CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>MEJILLONES PATAGONIA S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>03/11/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1762638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Ampliación Instalaciones Planta de Harinas y Aceites de Salmón, Castro (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1762638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CONSTRUCCION 200 VIVIENDAS SOCIALES SECTOR LA CHACRA COMUNA DE CASTRO (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2356</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Centro de Operaciones Punta Pullao (e-seia)</t>
+          <t>CONSTRUCCION 200 VIVIENDAS SOCIALES SECTOR LA CHACRA COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>600</v>
+        <v>2356</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>20/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1686197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Acopio de Conchas y Planta de Cal Agrícola Chiloé (e-seia)</t>
+          <t>Centro de Operaciones Punta Pullao (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Cal Austral S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>20/09/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1686197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR PULLAO, COMUNA DE CASTRO (SOL Nº 201103246)" (e-seia)</t>
+          <t>Acopio de Conchas y Planta de Cal Agrícola Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Cal Austral S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>866</v>
+        <v>700</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>30/08/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1662095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR PULLAO, COMUNA DE CASTRO (SOL Nº 201103246)" (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,20 +7106,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>80</v>
+        <v>866</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>30/08/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1662095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Vertedero San José, Castro, Chiloé (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,30 +7154,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>21/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1585876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Vertedero San José, Castro, Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,30 +7202,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>21/07/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1585876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PROYECTO VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,20 +7250,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>13/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Enjoy Castro Casino &amp; Resort (e-seia)</t>
+          <t>PROYECTO VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Rantrur Sociedad Anónima</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>23221</v>
+        <v>48</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>13/06/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1463347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE CULTIVO DE CHORITO EN PUERTO HUITE, AL OESTE DE PUNTA ARENAS, COMUNA DE QUEMCHI (e-seia)</t>
+          <t>Enjoy Castro Casino &amp; Resort (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SALMONES ANDES SALMONES ANDES</t>
+          <t>Rantrur Sociedad Anónima</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>236</v>
+        <v>23221</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>19/05/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1463347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>AMPLIACION CENTRO DE CULTIVO DE CHORITO EN PUERTO HUITE, AL OESTE DE PUNTA ARENAS, COMUNA DE QUEMCHI (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,20 +7394,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>SALMONES ANDES SALMONES ANDES</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>500</v>
+        <v>236</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>19/05/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7455,17 +7455,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7551,17 +7551,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Isla Chelin Punta Pindo, X Región Nº Pert 97103106 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,30 +7634,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>31/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Isla Chelin Punta Pindo, X Región Nº Pert 97103106 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,15 +7687,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>56</v>
+        <v>2400</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>10/11/2005</t>
+          <t>31/01/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,20 +7730,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>10/11/2005</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles, para Planta Procesadora de Salmones Invertec Seafood S.A., Llau-llao s/n°, comuna de Castro (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,20 +7778,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>27/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Construcción de un Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles de la empresa, Pesca y Cultivos Don Jorge S.A. en Llicaldad, Castro X° Región 0 (e-seia)</t>
+          <t>Planta de Tratamiento de Riles, para Planta Procesadora de Salmones Invertec Seafood S.A., Llau-llao s/n°, comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Mauricio Cabrera Silva</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>09/06/2005</t>
+          <t>27/10/2005</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, PLANTA PIRUQUINA, CASTRO, DÉCIMA REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Construcción de un Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles de la empresa, Pesca y Cultivos Don Jorge S.A. en Llicaldad, Castro X° Región 0 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>Mauricio Cabrera Silva</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>09/06/2005</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TAUCUO. PERT 203103054 (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, PLANTA PIRUQUINA, CASTRO, DÉCIMA REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Mytilus Multiexport S.A.</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>17/05/2005</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS PUNTA CHULEQUEHUE, CANAL DALCAHUE COMUNA DE CASTRO, CHILOE, DECIMA REGION. Nº PERT 203103168 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TAUCUO. PERT 203103054 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Mytilus Multiexport S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>08/04/2005</t>
+          <t>17/05/2005</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=649216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA ATAL Nº PERT 203103162 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS PUNTA CHULEQUEHUE, CANAL DALCAHUE COMUNA DE CASTRO, CHILOE, DECIMA REGION. Nº PERT 203103168 (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,15 +8023,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>SIXTO OMAR PAREDES MILLÀN</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>55</v>
+        <v>310</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>21/03/2005</t>
+          <t>08/04/2005</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=649216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVOS AGUANTAO. Nª PERT: 203103157 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA ATAL Nº PERT 203103162 (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>SIXTO OMAR PAREDES MILLÀN</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ISLA QUEHUI. NªPERT:203103169 (e-seia)</t>
+          <t>CENTRO CULTIVOS AGUANTAO. Nª PERT: 203103157 (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>413</v>
+        <v>55</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PELDEHUE. Nª PERT: 203103170 (e-seia)</t>
+          <t>CULTIVOS MARINOS ISLA QUEHUI. NªPERT:203103169 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>530</v>
+        <v>413</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CULTIVOA MARINOS AGUANTAO Nª PERT:203103151 (e-seia)</t>
+          <t>CULTIVOS MARINOS PELDEHUE. Nª PERT: 203103170 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>323</v>
+        <v>530</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Cultivos S.T.I. Estero Rilán Norte Nº Solicitud 97103070 (e-seia)</t>
+          <t>CULTIVOA MARINOS AGUANTAO Nª PERT:203103151 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,15 +8263,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Cultivadores de Alga Gracilaria, Estero Rilán Norte</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>04/03/2005</t>
+          <t>21/03/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>Cultivos S.T.I. Estero Rilán Norte Nº Solicitud 97103070 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,15 +8311,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Sindicato de Trabajadores Independientes Cultivadores de Alga Gracilaria, Estero Rilán Norte</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>28/01/2005</t>
+          <t>04/03/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS QUEHUI NºPERT. 201103296 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,25 +8551,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>28/01/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=570671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>COÑAO I, CULTIVO DE MOLUSCOS EN QUINCHAO, CHILOÉ. Pert Nº 202103145 (e-seia)</t>
+          <t>CULTIVOS MARINOS QUEHUI NºPERT. 201103296 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,15 +8599,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MARÍA MAGDALENA HWARTS AVILÉZ</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>31/12/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=559479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=570671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Sistema de Neutralización de Riles (e-seia)</t>
+          <t>COÑAO I, CULTIVO DE MOLUSCOS EN QUINCHAO, CHILOÉ. Pert Nº 202103145 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,25 +8647,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>MARÍA MAGDALENA HWARTS AVILÉZ</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>31/12/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=560180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=559479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Centro de cultivos Isla Chelin, PERT N° 200103184 (e-seia)</t>
+          <t>Sistema de Neutralización de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,25 +8695,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>19/11/2004</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=513496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=560180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónidos Isla Quehui, comuna de Castro, X Región (Solicitud Nº98103031) (e-seia)</t>
+          <t>Centro de cultivos Isla Chelin, PERT N° 200103184 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,25 +8743,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sea Fine Salmon S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>19/11/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=513496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Cultivos Marinos PUNTA PULLAO 1 Nº PERT: 200103037 (e-seia)</t>
+          <t>Centro de Engorda de Salmónidos Isla Quehui, comuna de Castro, X Región (Solicitud Nº98103031) (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,15 +8791,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Sea Fine Salmon S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>29/10/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Cultivos Marinos PUNTA PULLAO 2 Nº PERT: 99103222 (e-seia)</t>
+          <t>Cultivos Marinos PUNTA PULLAO 1 Nº PERT: 200103037 (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AGUANTAO, CULTIVO DE MOLUSCOS EN CHILOÉ (SOLICITUD Nº 202103079) (e-seia)</t>
+          <t>Cultivos Marinos PUNTA PULLAO 2 Nº PERT: 99103222 (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,15 +8887,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>29/10/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Mitilicultura Ellingsen. Nº Solicitud 201103293 (e-seia)</t>
+          <t>AGUANTAO, CULTIVO DE MOLUSCOS EN CHILOÉ (SOLICITUD Nº 202103079) (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,15 +8935,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>29/09/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PULLAO, CULTIVO DE MOLUSCOS EN CASTRO, CHILOÉ (Solicitud Nº201103235) (e-seia)</t>
+          <t>Mitilicultura Ellingsen. Nº Solicitud 201103293 (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>29/09/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=463045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS SECTOR PULLAO, COMUNA DE CASTRO, DECIMA REGION. Nº PERT 98103113 (e-seia)</t>
+          <t>PULLAO, CULTIVO DE MOLUSCOS EN CASTRO, CHILOÉ (Solicitud Nº201103235) (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,15 +9031,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>24/09/2004</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=454582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=463045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MOLUSCOS CANAL QUEHUI N° SOLICITUD 201103253 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS SECTOR PULLAO, COMUNA DE CASTRO, DECIMA REGION. Nº PERT 98103113 (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>RODRIGO AQUILES RUIZ PEREZ</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=454582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Centro de Cultivos y Engorda de Moluscos, Rilan 2004, (Nº Sol. 99103018) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MOLUSCOS CANAL QUEHUI N° SOLICITUD 201103253 (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,15 +9127,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>RODRIGO AQUILES RUIZ PEREZ</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>30/08/2004</t>
+          <t>24/09/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Centro de Cultivos y Engorda de Moluscos, Rilan 2004, (Nº Sol. 99103018) (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,20 +9170,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>30/08/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR PUNTA PINDO, ISLA CHELIN, CASTRO, PROVINCIA DE CHILOE (Sol. 200103097) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,20 +9218,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>30/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=414978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR PUNTA PINDO, ISLA CHELIN, CASTRO, PROVINCIA DE CHILOE (Sol. 200103097) (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,20 +9266,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>4000</v>
+        <v>659</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>30/07/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=414978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS, SECTOR PUNTA VALENZUELA, SAN JOSE, COMUNA DE CASTRO (Nº SOL. 98103007) (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,20 +9314,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ERNESTO ALFONSO OLAVARRIA HERNANDEZ</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>127</v>
+        <v>4000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>12/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=398599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CURAHUE Nº 98103027 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS, SECTOR PUNTA VALENZUELA, SAN JOSE, COMUNA DE CASTRO (Nº SOL. 98103007) (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,15 +9367,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Cultivos Curahue S.A.</t>
+          <t>ERNESTO ALFONSO OLAVARRIA HERNANDEZ</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>07/07/2004</t>
+          <t>12/07/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=394709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=398599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>CULTIVOS MARINOS CURAHUE Nº 98103027 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,20 +9410,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Cultivos Curahue S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>07/07/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=394709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, Nº Sol. 97103106 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -9567,17 +9567,17 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>17/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>"Centro de Cultivo de Mitílidos, Punta Lepe, Canal Lemuy, Comuna de Castro, X Región, N° Pert. 201103292" (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, Nº Sol. 97103106 (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>19/05/2004</t>
+          <t>17/06/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=357056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>"Centro de Cultivo de Mitílidos, Punta Lepe, Canal Lemuy, Comuna de Castro, X Región, N° Pert. 201103292" (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,30 +9650,30 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>19/05/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=357056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Plan Regulador de Castro (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,30 +9698,30 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>19/04/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=323663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>CULTIVO MARINOS CURAHUE 1 Nº98103026 (e-seia)</t>
+          <t>Plan Regulador de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,15 +9751,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>LUIS FRANCISCO HIDALGO SOLAR</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>13/04/2004</t>
+          <t>19/04/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=319362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=323663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Sector Quinched (no. pert 202103127) (e-seia)</t>
+          <t>CULTIVO MARINOS CURAHUE 1 Nº98103026 (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,15 +9799,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Arturo Rosendo Astroza Manosalva</t>
+          <t>LUIS FRANCISCO HIDALGO SOLAR</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>27/02/2004</t>
+          <t>13/04/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=319362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Cultivos Lingue (Nº Sol. 97103098) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Sector Quinched (no. pert 202103127) (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,15 +9847,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Carlos Victor Sandoval Dunkler</t>
+          <t>Arturo Rosendo Astroza Manosalva</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>27/02/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=255083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
+          <t>Cultivos Lingue (Nº Sol. 97103098) (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Carlos Victor Sandoval Dunkler</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>07/01/2004</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=255083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>" Cultivos Marinos Estero Rilan, N° Sol. 98103003" (e-seia)</t>
+          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,15 +9943,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>05/01/2004</t>
+          <t>07/01/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=239491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS, SECTOR PUNTA LEPE, COMUNA DE CASTRO. PERT Nº 99103028 (e-seia)</t>
+          <t>" Cultivos Marinos Estero Rilan, N° Sol. 98103003" (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,15 +9991,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>CULTIVOS MAR ATLÁNTICO SpA</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>02/01/2004</t>
+          <t>05/01/2004</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=239491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ABALONES ISLA QUINCHAO N° de Solicitud 201103186 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS, SECTOR PUNTA LEPE, COMUNA DE CASTRO. PERT Nº 99103028 (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,15 +10039,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>CULTIVOS MAR ATLÁNTICO SpA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>22/12/2003</t>
+          <t>02/01/2004</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>ABALONES ISLA QUINCHAO N° de Solicitud 201103186 (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,20 +10082,20 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>22/12/2003</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Cultivos Punta Pullao (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,20 +10130,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>860</v>
+        <v>200</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>31/10/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chai Chai ( Solicitud N°99103166)</t>
+          <t>Cultivos Punta Pullao (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,15 +10183,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Pedro Edgardo Vidal Vargas</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>4</v>
+        <v>860</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>31/10/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Astillero Artesanal Castro</t>
+          <t>Cultivos Marinos Chai Chai ( Solicitud N°99103166)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,25 +10231,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Dago Huberto Gonzalez Villarroel</t>
+          <t>Pedro Edgardo Vidal Vargas</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>21/03/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Concesión de Acuicultura en el Sector de Punta Pullao Comuna de Castro Provincia de Chiloé N° de Solicitud 201103014</t>
+          <t>Astillero Artesanal Castro</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,25 +10279,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Cultivos Marinos del Pacífico S.A.</t>
+          <t>Dago Huberto Gonzalez Villarroel</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>860</v>
+        <v>10</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>21/03/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación de Proyecto Técnico en Concesión de Acuicultura en el Sector de Punta Pullao Comuna de Castro Provincia de Chiloé N° de Solicitud 201103014</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,30 +10322,30 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cultivos Marinos del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>200</v>
+        <v>860</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ampliación de Especie Hatchery para la Producción de Semillas de Moluscos Cultivo Mare Aperto S A Ten Ten Castro Isla Chiloé</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,30 +10370,30 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Cultivos Mare Aperto S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>12/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Linlinao</t>
+          <t>Ampliación de Especie Hatchery para la Producción de Semillas de Moluscos Cultivo Mare Aperto S A Ten Ten Castro Isla Chiloé</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,15 +10423,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
+          <t>Cultivos Mare Aperto S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>17/08/2001</t>
+          <t>12/09/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Taller Artesanal de Redes de Agua Dulce Don Alberto</t>
+          <t>Cultivos Marinos Linlinao</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10469,23 +10469,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
+        </is>
+      </c>
       <c r="F211" t="n">
         <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>22/06/2001</t>
+          <t>17/08/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Castro (Tercera Presentación)</t>
+          <t>Taller Artesanal de Redes de Agua Dulce Don Alberto</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10513,27 +10517,23 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
-        </is>
-      </c>
+      <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>09/04/2001</t>
+          <t>22/06/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Cultivo de Molusco en Yutuy Estero Castro</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Castro (Tercera Presentación)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Alonso Fernando Hernández Andrade</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>10</v>
+        <v>920</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>28/03/2001</t>
+          <t>09/04/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Castro Sector Gamboa</t>
+          <t>Cultivo de Molusco en Yutuy Estero Castro</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial de Vivienda y Urbanismo, X Región de Los Lagos</t>
+          <t>Alonso Fernando Hernández Andrade</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>27/03/2001</t>
+          <t>28/03/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Riles y Rises Emanados del Lavado de Redes Salmoneras "Taller de Redes Piscis"</t>
+          <t>Modificación al Plan Regulador Comunal de Castro Sector Gamboa</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,25 +10659,25 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Mirna Gómez Paredes</t>
+          <t>Secretaría Ministerial de Vivienda y Urbanismo, X Región de Los Lagos</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>13/02/2001</t>
+          <t>27/03/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ampliación de Camping El Pudú</t>
+          <t>Tratamiento y Disposición Final de Riles y Rises Emanados del Lavado de Redes Salmoneras "Taller de Redes Piscis"</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Sociedad Hotelera Plaza Beckna Ltda.</t>
+          <t>Mirna Gómez Paredes</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>27/11/2000</t>
+          <t>13/02/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición de Riles y Rises del Lavado de Redes de Cultivo Marcelo Calderón</t>
+          <t>Ampliación de Camping El Pudú</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,25 +10755,25 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>SOC. MarMau Ltda.</t>
+          <t>Sociedad Hotelera Plaza Beckna Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>03/10/2000</t>
+          <t>27/11/2000</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Eléctrica Pid Pid</t>
+          <t>Tratamiento y Disposición de Riles y Rises del Lavado de Redes de Cultivo Marcelo Calderón</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>SOC. MarMau Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>800</v>
+        <v>140</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>02/08/2000</t>
+          <t>03/10/2000</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar Sociedad Huimar Limitada</t>
+          <t>Construcción y Operación Subestación Eléctrica Pid Pid</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>02/08/2000</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta Procesadora de Productos del Mar Sociedad Huimar Limitada</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10894,20 +10894,20 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Construcción Centro Turístico</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10942,30 +10942,30 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Adriana Den Braber Soza</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>07/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Construcción de 202 Viviendas Sociales comuna de Castro</t>
+          <t>Construcción Centro Turístico</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,25 +10995,25 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Adriana Den Braber Soza</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1440</v>
+        <v>40</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>20/10/1999</t>
+          <t>07/12/1999</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Castro sector Plaza de Armas</t>
+          <t>Construcción de 202 Viviendas Sociales comuna de Castro</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,15 +11043,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>03/03/1999</t>
+          <t>20/10/1999</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas ( Segunda Presentación)</t>
+          <t>Modificación al Plan Regulador Comunal de Castro sector Plaza de Armas</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,25 +11091,25 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>17/02/1999</t>
+          <t>03/03/1999</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Proyecto Construcción Establecimiento Educacional en Castro Isla de Chiloe</t>
+          <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas ( Segunda Presentación)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,25 +11139,25 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Archipielago S. A.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>440</v>
+        <v>9100</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>29/10/1998</t>
+          <t>17/02/1999</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,43 +11172,91 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
+          <t>Proyecto Construcción Establecimiento Educacional en Castro Isla de Chiloe</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Sociedad Inmobiliaria Archipielago S. A.</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>440</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>29/10/1998</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1453&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
           <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
         <is>
           <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
-      <c r="F226" t="n">
+      <c r="F227" t="n">
         <v>9170</v>
       </c>
-      <c r="G226" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>30/03/1998</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
+      <c r="H227" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I226" t="inlineStr">
+      <c r="I227" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=800&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J226" t="inlineStr">
+      <c r="J227" t="inlineStr">
         <is>
           <t>Castro</t>
         </is>

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/11/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -10087,7 +10087,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>CULTIVOS MARINOS COSTASAL LTDA.</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J227"/>
+  <dimension ref="A1:J229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>19/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157731846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876193&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -491,21 +491,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>19/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157645850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
+          <t>Modificación Proyecto Técnico, Centro 102548, Canal Dalcahue, al Este de Punta Atal- Comuna de Castro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CULTIVOS SANTURRON SPA</t>
+          <t>María Patricia Vargas Torrez</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156678810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157731846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NORESTE PUNTA AGUANTAO</t>
+          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>17/08/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156671155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157645850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, centro 102.515, Punta Ramírez - Canal Lemuy</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154885769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156678810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
+          <t>NORESTE PUNTA AGUANTAO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CULTIVOS SANTURRON SPA</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26/01/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154756826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156671155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
+          <t>Modificación de Proyecto Técnico, centro 102.515, Punta Ramírez - Canal Lemuy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MARES ANDINOS SpA</t>
+          <t>CULTIVOS SANTURRON SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>03/02/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148917546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154885769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Subestación Nueva Gamboa</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>CULTIVOS SANTURRON SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>19000</v>
+        <v>65</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>26/01/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148779560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154756826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Regularización de la base en tierra y modificación de Proyecto Técnico para la ampliación de biomasa de abalón rojo del Centro 101154, Canal Quehui, noreste Punta Camahue, Isla Quehui, Castro ? Región de los Lagos. N° Pert 218103034</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pesca y Cultivos Don Jorge Ltda</t>
+          <t>MARES ANDINOS SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1900</v>
+        <v>45</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147645415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148917546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, IMELEV. CÓDIGO DE CENTRO N° 102066</t>
+          <t>Subestación Nueva Gamboa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>03/08/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147536901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148779560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental para ?Ampliación de Biomasa Centro de Cultivo de Mitílidos Pert N° 219103043?, Sector este de Punta Pullao, Canal Hudson, Comuna de Castro, Provincia de Chiloé - Décima Región, código centro 103669</t>
+          <t>Regularización de la base en tierra y modificación de Proyecto Técnico para la ampliación de biomasa de abalón rojo del Centro 101154, Canal Quehui, noreste Punta Camahue, Isla Quehui, Castro ? Región de los Lagos. N° Pert 218103034</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sociedad Comercial e Insdustrial Jomar Ltda.</t>
+          <t>Pesca y Cultivos Don Jorge Ltda</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>260</v>
+        <v>1900</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>29/05/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146699104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147645415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, IMELEV. CÓDIGO DE CENTRO N° 102066</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL MAR Y MAR LTDA.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>45</v>
+        <v>5000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/05/2019</t>
+          <t>03/08/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143246458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147536901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Cultivos Marinos Punta Pullao 2, N° PERT 99103222?</t>
+          <t>Declaración de Impacto Ambiental para ?Ampliación de Biomasa Centro de Cultivo de Mitílidos Pert N° 219103043?, Sector este de Punta Pullao, Canal Hudson, Comuna de Castro, Provincia de Chiloé - Décima Región, código centro 103669</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>sociedad Comercial e Insdustrial Jomar Ltda.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>29/05/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142948123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146699104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, MATADERO SAN DANIEL, CASTRO, CHILOE</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sociedad Comercial San Daniel SpA</t>
+          <t>SOCIEDAD COMERCIAL MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>22/05/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132474245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143246458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
+          <t>Modificación del Proyecto ?Cultivos Marinos Punta Pullao 2, N° PERT 99103222?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06/09/2016</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131752002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142948123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, MATADERO SAN DANIEL, CASTRO, CHILOE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sociedad Comercial San Daniel SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>41000</v>
+        <v>70</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132474245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 103.844 LINGUE-ESTERO CASTRO, RIO BLANCO LTDA.</t>
+          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/12/2015</t>
+          <t>06/09/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131752002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 103.844 LINGUE-ESTERO CASTRO, RIO BLANCO LTDA.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/09/2015</t>
+          <t>22/12/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>150</v>
+        <v>41000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>02/12/2014</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130005588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063</t>
+          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>140</v>
+        <v>10000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>23/09/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RELOCALIZACIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COSTA OESTE ISLA CHELIN (SECTOR 1), COMUNA CASTRO, REGIÓN DE LOS LAGOS, PERT N° 210100051</t>
+          <t>MODIFICACION DE PROYECTO TECNICO ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>02/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130005588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1 PERT Nº 213103028</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>04/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128822375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2 PERT Nº 213103027</t>
+          <t>RELOCALIZACIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COSTA OESTE ISLA CHELIN (SECTOR 1), COMUNA CASTRO, REGIÓN DE LOS LAGOS, PERT N° 210100051</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>04/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128823101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Proyecto Técnico para el cultivo de Mitílidos del Centro Canal Lemuy, Sur este de Punta Tutil, Nº de Pert 209103036".</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1 PERT Nº 213103028</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Servicios Monprori Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15/11/2013</t>
+          <t>04/12/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128830269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128822375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2 PERT Nº 213103027</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,21 +1643,21 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>04/12/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128755417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128823101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2</t>
+          <t>"Proyecto Técnico para el cultivo de Mitílidos del Centro Canal Lemuy, Sur este de Punta Tutil, Nº de Pert 209103036".</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Servicios Monprori Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>15/11/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128830269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Alimentos Salmofood</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Vitapro Chile S.A</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50000</v>
+        <v>150</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128575060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128755417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modificación manejo de mortalidad mediante sistema de ensilaje en el centro de cultivo Pullao, Ensenada Pullao, Canal Hudson</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18/07/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8364977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Ampliación Planta de Alimentos Salmofood</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Vitapro Chile S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>12/09/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128575060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PROYECTO TÉCNICO PARA EL CULTIVO DE MITÍLIDOS, DEL CENTRO TUTIL, Nº de Pert 211103055"</t>
+          <t>Modificación manejo de mortalidad mediante sistema de ensilaje en el centro de cultivo Pullao, Ensenada Pullao, Canal Hudson</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19/06/2013</t>
+          <t>18/07/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8263817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8364977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>"AMPLIACIÓN DE PROYECTO TÉCNICO PARA EL CULTIVO DE MITÍLIDOS, DEL CENTRO TUTIL, Nº de Pert 211103055"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>19/06/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8263817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Aguantao, Comuna de Castro, Décima Región. Nº PERT 211103088"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7867000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de abalones, Punta Chulequehue, Canal Dalcahue, Comuna de Castro, Décima Región. Nº PERT 211103043".</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1000</v>
+        <v>2475</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7856866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SUR DE PUNTA PINDO, ISLA CHELÍN, COMUNA DE CASTRO, Xa. REGIÓN DE LOS LAGOS" N° de Solicitud 211103039. AMPLIACIÓN BIOMASA CCS SUR DE PUNTA PINDO</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Aguantao, Comuna de Castro, Décima Región. Nº PERT 211103088"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>04/12/2012</t>
+          <t>19/02/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7596276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7867000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Parque Eólico Pichihué</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de abalones, Punta Chulequehue, Canal Dalcahue, Comuna de Castro, Décima Región. Nº PERT 211103043".</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA...</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>240000</v>
+        <v>1000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7856866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>INSTALACIÓN Y OPERACIÓN DE UNA ESTACIÓN DE TRANSFERENCIA DE ENSILAJE EN TERMINAL PORTUARIO MULTIPROPÓSITO DE CASTRO ESTACIÓN DE TRANSF. ENSILAJE T.PORTUARIO CASTRO</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SUR DE PUNTA PINDO, ISLA CHELÍN, COMUNA DE CASTRO, Xa. REGIÓN DE LOS LAGOS" N° de Solicitud 211103039. AMPLIACIÓN BIOMASA CCS SUR DE PUNTA PINDO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>252</v>
+        <v>2800</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>29/08/2012</t>
+          <t>04/12/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7283633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7596276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,30 +2488,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Parque Eólico Pichihué</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, ESTERO CASTRO,PUNTA TUTIL, código 100.497,PERT 212103011" MODIFICACIÓN DE PROYECTO TECNICO CENTRO CULTIVO SA</t>
+          <t>INSTALACIÓN Y OPERACIÓN DE UNA ESTACIÓN DE TRANSFERENCIA DE ENSILAJE EN TERMINAL PORTUARIO MULTIPROPÓSITO DE CASTRO ESTACIÓN DE TRANSF. ENSILAJE T.PORTUARIO CASTRO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2800</v>
+        <v>252</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23/03/2012</t>
+          <t>29/08/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6685989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7283633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, CANAL LEMUY, SECTOR PUNTA LEPE, código 100.418, PERT 212103009" Modificación Proyecto Técnico CCS, Canal Lemuy</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>23/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6686385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, ESTERO CASTRO,PUNTA TUTIL, código 100.497,PERT 212103011" MODIFICACIÓN DE PROYECTO TECNICO CENTRO CULTIVO SA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/03/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6685989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Al Sureste de Isla Quehui, Comuna de Castro, Nº Solicitud: 210103188</t>
+          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, CANAL LEMUY, SECTOR PUNTA LEPE, código 100.418, PERT 212103009" Modificación Proyecto Técnico CCS, Canal Lemuy</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12/01/2012</t>
+          <t>23/03/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6472492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6686385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Al Sureste de Isla Quehui, Comuna de Castro, Nº Solicitud: 210103188</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>12/01/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6472492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, TUTIL, código 100.497"</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>03/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6342215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación de biomasa de salmónidos, concesión Canal Quehui, al norte de Punta Camahue, Isla Quehui, Comuna de Castro, Nº solicitud: 211103076</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6361376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, TUTIL, código 100.497"</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>03/01/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6342215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR NOROESTE PUNTA AGUANTAO Y NORESTE DE ESTERO RILAN COMUNA DE CASTRO (SOL Nº 210103212)"</t>
+          <t>Ampliación de biomasa de salmónidos, concesión Canal Quehui, al norte de Punta Camahue, Isla Quehui, Comuna de Castro, Nº solicitud: 211103076</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>647</v>
+        <v>4000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/10/2011</t>
+          <t>21/12/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6361376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Nueva Captación y Planta de Tratamiento de Agua Potable Sector Alto Castro</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,20 +3026,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5823734&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR NOROESTE PUNTA AGUANTAO Y NORESTE DE ESTERO RILAN COMUNA DE CASTRO (SOL Nº 210103212)"</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>319</v>
+        <v>647</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>20/10/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 3 COMUNA DE CASTRO (SOL Nº 206103131)"</t>
+          <t>Nueva Captación y Planta de Tratamiento de Agua Potable Sector Alto Castro</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>656</v>
+        <v>7000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>19/10/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5823734&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 1 COMUNA DE CASTRO (SOL Nº 206103132)"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>656</v>
+        <v>319</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA ÁNIMO, X REGION Nº 211103009 (Código del Centro: 100208)</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 3 COMUNA DE CASTRO (SOL Nº 206103131)"</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2000</v>
+        <v>656</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5874896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LA ESTANCIA, X REGION" Nº de Ingreso a Trámite: 210103216 (Código del Centro: 100981)</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 1 COMUNA DE CASTRO (SOL Nº 206103132)"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2000</v>
+        <v>656</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>22/07/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Península Rilan</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA ÁNIMO, X REGION Nº 211103009 (Código del Centro: 100208)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Agricola Santa Ana S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>25/04/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5558971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5874896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Cementerio, código 100.417</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LA ESTANCIA, X REGION" Nº de Ingreso a Trámite: 210103216 (Código del Centro: 100981)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>22/07/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Lepe, código 100.418</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Península Rilan</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Agricola Santa Ana S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>25/04/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5558971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tutil, código 100.497</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Cementerio, código 100.417</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Pangue - X Región</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Lepe, código 100.418</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>22/03/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Río Cude, Código 100.428"</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tutil, código 100.497</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,11 +3563,11 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Putemún, Código 100.978"</t>
+          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Pangue - X Región</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>22/03/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO LA ESTANCIA - X REGION</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Río Cude, Código 100.428"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>28/02/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Aguantao</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Putemún, Código 100.978"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>"PROYECTO DE AMPLIACIÓN COLEGIO SAN FRANCISCO DE ASÍS"</t>
+          <t>MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO LA ESTANCIA - X REGION</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Fundación Educacional Colegio San Francisco Asìs</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2400</v>
+        <v>26</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>28/02/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5289827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo Punta Chulequehue, Código Centro 102586.</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Aguantao</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>400</v>
+        <v>84</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>03/11/2010</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Centro de Manejo y disposición Final de Residuos Sólidos Chiloé</t>
+          <t>"PROYECTO DE AMPLIACIÓN COLEGIO SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>Fundación Educacional Colegio San Francisco Asìs</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>5500</v>
+        <v>2400</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4887134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5289827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro Chelín, Punta Pindo, Isla Chelín</t>
+          <t>Modificación de Producción Centro de Cultivo Punta Chulequehue, Código Centro 102586.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>03/11/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4796198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,40 +3928,40 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Centro de Manejo y disposición Final de Residuos Sólidos Chiloé</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>5500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4887134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, SECTOR NORTE DE ESTERO RILÁN N° PERT 207103216</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro Chelín, Punta Pindo, Isla Chelín</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Mytilus Multiexport S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>274</v>
+        <v>90</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08/06/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4796198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, NORESTE DE PUNTA AGUANTAO N° PERT 207103186</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Mytilus Multiexport S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>08/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA PELLO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 204103019)"</t>
+          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, SECTOR NORTE DE ESTERO RILÁN N° PERT 207103216</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Mytilus Multiexport S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>07/05/2010</t>
+          <t>08/06/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO II</t>
+          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, NORESTE DE PUNTA AGUANTAO N° PERT 207103186</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Mytilus Multiexport S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>16/04/2010</t>
+          <t>08/06/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO II</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA PELLO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 204103019)"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>57</v>
+        <v>314</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>29/03/2010</t>
+          <t>07/05/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4466226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos en Punta Pullao sector 2, N° 207103166</t>
+          <t>CULTIVOS MARINOS DEQUIO II</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>304</v>
+        <v>58</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>12/02/2010</t>
+          <t>16/04/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>¿Centro de Cultivo de Mitílidos en Punta Pullao sector 1, N° 207103167¿</t>
+          <t>CULTIVOS MARINOS DEQUIO II</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>828</v>
+        <v>57</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>29/03/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4466226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos en Punta Pullao sector 2, N° 207103166</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>12/02/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>¿Centro de Cultivo de Mitílidos en Punta Pullao sector 1, N° 207103167¿</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,20 +4370,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO DE CASTRO PUNTA DEQUIO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103068)" (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>02/12/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO DE CASTRO PUNTA DEQUIO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103068)" (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2600</v>
+        <v>676</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>02/12/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4221944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO I (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>sonia catepillan guinao</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>60</v>
+        <v>2600</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Oeste de Isla Chelín 202103123 (e-seia)</t>
+          <t>CULTIVOS MARINOS DEQUIO (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4189935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4221944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas Nº Solicitud 206103102, sector Este Isla Chelin I, comuna de Castro (e-seia)</t>
+          <t>CULTIVOS MARINOS DEQUIO I (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>JORGE ARTURO CAMPODÓNICO PELUCHONNEAU</t>
+          <t>sonia catepillan guinao</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE ALGAS Nª SOLICITUD 206103103, SECTOR ESTE ISLA CHELIN II, COMUNA DE CASTRO (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Oeste de Isla Chelín 202103123 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>JORGE ARTURO CAMPODÓNICO PELUCHONNEAU</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4189935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Centro de Cultivo de Algas Nº Solicitud 206103102, sector Este Isla Chelin I, comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>JORGE ARTURO CAMPODÓNICO PELUCHONNEAU</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mejoramiento Construcción Costanera de Castro, X Región de Los Lagos (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE ALGAS Nª SOLICITUD 206103103, SECTOR ESTE ISLA CHELIN II, COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>JORGE ARTURO CAMPODÓNICO PELUCHONNEAU</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>9200</v>
+        <v>55</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>08/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4030607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA LEPE (e-seia)</t>
+          <t>Mejoramiento Construcción Costanera de Castro, X Región de Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS COSTASAL LTDA.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>160</v>
+        <v>9200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>03/08/2009</t>
+          <t>08/09/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3939640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4030607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Mitilicultura Ellinseng (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>03/08/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3940385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO CULTIVO ABALON Nº 201103188 (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA LEPE (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>CULTIVOS MARINOS COSTASAL LTDA.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>08/06/2009</t>
+          <t>03/08/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3832886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3939640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Mitilicultura Ellinseng (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>03/08/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3940385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Tratamiento de Riles, de la Empresa Procesadora de Salmones Invertec Seafood S.A., con RCA aprobada Nº 436, ubicada en Llau-Llao s/n°, Comuna de Castro (e-seia)</t>
+          <t>MODIFICACION CENTRO CULTIVO ABALON Nº 201103188 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>740</v>
+        <v>500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>08/06/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3832886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado del Vertedero Municipal Comuna de Castro (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>959</v>
+        <v>22</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>14/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR OESTE ISLA CHELIN, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103015)" (e-seia)</t>
+          <t>Ampliación de la Planta de Tratamiento de Riles, de la Empresa Procesadora de Salmones Invertec Seafood S.A., con RCA aprobada Nº 436, ubicada en Llau-Llao s/n°, Comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>598</v>
+        <v>740</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>27/02/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3599925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR CANAL LEMUY, CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103217)" (e-seia)</t>
+          <t>Plan de Cierre y Sellado del Vertedero Municipal Comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>659</v>
+        <v>959</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>03/02/2009</t>
+          <t>14/05/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR OESTE ISLA CHELIN, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103015)" (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>27/02/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3599925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103004)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR CANAL LEMUY, CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103217)" (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,11 +5435,11 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>730</v>
+        <v>659</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>03/02/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3505184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN SECTOR SUR PELDEHUE, ISLA QUEHUI, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103153)" (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>03/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3396729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103004)" (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3505184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Construcción Terminal Portuario Multipropósito de Castro (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN SECTOR SUR PELDEHUE, ISLA QUEHUI, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103153)" (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>7285</v>
+        <v>570</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>10/11/2008</t>
+          <t>03/12/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3396729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sistema de Cosecha, Matanza y Prefaenamiento de Salmonidos in situ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>08/10/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3247720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción Terminal Portuario Multipropósito de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>7285</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>10/11/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Sistema de Cosecha, Matanza y Prefaenamiento de Salmonidos in situ (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>1500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>08/10/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3247720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue I, Nº de pert 208103057 (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,30 +5954,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Cultivos Curahue S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>19/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2982421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue II, Nº de pert 208103006 (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Cultivos Curahue S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>19/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue I, Nº de pert 208103057 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cultivos Curahue S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>19/06/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2982421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>"Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, al Noroeste de Punta Tutil, Estero de Castro, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos" (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue II, Nº de pert 208103006 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Audilio Osvaldo Galindo Oyarzo</t>
+          <t>Cultivos Curahue S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>19/06/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>429</v>
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>"Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, al Noroeste de Punta Tutil, Estero de Castro, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos" (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Audilio Osvaldo Galindo Oyarzo</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, Sector Punta Tutil, Canal Lemuy, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,20 +6242,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Marcos Marcelo Galindo Díaz</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>72</v>
+        <v>429</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>06/09/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitílidos Concesión de Acuicultura para Cultivo de Mitilidos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, Sector Punta Tutil, Canal Lemuy, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Marcos Marcelo Galindo Díaz</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>06/09/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitílidos Concesión de Acuicultura para Cultivo de Mitilidos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>mejoramiento de suelos a través del tratamiento de biofouling proveniente del proceso de ordenado de redes de cultivo (e-seia)</t>
+          <t>VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Marcelo Calderón Pérez</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>23/04/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2113599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Matadero San Daniel (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad Comercial San Daniel SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>18/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE ABALON ROJO Nº SOLICITUD 201103232, SECTOR CARAHUE, CANAL LEMUY COMUNA DE CASTRO (e-seia)</t>
+          <t>mejoramiento de suelos a través del tratamiento de biofouling proveniente del proceso de ordenado de redes de cultivo (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Marcelo Calderón Pérez</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>23/04/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2113599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Archipielago Gestión Ambiental (e-seia)</t>
+          <t>Matadero San Daniel (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ARCHIPIELAGO GESTION AMBIENTAL LTDA.</t>
+          <t>Sociedad Comercial San Daniel SpA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>29/03/2007</t>
+          <t>18/04/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SUR PUNTA PELLO Nº SOL. 203103235 00 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE ABALON ROJO Nº SOLICITUD 201103232, SECTOR CARAHUE, CANAL LEMUY COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>15/03/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Archipielago Gestión Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,30 +6722,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>ARCHIPIELAGO GESTION AMBIENTAL LTDA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>29/03/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CULTIVOS MARINOS SUR PUNTA PELLO Nº SOL. 203103235 00 (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,30 +6770,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>15/03/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITÍLIDOS CALETA CARAHUE, COMUNA DE CASTRO, CHILOÉ (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,30 +6818,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MEJILLONES PATAGONIA S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>03/11/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ampliación Instalaciones Planta de Harinas y Aceites de Salmón, Castro (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,30 +6866,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1762638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITÍLIDOS CALETA CARAHUE, COMUNA DE CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>MEJILLONES PATAGONIA S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>03/11/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CONSTRUCCION 200 VIVIENDAS SOCIALES SECTOR LA CHACRA COMUNA DE CASTRO (e-seia)</t>
+          <t>Ampliación Instalaciones Planta de Harinas y Aceites de Salmón, Castro (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2356</v>
+        <v>12000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1762638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Operaciones Punta Pullao (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,30 +7010,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>20/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1686197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Acopio de Conchas y Planta de Cal Agrícola Chiloé (e-seia)</t>
+          <t>CONSTRUCCION 200 VIVIENDAS SOCIALES SECTOR LA CHACRA COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Cal Austral S.A.</t>
+          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>700</v>
+        <v>2356</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR PULLAO, COMUNA DE CASTRO (SOL Nº 201103246)" (e-seia)</t>
+          <t>Centro de Operaciones Punta Pullao (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,11 +7115,11 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>866</v>
+        <v>600</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>30/08/2006</t>
+          <t>20/09/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1662095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1686197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Acopio de Conchas y Planta de Cal Agrícola Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,20 +7154,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Cal Austral S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>80</v>
+        <v>700</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Vertedero San José, Castro, Chiloé (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR PULLAO, COMUNA DE CASTRO (SOL Nº 201103246)" (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,25 +7207,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>48</v>
+        <v>866</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>21/07/2006</t>
+          <t>30/08/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1585876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1662095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -7263,17 +7263,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PROYECTO VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
+          <t>Vertedero San José, Castro, Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7311,17 +7311,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>13/06/2006</t>
+          <t>21/07/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1585876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Enjoy Castro Casino &amp; Resort (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,30 +7346,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Rantrur Sociedad Anónima</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>23221</v>
+        <v>80</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1463347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE CULTIVO DE CHORITO EN PUERTO HUITE, AL OESTE DE PUNTA ARENAS, COMUNA DE QUEMCHI (e-seia)</t>
+          <t>PROYECTO VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SALMONES ANDES SALMONES ANDES</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>19/05/2006</t>
+          <t>13/06/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Enjoy Castro Casino &amp; Resort (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,30 +7442,30 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Rantrur Sociedad Anónima</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>500</v>
+        <v>23221</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1463347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>AMPLIACION CENTRO DE CULTIVO DE CHORITO EN PUERTO HUITE, AL OESTE DE PUNTA ARENAS, COMUNA DE QUEMCHI (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,30 +7490,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>SALMONES ANDES SALMONES ANDES</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>500</v>
+        <v>236</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>19/05/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Isla Chelin Punta Pindo, X Región Nº Pert 97103106 (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,30 +7682,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>31/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,30 +7730,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>10/11/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Isla Chelin Punta Pindo, X Región Nº Pert 97103106 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,20 +7778,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>31/01/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles, para Planta Procesadora de Salmones Invertec Seafood S.A., Llau-llao s/n°, comuna de Castro (e-seia)</t>
+          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>270</v>
+        <v>56</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>27/10/2005</t>
+          <t>10/11/2005</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Construcción de un Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles de la empresa, Pesca y Cultivos Don Jorge S.A. en Llicaldad, Castro X° Región 0 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,20 +7874,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Mauricio Cabrera Silva</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>09/06/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, PLANTA PIRUQUINA, CASTRO, DÉCIMA REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Planta de Tratamiento de Riles, para Planta Procesadora de Salmones Invertec Seafood S.A., Llau-llao s/n°, comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>27/10/2005</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TAUCUO. PERT 203103054 (e-seia)</t>
+          <t>Construcción de un Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles de la empresa, Pesca y Cultivos Don Jorge S.A. en Llicaldad, Castro X° Región 0 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Mytilus Multiexport S.A.</t>
+          <t>Mauricio Cabrera Silva</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>17/05/2005</t>
+          <t>09/06/2005</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS PUNTA CHULEQUEHUE, CANAL DALCAHUE COMUNA DE CASTRO, CHILOE, DECIMA REGION. Nº PERT 203103168 (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, PLANTA PIRUQUINA, CASTRO, DÉCIMA REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,15 +8023,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>310</v>
+        <v>50</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>08/04/2005</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=649216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA ATAL Nº PERT 203103162 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TAUCUO. PERT 203103054 (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>SIXTO OMAR PAREDES MILLÀN</t>
+          <t>Mytilus Multiexport S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>21/03/2005</t>
+          <t>17/05/2005</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVOS AGUANTAO. Nª PERT: 203103157 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS PUNTA CHULEQUEHUE, CANAL DALCAHUE COMUNA DE CASTRO, CHILOE, DECIMA REGION. Nº PERT 203103168 (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>55</v>
+        <v>310</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>21/03/2005</t>
+          <t>08/04/2005</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=649216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ISLA QUEHUI. NªPERT:203103169 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA ATAL Nº PERT 203103162 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>SIXTO OMAR PAREDES MILLÀN</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>413</v>
+        <v>55</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PELDEHUE. Nª PERT: 203103170 (e-seia)</t>
+          <t>CENTRO CULTIVOS AGUANTAO. Nª PERT: 203103157 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>530</v>
+        <v>55</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CULTIVOA MARINOS AGUANTAO Nª PERT:203103151 (e-seia)</t>
+          <t>CULTIVOS MARINOS ISLA QUEHUI. NªPERT:203103169 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>323</v>
+        <v>413</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cultivos S.T.I. Estero Rilán Norte Nº Solicitud 97103070 (e-seia)</t>
+          <t>CULTIVOS MARINOS PELDEHUE. Nª PERT: 203103170 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,15 +8311,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Cultivadores de Alga Gracilaria, Estero Rilán Norte</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>6</v>
+        <v>530</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>04/03/2005</t>
+          <t>21/03/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CULTIVOA MARINOS AGUANTAO Nª PERT:203103151 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,25 +8359,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>500</v>
+        <v>323</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>28/01/2005</t>
+          <t>21/03/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>Cultivos S.T.I. Estero Rilán Norte Nº Solicitud 97103070 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,25 +8407,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Sindicato de Trabajadores Independientes Cultivadores de Alga Gracilaria, Estero Rilán Norte</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>28/01/2005</t>
+          <t>04/03/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS QUEHUI NºPERT. 201103296 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,15 +8599,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>28/01/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=570671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>COÑAO I, CULTIVO DE MOLUSCOS EN QUINCHAO, CHILOÉ. Pert Nº 202103145 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,15 +8647,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>MARÍA MAGDALENA HWARTS AVILÉZ</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>31/12/2004</t>
+          <t>28/01/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=559479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Sistema de Neutralización de Riles (e-seia)</t>
+          <t>CULTIVOS MARINOS QUEHUI NºPERT. 201103296 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,25 +8695,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=560180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=570671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Centro de cultivos Isla Chelin, PERT N° 200103184 (e-seia)</t>
+          <t>COÑAO I, CULTIVO DE MOLUSCOS EN QUINCHAO, CHILOÉ. Pert Nº 202103145 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,25 +8743,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>MARÍA MAGDALENA HWARTS AVILÉZ</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>19/11/2004</t>
+          <t>31/12/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=513496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=559479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónidos Isla Quehui, comuna de Castro, X Región (Solicitud Nº98103031) (e-seia)</t>
+          <t>Sistema de Neutralización de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,25 +8791,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Sea Fine Salmon S.A.</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=560180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Cultivos Marinos PUNTA PULLAO 1 Nº PERT: 200103037 (e-seia)</t>
+          <t>Centro de cultivos Isla Chelin, PERT N° 200103184 (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,25 +8839,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>29/10/2004</t>
+          <t>19/11/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=513496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Cultivos Marinos PUNTA PULLAO 2 Nº PERT: 99103222 (e-seia)</t>
+          <t>Centro de Engorda de Salmónidos Isla Quehui, comuna de Castro, X Región (Solicitud Nº98103031) (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,15 +8887,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Sea Fine Salmon S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>29/10/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>AGUANTAO, CULTIVO DE MOLUSCOS EN CHILOÉ (SOLICITUD Nº 202103079) (e-seia)</t>
+          <t>Cultivos Marinos PUNTA PULLAO 1 Nº PERT: 200103037 (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,15 +8935,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>29/10/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Mitilicultura Ellingsen. Nº Solicitud 201103293 (e-seia)</t>
+          <t>Cultivos Marinos PUNTA PULLAO 2 Nº PERT: 99103222 (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>29/09/2004</t>
+          <t>29/10/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PULLAO, CULTIVO DE MOLUSCOS EN CASTRO, CHILOÉ (Solicitud Nº201103235) (e-seia)</t>
+          <t>AGUANTAO, CULTIVO DE MOLUSCOS EN CHILOÉ (SOLICITUD Nº 202103079) (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9035,11 +9035,11 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>400</v>
+        <v>112</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=463045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS SECTOR PULLAO, COMUNA DE CASTRO, DECIMA REGION. Nº PERT 98103113 (e-seia)</t>
+          <t>Mitilicultura Ellingsen. Nº Solicitud 201103293 (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,15 +9079,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>24/09/2004</t>
+          <t>29/09/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=454582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MOLUSCOS CANAL QUEHUI N° SOLICITUD 201103253 (e-seia)</t>
+          <t>PULLAO, CULTIVO DE MOLUSCOS EN CASTRO, CHILOÉ (Solicitud Nº201103235) (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,15 +9127,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>RODRIGO AQUILES RUIZ PEREZ</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>24/09/2004</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=463045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Centro de Cultivos y Engorda de Moluscos, Rilan 2004, (Nº Sol. 99103018) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS SECTOR PULLAO, COMUNA DE CASTRO, DECIMA REGION. Nº PERT 98103113 (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,15 +9175,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>30/08/2004</t>
+          <t>24/09/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=454582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MOLUSCOS CANAL QUEHUI N° SOLICITUD 201103253 (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,12 +9218,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>RODRIGO AQUILES RUIZ PEREZ</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>24/09/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR PUNTA PINDO, ISLA CHELIN, CASTRO, PROVINCIA DE CHILOE (Sol. 200103097) (e-seia)</t>
+          <t>Centro de Cultivos y Engorda de Moluscos, Rilan 2004, (Nº Sol. 99103018) (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,15 +9271,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>659</v>
+        <v>200</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>30/07/2004</t>
+          <t>30/08/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=414978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,15 +9319,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS, SECTOR PUNTA VALENZUELA, SAN JOSE, COMUNA DE CASTRO (Nº SOL. 98103007) (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR PUNTA PINDO, ISLA CHELIN, CASTRO, PROVINCIA DE CHILOE (Sol. 200103097) (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,15 +9367,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ERNESTO ALFONSO OLAVARRIA HERNANDEZ</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>127</v>
+        <v>659</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>12/07/2004</t>
+          <t>30/07/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=398599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=414978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CURAHUE Nº 98103027 (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,20 +9410,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Cultivos Curahue S.A.</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>46</v>
+        <v>4000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>07/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=394709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS, SECTOR PUNTA VALENZUELA, SAN JOSE, COMUNA DE CASTRO (Nº SOL. 98103007) (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,20 +9458,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>ERNESTO ALFONSO OLAVARRIA HERNANDEZ</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>12/07/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=398599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS CURAHUE Nº 98103027 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,25 +9511,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>Cultivos Curahue S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>07/07/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=394709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, Nº Sol. 97103106 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9615,17 +9615,17 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>17/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>"Centro de Cultivo de Mitílidos, Punta Lepe, Canal Lemuy, Comuna de Castro, X Región, N° Pert. 201103292" (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,15 +9655,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>19/05/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=357056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, Nº Sol. 97103106 (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,30 +9698,30 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>17/06/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Plan Regulador de Castro (e-seia)</t>
+          <t>"Centro de Cultivo de Mitílidos, Punta Lepe, Canal Lemuy, Comuna de Castro, X Región, N° Pert. 201103292" (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>19/04/2004</t>
+          <t>19/05/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=323663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=357056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CULTIVO MARINOS CURAHUE 1 Nº98103026 (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,30 +9794,30 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>LUIS FRANCISCO HIDALGO SOLAR</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>13/04/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=319362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Sector Quinched (no. pert 202103127) (e-seia)</t>
+          <t>Plan Regulador de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,15 +9847,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Arturo Rosendo Astroza Manosalva</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>27/02/2004</t>
+          <t>19/04/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=323663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Cultivos Lingue (Nº Sol. 97103098) (e-seia)</t>
+          <t>CULTIVO MARINOS CURAHUE 1 Nº98103026 (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Carlos Victor Sandoval Dunkler</t>
+          <t>LUIS FRANCISCO HIDALGO SOLAR</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>13/04/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=255083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=319362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Sector Quinched (no. pert 202103127) (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,15 +9943,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Arturo Rosendo Astroza Manosalva</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>07/01/2004</t>
+          <t>27/02/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>" Cultivos Marinos Estero Rilan, N° Sol. 98103003" (e-seia)</t>
+          <t>Cultivos Lingue (Nº Sol. 97103098) (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,15 +9991,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Carlos Victor Sandoval Dunkler</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>05/01/2004</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=239491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=255083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS, SECTOR PUNTA LEPE, COMUNA DE CASTRO. PERT Nº 99103028 (e-seia)</t>
+          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,15 +10039,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>CULTIVOS MAR ATLÁNTICO SpA</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>02/01/2004</t>
+          <t>07/01/2004</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ABALONES ISLA QUINCHAO N° de Solicitud 201103186 (e-seia)</t>
+          <t>" Cultivos Marinos Estero Rilan, N° Sol. 98103003" (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,15 +10087,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>22/12/2003</t>
+          <t>05/01/2004</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=239491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS, SECTOR PUNTA LEPE, COMUNA DE CASTRO. PERT Nº 99103028 (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,20 +10130,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>CULTIVOS MAR ATLÁNTICO SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>02/01/2004</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Cultivos Punta Pullao (e-seia)</t>
+          <t>ABALONES ISLA QUINCHAO N° de Solicitud 201103186 (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,15 +10183,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>860</v>
+        <v>300</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>31/10/2002</t>
+          <t>22/12/2003</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chai Chai ( Solicitud N°99103166)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,20 +10226,20 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Pedro Edgardo Vidal Vargas</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Astillero Artesanal Castro</t>
+          <t>Cultivos Punta Pullao (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,25 +10279,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Dago Huberto Gonzalez Villarroel</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>10</v>
+        <v>860</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>21/03/2002</t>
+          <t>31/10/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Concesión de Acuicultura en el Sector de Punta Pullao Comuna de Castro Provincia de Chiloé N° de Solicitud 201103014</t>
+          <t>Cultivos Marinos Chai Chai ( Solicitud N°99103166)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,25 +10327,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Cultivos Marinos del Pacífico S.A.</t>
+          <t>Pedro Edgardo Vidal Vargas</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>860</v>
+        <v>4</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Astillero Artesanal Castro</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,20 +10370,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Dago Huberto Gonzalez Villarroel</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>21/03/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ampliación de Especie Hatchery para la Producción de Semillas de Moluscos Cultivo Mare Aperto S A Ten Ten Castro Isla Chiloé</t>
+          <t>Modificación de Proyecto Técnico en Concesión de Acuicultura en el Sector de Punta Pullao Comuna de Castro Provincia de Chiloé N° de Solicitud 201103014</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,25 +10423,25 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Cultivos Mare Aperto S.A.</t>
+          <t>Cultivos Marinos del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>20</v>
+        <v>860</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>12/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Linlinao</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,30 +10466,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>17/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Taller Artesanal de Redes de Agua Dulce Don Alberto</t>
+          <t>Ampliación de Especie Hatchery para la Producción de Semillas de Moluscos Cultivo Mare Aperto S A Ten Ten Castro Isla Chiloé</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10517,23 +10517,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Cultivos Mare Aperto S.A.</t>
+        </is>
+      </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>22/06/2001</t>
+          <t>12/09/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Castro (Tercera Presentación)</t>
+          <t>Cultivos Marinos Linlinao</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10567,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>09/04/2001</t>
+          <t>17/08/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Cultivo de Molusco en Yutuy Estero Castro</t>
+          <t>Taller Artesanal de Redes de Agua Dulce Don Alberto</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10609,27 +10613,23 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Alonso Fernando Hernández Andrade</t>
-        </is>
-      </c>
+      <c r="E214" t="inlineStr"/>
       <c r="F214" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>28/03/2001</t>
+          <t>22/06/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Castro Sector Gamboa</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Castro (Tercera Presentación)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial de Vivienda y Urbanismo, X Región de Los Lagos</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>27/03/2001</t>
+          <t>09/04/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Riles y Rises Emanados del Lavado de Redes Salmoneras "Taller de Redes Piscis"</t>
+          <t>Cultivo de Molusco en Yutuy Estero Castro</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,25 +10707,25 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Mirna Gómez Paredes</t>
+          <t>Alonso Fernando Hernández Andrade</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>13/02/2001</t>
+          <t>28/03/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ampliación de Camping El Pudú</t>
+          <t>Modificación al Plan Regulador Comunal de Castro Sector Gamboa</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,25 +10755,25 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Sociedad Hotelera Plaza Beckna Ltda.</t>
+          <t>Secretaría Ministerial de Vivienda y Urbanismo, X Región de Los Lagos</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>27/11/2000</t>
+          <t>27/03/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición de Riles y Rises del Lavado de Redes de Cultivo Marcelo Calderón</t>
+          <t>Tratamiento y Disposición Final de Riles y Rises Emanados del Lavado de Redes Salmoneras "Taller de Redes Piscis"</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,25 +10803,25 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SOC. MarMau Ltda.</t>
+          <t>Mirna Gómez Paredes</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>03/10/2000</t>
+          <t>13/02/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Eléctrica Pid Pid</t>
+          <t>Ampliación de Camping El Pudú</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,25 +10851,25 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sociedad Hotelera Plaza Beckna Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>02/08/2000</t>
+          <t>27/11/2000</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar Sociedad Huimar Limitada</t>
+          <t>Tratamiento y Disposición de Riles y Rises del Lavado de Redes de Cultivo Marcelo Calderón</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
+          <t>SOC. MarMau Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>03/10/2000</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Construcción y Operación Subestación Eléctrica Pid Pid</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10942,20 +10942,20 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>110</v>
+        <v>800</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>02/08/2000</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Construcción Centro Turístico</t>
+          <t>Planta Procesadora de Productos del Mar Sociedad Huimar Limitada</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,25 +10995,25 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Adriana Den Braber Soza</t>
+          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>07/12/1999</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Construcción de 202 Viviendas Sociales comuna de Castro</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11038,20 +11038,20 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1440</v>
+        <v>110</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>20/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Castro sector Plaza de Armas</t>
+          <t>Construcción Centro Turístico</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,25 +11091,25 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>Adriana Den Braber Soza</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>03/03/1999</t>
+          <t>07/12/1999</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas ( Segunda Presentación)</t>
+          <t>Construcción de 202 Viviendas Sociales comuna de Castro</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,25 +11139,25 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>9100</v>
+        <v>1440</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>17/02/1999</t>
+          <t>20/10/1999</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Proyecto Construcción Establecimiento Educacional en Castro Isla de Chiloe</t>
+          <t>Modificación al Plan Regulador Comunal de Castro sector Plaza de Armas</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,15 +11187,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Archipielago S. A.</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>29/10/1998</t>
+          <t>03/03/1999</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,43 +11220,139 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
+          <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas ( Segunda Presentación)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>9100</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>17/02/1999</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Proyecto Construcción Establecimiento Educacional en Castro Isla de Chiloe</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Sociedad Inmobiliaria Archipielago S. A.</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>440</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>29/10/1998</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1453&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
           <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
         <is>
           <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
-      <c r="F227" t="n">
+      <c r="F229" t="n">
         <v>9170</v>
       </c>
-      <c r="G227" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>30/03/1998</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
+      <c r="H229" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I227" t="inlineStr">
+      <c r="I229" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=800&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J227" t="inlineStr">
+      <c r="J229" t="inlineStr">
         <is>
           <t>Castro</t>
         </is>

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico, Centro 102548, Canal Dalcahue, al Este de Punta Atal- Comuna de Castro</t>
+          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>María Patricia Vargas Torrez</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/03/2023</t>
+          <t>21/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876193&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
+          <t>Modificación Proyecto Técnico, Centro 102548, Canal Dalcahue, al Este de Punta Atal- Comuna de Castro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,16 +482,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>María Patricia Vargas Torrez</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>303</v>
+        <v>30</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876193&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
+          <t>Modificación Proyecto Técnico, Centro 102548, Canal Dalcahue, al Este de Punta Atal- Comuna de Castro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>María Patricia Vargas Torrez</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>303</v>
+        <v>30</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876193&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico, Centro 102548, Canal Dalcahue, al Este de Punta Atal- Comuna de Castro</t>
+          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>María Patricia Vargas Torrez</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/03/2023</t>
+          <t>21/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876193&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F221" t="n">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J229"/>
+  <dimension ref="A1:J230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico, Centro 102548, Canal Dalcahue, al Este de Punta Atal- Comuna de Castro</t>
+          <t>Modificación de Proyecto Técnico para Ampliación de Especies a Mitílidos y Ostreidos del Centro 103816, sector este Punta Quirahuín, Isla Chelín, Comuna de Castro, Provincia de Chiloé, Región de Los Lagos - PERT N° 221103029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>María Patricia Vargas Torrez</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>28/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876193&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159699230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
+          <t>Modificación Proyecto Técnico, Centro 102548, Canal Dalcahue, al Este de Punta Atal- Comuna de Castro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>María Patricia Vargas Torrez</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>303</v>
+        <v>30</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876193&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico, Centro 102548, Canal Dalcahue, al Este de Punta Atal- Comuna de Castro</t>
+          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>María Patricia Vargas Torrez</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>21/03/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157731846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
+          <t>Modificación Proyecto Técnico, Centro 102548, Canal Dalcahue, al Este de Punta Atal- Comuna de Castro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>María Patricia Vargas Torrez</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157645850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157731846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
+          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CULTIVOS SANTURRON SPA</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156678810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157645850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NORESTE PUNTA AGUANTAO</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>CULTIVOS SANTURRON SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17/08/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156671155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156678810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, centro 102.515, Punta Ramírez - Canal Lemuy</t>
+          <t>NORESTE PUNTA AGUANTAO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CULTIVOS SANTURRON SPA</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154885769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156671155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
+          <t>Modificación de Proyecto Técnico, centro 102.515, Punta Ramírez - Canal Lemuy</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>26/01/2022</t>
+          <t>03/02/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154756826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154885769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MARES ANDINOS SpA</t>
+          <t>CULTIVOS SANTURRON SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>26/01/2022</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148917546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154756826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Subestación Nueva Gamboa</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>MARES ANDINOS SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>19000</v>
+        <v>45</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148779560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148917546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Regularización de la base en tierra y modificación de Proyecto Técnico para la ampliación de biomasa de abalón rojo del Centro 101154, Canal Quehui, noreste Punta Camahue, Isla Quehui, Castro ? Región de los Lagos. N° Pert 218103034</t>
+          <t>Subestación Nueva Gamboa</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pesca y Cultivos Don Jorge Ltda</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1900</v>
+        <v>19000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147645415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148779560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, IMELEV. CÓDIGO DE CENTRO N° 102066</t>
+          <t>Regularización de la base en tierra y modificación de Proyecto Técnico para la ampliación de biomasa de abalón rojo del Centro 101154, Canal Quehui, noreste Punta Camahue, Isla Quehui, Castro ? Región de los Lagos. N° Pert 218103034</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Pesca y Cultivos Don Jorge Ltda</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5000</v>
+        <v>1900</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>03/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147536901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147645415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental para ?Ampliación de Biomasa Centro de Cultivo de Mitílidos Pert N° 219103043?, Sector este de Punta Pullao, Canal Hudson, Comuna de Castro, Provincia de Chiloé - Décima Región, código centro 103669</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, IMELEV. CÓDIGO DE CENTRO N° 102066</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sociedad Comercial e Insdustrial Jomar Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>260</v>
+        <v>5000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>29/05/2020</t>
+          <t>03/08/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146699104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147536901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
+          <t>Declaración de Impacto Ambiental para ?Ampliación de Biomasa Centro de Cultivo de Mitílidos Pert N° 219103043?, Sector este de Punta Pullao, Canal Hudson, Comuna de Castro, Provincia de Chiloé - Décima Región, código centro 103669</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL MAR Y MAR LTDA.</t>
+          <t>sociedad Comercial e Insdustrial Jomar Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/05/2019</t>
+          <t>29/05/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143246458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146699104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Cultivos Marinos Punta Pullao 2, N° PERT 99103222?</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>SOCIEDAD COMERCIAL MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>22/05/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142948123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143246458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, MATADERO SAN DANIEL, CASTRO, CHILOE</t>
+          <t>Modificación del Proyecto ?Cultivos Marinos Punta Pullao 2, N° PERT 99103222?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad Comercial San Daniel SpA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132474245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142948123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, MATADERO SAN DANIEL, CASTRO, CHILOE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Sociedad Comercial San Daniel SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06/09/2016</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131752002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132474245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>41000</v>
+        <v>10000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>06/09/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131752002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 103.844 LINGUE-ESTERO CASTRO, RIO BLANCO LTDA.</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>41000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/12/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 103.844 LINGUE-ESTERO CASTRO, RIO BLANCO LTDA.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>41000</v>
+        <v>40</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>22/12/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10000</v>
+        <v>41000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/09/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
+          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>02/12/2014</t>
+          <t>23/09/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130005588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063</t>
+          <t>MODIFICACION DE PROYECTO TECNICO ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>02/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130005588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RELOCALIZACIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COSTA OESTE ISLA CHELIN (SECTOR 1), COMUNA CASTRO, REGIÓN DE LOS LAGOS, PERT N° 210100051</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1 PERT Nº 213103028</t>
+          <t>RELOCALIZACIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COSTA OESTE ISLA CHELIN (SECTOR 1), COMUNA CASTRO, REGIÓN DE LOS LAGOS, PERT N° 210100051</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>04/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128822375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2 PERT Nº 213103027</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1 PERT Nº 213103028</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128823101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128822375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"Proyecto Técnico para el cultivo de Mitílidos del Centro Canal Lemuy, Sur este de Punta Tutil, Nº de Pert 209103036".</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2 PERT Nº 213103027</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Servicios Monprori Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15/11/2013</t>
+          <t>04/12/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128830269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128823101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1</t>
+          <t>"Proyecto Técnico para el cultivo de Mitílidos del Centro Canal Lemuy, Sur este de Punta Tutil, Nº de Pert 209103036".</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Servicios Monprori Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>15/11/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128755417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128830269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128755417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Alimentos Salmofood</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Vitapro Chile S.A</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128575060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación manejo de mortalidad mediante sistema de ensilaje en el centro de cultivo Pullao, Ensenada Pullao, Canal Hudson</t>
+          <t>Ampliación Planta de Alimentos Salmofood</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Vitapro Chile S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>90</v>
+        <v>50000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/07/2013</t>
+          <t>12/09/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8364977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128575060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Modificación manejo de mortalidad mediante sistema de ensilaje en el centro de cultivo Pullao, Ensenada Pullao, Canal Hudson</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>18/07/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8364977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PROYECTO TÉCNICO PARA EL CULTIVO DE MITÍLIDOS, DEL CENTRO TUTIL, Nº de Pert 211103055"</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8263817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>"AMPLIACIÓN DE PROYECTO TÉCNICO PARA EL CULTIVO DE MITÍLIDOS, DEL CENTRO TUTIL, Nº de Pert 211103055"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>19/06/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8263817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Aguantao, Comuna de Castro, Décima Región. Nº PERT 211103088"</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2000</v>
+        <v>2475</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7867000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de abalones, Punta Chulequehue, Canal Dalcahue, Comuna de Castro, Décima Región. Nº PERT 211103043".</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Aguantao, Comuna de Castro, Décima Región. Nº PERT 211103088"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>19/02/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7856866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7867000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SUR DE PUNTA PINDO, ISLA CHELÍN, COMUNA DE CASTRO, Xa. REGIÓN DE LOS LAGOS" N° de Solicitud 211103039. AMPLIACIÓN BIOMASA CCS SUR DE PUNTA PINDO</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de abalones, Punta Chulequehue, Canal Dalcahue, Comuna de Castro, Décima Región. Nº PERT 211103043".</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>04/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7596276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7856866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,12 +2488,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Parque Eólico Pichihué</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SUR DE PUNTA PINDO, ISLA CHELÍN, COMUNA DE CASTRO, Xa. REGIÓN DE LOS LAGOS" N° de Solicitud 211103039. AMPLIACIÓN BIOMASA CCS SUR DE PUNTA PINDO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA...</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>240000</v>
+        <v>2800</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>04/12/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7596276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>INSTALACIÓN Y OPERACIÓN DE UNA ESTACIÓN DE TRANSFERENCIA DE ENSILAJE EN TERMINAL PORTUARIO MULTIPROPÓSITO DE CASTRO ESTACIÓN DE TRANSF. ENSILAJE T.PORTUARIO CASTRO</t>
+          <t>Parque Eólico Pichihué</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>252</v>
+        <v>240000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>29/08/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7283633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>INSTALACIÓN Y OPERACIÓN DE UNA ESTACIÓN DE TRANSFERENCIA DE ENSILAJE EN TERMINAL PORTUARIO MULTIPROPÓSITO DE CASTRO ESTACIÓN DE TRANSF. ENSILAJE T.PORTUARIO CASTRO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>29/08/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7283633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, ESTERO CASTRO,PUNTA TUTIL, código 100.497,PERT 212103011" MODIFICACIÓN DE PROYECTO TECNICO CENTRO CULTIVO SA</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>23/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6685989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, CANAL LEMUY, SECTOR PUNTA LEPE, código 100.418, PERT 212103009" Modificación Proyecto Técnico CCS, Canal Lemuy</t>
+          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, ESTERO CASTRO,PUNTA TUTIL, código 100.497,PERT 212103011" MODIFICACIÓN DE PROYECTO TECNICO CENTRO CULTIVO SA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6686385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6685989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, CANAL LEMUY, SECTOR PUNTA LEPE, código 100.418, PERT 212103009" Modificación Proyecto Técnico CCS, Canal Lemuy</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/03/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6686385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Al Sureste de Isla Quehui, Comuna de Castro, Nº Solicitud: 210103188</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6472492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Al Sureste de Isla Quehui, Comuna de Castro, Nº Solicitud: 210103188</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>12/01/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6472492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, TUTIL, código 100.497"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2800</v>
+        <v>100</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>03/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6342215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de biomasa de salmónidos, concesión Canal Quehui, al norte de Punta Camahue, Isla Quehui, Comuna de Castro, Nº solicitud: 211103076</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, TUTIL, código 100.497"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21/12/2011</t>
+          <t>03/01/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6361376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6342215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Ampliación de biomasa de salmónidos, concesión Canal Quehui, al norte de Punta Camahue, Isla Quehui, Comuna de Castro, Nº solicitud: 211103076</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>21/12/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6361376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR NOROESTE PUNTA AGUANTAO Y NORESTE DE ESTERO RILAN COMUNA DE CASTRO (SOL Nº 210103212)"</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>647</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nueva Captación y Planta de Tratamiento de Agua Potable Sector Alto Castro</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR NOROESTE PUNTA AGUANTAO Y NORESTE DE ESTERO RILAN COMUNA DE CASTRO (SOL Nº 210103212)"</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>7000</v>
+        <v>647</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19/10/2011</t>
+          <t>20/10/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5823734&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Nueva Captación y Planta de Tratamiento de Agua Potable Sector Alto Castro</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,20 +3170,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>319</v>
+        <v>7000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>19/10/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5823734&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 3 COMUNA DE CASTRO (SOL Nº 206103131)"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>656</v>
+        <v>319</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 1 COMUNA DE CASTRO (SOL Nº 206103132)"</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 3 COMUNA DE CASTRO (SOL Nº 206103131)"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA ÁNIMO, X REGION Nº 211103009 (Código del Centro: 100208)</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 1 COMUNA DE CASTRO (SOL Nº 206103132)"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2000</v>
+        <v>656</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5874896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LA ESTANCIA, X REGION" Nº de Ingreso a Trámite: 210103216 (Código del Centro: 100981)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA ÁNIMO, X REGION Nº 211103009 (Código del Centro: 100208)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>22/07/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5874896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Península Rilan</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LA ESTANCIA, X REGION" Nº de Ingreso a Trámite: 210103216 (Código del Centro: 100981)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Agricola Santa Ana S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>25/04/2011</t>
+          <t>22/07/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5558971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Cementerio, código 100.417</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Península Rilan</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Agricola Santa Ana S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>25/04/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5558971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Lepe, código 100.418</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Cementerio, código 100.417</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tutil, código 100.497</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Lepe, código 100.418</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Pangue - X Región</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tutil, código 100.497</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>22/03/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Río Cude, Código 100.428"</t>
+          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Pangue - X Región</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>22/03/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Putemún, Código 100.978"</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Río Cude, Código 100.428"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO LA ESTANCIA - X REGION</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Piscicultura de Salmones Piscicultura Putemún, Código 100.978"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>28/02/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Aguantao</t>
+          <t>MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO LA ESTANCIA - X REGION</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>28/02/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>"PROYECTO DE AMPLIACIÓN COLEGIO SAN FRANCISCO DE ASÍS"</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Aguantao</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Fundación Educacional Colegio San Francisco Asìs</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2400</v>
+        <v>84</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5289827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5291605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo Punta Chulequehue, Código Centro 102586.</t>
+          <t>"PROYECTO DE AMPLIACIÓN COLEGIO SAN FRANCISCO DE ASÍS"</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Fundación Educacional Colegio San Francisco Asìs</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>400</v>
+        <v>2400</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>03/11/2010</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5289827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,12 +3928,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Centro de Manejo y disposición Final de Residuos Sólidos Chiloé</t>
+          <t>Modificación de Producción Centro de Cultivo Punta Chulequehue, Código Centro 102586.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5500</v>
+        <v>400</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>03/11/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4887134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5042398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,12 +3976,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro Chelín, Punta Pindo, Isla Chelín</t>
+          <t>Centro de Manejo y disposición Final de Residuos Sólidos Chiloé</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>90</v>
+        <v>5500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4796198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4887134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro Chelín, Punta Pindo, Isla Chelín</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4796198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, SECTOR NORTE DE ESTERO RILÁN N° PERT 207103216</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Mytilus Multiexport S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>08/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, NORESTE DE PUNTA AGUANTAO N° PERT 207103186</t>
+          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, SECTOR NORTE DE ESTERO RILÁN N° PERT 207103216</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA PELLO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 204103019)"</t>
+          <t>MODIFICACIÓN AL PROYECTO TÉCNICO, CENTRO DE CULTIVO DE MITÍLIDOS, CANAL HUDSON, NORESTE DE PUNTA AGUANTAO N° PERT 207103186</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Mytilus Multiexport S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>07/05/2010</t>
+          <t>08/06/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4652322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO II</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA PELLO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 204103019)"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>58</v>
+        <v>314</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>16/04/2010</t>
+          <t>07/05/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4571380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4283,21 +4283,21 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>29/03/2010</t>
+          <t>16/04/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4466226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos en Punta Pullao sector 2, N° 207103166</t>
+          <t>CULTIVOS MARINOS DEQUIO II</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>304</v>
+        <v>57</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>12/02/2010</t>
+          <t>29/03/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4466226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>¿Centro de Cultivo de Mitílidos en Punta Pullao sector 1, N° 207103167¿</t>
+          <t>Centro de Cultivo de Mitílidos en Punta Pullao sector 2, N° 207103166</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4379,11 +4379,11 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>828</v>
+        <v>304</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>12/02/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>¿Centro de Cultivo de Mitílidos en Punta Pullao sector 1, N° 207103167¿</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO DE CASTRO PUNTA DEQUIO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103068)" (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>02/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO DE CASTRO PUNTA DEQUIO, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103068)" (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>02/12/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>60</v>
+        <v>2600</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4221944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DEQUIO I (e-seia)</t>
+          <t>CULTIVOS MARINOS DEQUIO (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>sonia catepillan guinao</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4221944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Oeste de Isla Chelín 202103123 (e-seia)</t>
+          <t>CULTIVOS MARINOS DEQUIO I (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>sonia catepillan guinao</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4189935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas Nº Solicitud 206103102, sector Este Isla Chelin I, comuna de Castro (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Oeste de Isla Chelín 202103123 (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>JORGE ARTURO CAMPODÓNICO PELUCHONNEAU</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4189935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE ALGAS Nª SOLICITUD 206103103, SECTOR ESTE ISLA CHELIN II, COMUNA DE CASTRO (e-seia)</t>
+          <t>Centro de Cultivo de Algas Nº Solicitud 206103102, sector Este Isla Chelin I, comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE ALGAS Nª SOLICITUD 206103103, SECTOR ESTE ISLA CHELIN II, COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>JORGE ARTURO CAMPODÓNICO PELUCHONNEAU</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>377</v>
+        <v>55</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Mejoramiento Construcción Costanera de Castro, X Región de Los Lagos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>9200</v>
+        <v>377</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>08/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4030607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Mejoramiento Construcción Costanera de Castro, X Región de Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>9200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>08/09/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4030607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA LEPE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS COSTASAL LTDA.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>03/08/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3939640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mitilicultura Ellinseng (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA LEPE (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>CULTIVOS MARINOS COSTASAL LTDA.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3940385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3939640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO CULTIVO ABALON Nº 201103188 (e-seia)</t>
+          <t>Mitilicultura Ellinseng (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>08/06/2009</t>
+          <t>03/08/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3832886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3940385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACION CENTRO CULTIVO ABALON Nº 201103188 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>08/06/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3832886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Tratamiento de Riles, de la Empresa Procesadora de Salmones Invertec Seafood S.A., con RCA aprobada Nº 436, ubicada en Llau-Llao s/n°, Comuna de Castro (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>740</v>
+        <v>22</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado del Vertedero Municipal Comuna de Castro (e-seia)</t>
+          <t>Ampliación de la Planta de Tratamiento de Riles, de la Empresa Procesadora de Salmones Invertec Seafood S.A., con RCA aprobada Nº 436, ubicada en Llau-Llao s/n°, Comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>959</v>
+        <v>740</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>14/05/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR OESTE ISLA CHELIN, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103015)" (e-seia)</t>
+          <t>Plan de Cierre y Sellado del Vertedero Municipal Comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>598</v>
+        <v>959</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>27/02/2009</t>
+          <t>14/05/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3599925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR CANAL LEMUY, CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103217)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR OESTE ISLA CHELIN, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103015)" (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03/02/2009</t>
+          <t>27/02/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3599925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR CANAL LEMUY, CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103217)" (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>03/02/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103004)" (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3505184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN SECTOR SUR PELDEHUE, ISLA QUEHUI, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103153)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA CARAHUE, COMUNA DE CASTRO, X REGIÓN (SOL Nº 208103004)" (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>570</v>
+        <v>730</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>03/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3396729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3505184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN SECTOR SUR PELDEHUE, ISLA QUEHUI, COMUNA DE CASTRO, X REGIÓN (SOL Nº 205103153)" (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>03/12/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3396729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Construcción Terminal Portuario Multipropósito de Castro (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>7285</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>10/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sistema de Cosecha, Matanza y Prefaenamiento de Salmonidos in situ (e-seia)</t>
+          <t>Construcción Terminal Portuario Multipropósito de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1500</v>
+        <v>7285</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>08/10/2008</t>
+          <t>10/11/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3247720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Sistema de Cosecha, Matanza y Prefaenamiento de Salmonidos in situ (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>1500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>08/10/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3247720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6015,17 +6015,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue I, Nº de pert 208103057 (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Cultivos Curahue S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>19/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2982421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue II, Nº de pert 208103006 (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue I, Nº de pert 208103057 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2982421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos del Centro Curahue II, Nº de pert 208103006 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cultivos Curahue S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>19/06/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>"Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, al Noroeste de Punta Tutil, Estero de Castro, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos" (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Audilio Osvaldo Galindo Oyarzo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>"Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, al Noroeste de Punta Tutil, Estero de Castro, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos" (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,20 +6242,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Audilio Osvaldo Galindo Oyarzo</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>429</v>
+        <v>72</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, Sector Punta Tutil, Canal Lemuy, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Marcos Marcelo Galindo Díaz</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>06/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitílidos Concesión de Acuicultura para Cultivo de Mitilidos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Ostreídos, Pectínidos y Abalón Rojo del Centro Tutil, Sector Punta Tutil, Canal Lemuy, Comuna de Castro, Provincia de Chiloé, X Región de Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Marcos Marcelo Galindo Díaz</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>06/09/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2371285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitílidos Concesión de Acuicultura para Cultivo de Mitilidos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2358317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,30 +6482,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>mejoramiento de suelos a través del tratamiento de biofouling proveniente del proceso de ordenado de redes de cultivo (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Marcelo Calderón Pérez</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>23/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2113599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Matadero San Daniel (e-seia)</t>
+          <t>mejoramiento de suelos a través del tratamiento de biofouling proveniente del proceso de ordenado de redes de cultivo (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sociedad Comercial San Daniel SpA</t>
+          <t>Marcelo Calderón Pérez</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>18/04/2007</t>
+          <t>23/04/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2113599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE ABALON ROJO Nº SOLICITUD 201103232, SECTOR CARAHUE, CANAL LEMUY COMUNA DE CASTRO (e-seia)</t>
+          <t>Matadero San Daniel (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Sociedad Comercial San Daniel SpA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>18/04/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Archipielago Gestión Ambiental (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE ABALON ROJO Nº SOLICITUD 201103232, SECTOR CARAHUE, CANAL LEMUY COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ARCHIPIELAGO GESTION AMBIENTAL LTDA.</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1000</v>
+        <v>191</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>29/03/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SUR PUNTA PELLO Nº SOL. 203103235 00 (e-seia)</t>
+          <t>Archipielago Gestión Ambiental (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>ARCHIPIELAGO GESTION AMBIENTAL LTDA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>66</v>
+        <v>1000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>15/03/2007</t>
+          <t>29/03/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CULTIVOS MARINOS SUR PUNTA PELLO Nº SOL. 203103235 00 (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,30 +6818,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/03/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2045073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6879,17 +6879,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITÍLIDOS CALETA CARAHUE, COMUNA DE CASTRO, CHILOÉ (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MEJILLONES PATAGONIA S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>03/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Ampliación Instalaciones Planta de Harinas y Aceites de Salmón, Castro (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITÍLIDOS CALETA CARAHUE, COMUNA DE CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>MEJILLONES PATAGONIA S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>03/11/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1762638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Ampliación Instalaciones Planta de Harinas y Aceites de Salmón, Castro (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1762638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CONSTRUCCION 200 VIVIENDAS SOCIALES SECTOR LA CHACRA COMUNA DE CASTRO (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,30 +7058,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2356</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Operaciones Punta Pullao (e-seia)</t>
+          <t>CONSTRUCCION 200 VIVIENDAS SOCIALES SECTOR LA CHACRA COMUNA DE CASTRO (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>600</v>
+        <v>2356</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>20/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1686197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Acopio de Conchas y Planta de Cal Agrícola Chiloé (e-seia)</t>
+          <t>Centro de Operaciones Punta Pullao (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Cal Austral S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>20/09/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1686197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR PULLAO, COMUNA DE CASTRO (SOL Nº 201103246)" (e-seia)</t>
+          <t>Acopio de Conchas y Planta de Cal Agrícola Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Cal Austral S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>866</v>
+        <v>700</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>30/08/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1662095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1682891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR PULLAO, COMUNA DE CASTRO (SOL Nº 201103246)" (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,20 +7250,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>80</v>
+        <v>866</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>30/08/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1662095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Vertedero San José, Castro, Chiloé (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,30 +7298,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>21/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1585876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Vertedero San José, Castro, Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,30 +7346,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>21/07/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1585876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PROYECTO VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,20 +7394,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>13/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Enjoy Castro Casino &amp; Resort (e-seia)</t>
+          <t>PROYECTO VERTEDERO SAN JOSÉ, CASTRO, CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Rantrur Sociedad Anónima</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>23221</v>
+        <v>48</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>13/06/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1463347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE CULTIVO DE CHORITO EN PUERTO HUITE, AL OESTE DE PUNTA ARENAS, COMUNA DE QUEMCHI (e-seia)</t>
+          <t>Enjoy Castro Casino &amp; Resort (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>SALMONES ANDES SALMONES ANDES</t>
+          <t>Rantrur Sociedad Anónima</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>236</v>
+        <v>23221</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>19/05/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1463347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>AMPLIACION CENTRO DE CULTIVO DE CHORITO EN PUERTO HUITE, AL OESTE DE PUNTA ARENAS, COMUNA DE QUEMCHI (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,20 +7538,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>SALMONES ANDES SALMONES ANDES</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>500</v>
+        <v>236</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>19/05/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7599,17 +7599,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7695,17 +7695,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Isla Chelin Punta Pindo, X Región Nº Pert 97103106 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,30 +7778,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>31/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Isla Chelin Punta Pindo, X Región Nº Pert 97103106 (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>56</v>
+        <v>2400</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>10/11/2005</t>
+          <t>31/01/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,20 +7874,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>10/11/2005</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles, para Planta Procesadora de Salmones Invertec Seafood S.A., Llau-llao s/n°, comuna de Castro (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,20 +7922,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>27/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Construcción de un Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles de la empresa, Pesca y Cultivos Don Jorge S.A. en Llicaldad, Castro X° Región 0 (e-seia)</t>
+          <t>Planta de Tratamiento de Riles, para Planta Procesadora de Salmones Invertec Seafood S.A., Llau-llao s/n°, comuna de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Mauricio Cabrera Silva</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>09/06/2005</t>
+          <t>27/10/2005</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, PLANTA PIRUQUINA, CASTRO, DÉCIMA REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Construcción de un Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles de la empresa, Pesca y Cultivos Don Jorge S.A. en Llicaldad, Castro X° Región 0 (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,15 +8023,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>Mauricio Cabrera Silva</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>09/06/2005</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TAUCUO. PERT 203103054 (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, PLANTA PIRUQUINA, CASTRO, DÉCIMA REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Mytilus Multiexport S.A.</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>17/05/2005</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=882382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS PUNTA CHULEQUEHUE, CANAL DALCAHUE COMUNA DE CASTRO, CHILOE, DECIMA REGION. Nº PERT 203103168 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TAUCUO. PERT 203103054 (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Mytilus Multiexport S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>08/04/2005</t>
+          <t>17/05/2005</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=649216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=850463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA ATAL Nº PERT 203103162 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS PUNTA CHULEQUEHUE, CANAL DALCAHUE COMUNA DE CASTRO, CHILOE, DECIMA REGION. Nº PERT 203103168 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>SIXTO OMAR PAREDES MILLÀN</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>55</v>
+        <v>310</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>21/03/2005</t>
+          <t>08/04/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=649216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVOS AGUANTAO. Nª PERT: 203103157 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA ATAL Nº PERT 203103162 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>SIXTO OMAR PAREDES MILLÀN</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ISLA QUEHUI. NªPERT:203103169 (e-seia)</t>
+          <t>CENTRO CULTIVOS AGUANTAO. Nª PERT: 203103157 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>413</v>
+        <v>55</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PELDEHUE. Nª PERT: 203103170 (e-seia)</t>
+          <t>CULTIVOS MARINOS ISLA QUEHUI. NªPERT:203103169 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>530</v>
+        <v>413</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CULTIVOA MARINOS AGUANTAO Nª PERT:203103151 (e-seia)</t>
+          <t>CULTIVOS MARINOS PELDEHUE. Nª PERT: 203103170 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>323</v>
+        <v>530</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos S.T.I. Estero Rilán Norte Nº Solicitud 97103070 (e-seia)</t>
+          <t>CULTIVOA MARINOS AGUANTAO Nª PERT:203103151 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,15 +8407,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Cultivadores de Alga Gracilaria, Estero Rilán Norte</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>04/03/2005</t>
+          <t>21/03/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>Cultivos S.T.I. Estero Rilán Norte Nº Solicitud 97103070 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,25 +8455,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Sindicato de Trabajadores Independientes Cultivadores de Alga Gracilaria, Estero Rilán Norte</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>28/01/2005</t>
+          <t>04/03/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,7 +8555,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS QUEHUI NºPERT. 201103296 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,15 +8695,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>28/01/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=570671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>COÑAO I, CULTIVO DE MOLUSCOS EN QUINCHAO, CHILOÉ. Pert Nº 202103145 (e-seia)</t>
+          <t>CULTIVOS MARINOS QUEHUI NºPERT. 201103296 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,15 +8743,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MARÍA MAGDALENA HWARTS AVILÉZ</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>31/12/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=559479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=570671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Sistema de Neutralización de Riles (e-seia)</t>
+          <t>COÑAO I, CULTIVO DE MOLUSCOS EN QUINCHAO, CHILOÉ. Pert Nº 202103145 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,25 +8791,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>MARÍA MAGDALENA HWARTS AVILÉZ</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>31/12/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=560180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=559479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Centro de cultivos Isla Chelin, PERT N° 200103184 (e-seia)</t>
+          <t>Sistema de Neutralización de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,25 +8839,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>19/11/2004</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=513496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=560180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónidos Isla Quehui, comuna de Castro, X Región (Solicitud Nº98103031) (e-seia)</t>
+          <t>Centro de cultivos Isla Chelin, PERT N° 200103184 (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,25 +8887,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sea Fine Salmon S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>19/11/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=513496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Cultivos Marinos PUNTA PULLAO 1 Nº PERT: 200103037 (e-seia)</t>
+          <t>Centro de Engorda de Salmónidos Isla Quehui, comuna de Castro, X Región (Solicitud Nº98103031) (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,15 +8935,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Sea Fine Salmon S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>29/10/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=499753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Cultivos Marinos PUNTA PULLAO 2 Nº PERT: 99103222 (e-seia)</t>
+          <t>Cultivos Marinos PUNTA PULLAO 1 Nº PERT: 200103037 (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>AGUANTAO, CULTIVO DE MOLUSCOS EN CHILOÉ (SOLICITUD Nº 202103079) (e-seia)</t>
+          <t>Cultivos Marinos PUNTA PULLAO 2 Nº PERT: 99103222 (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,15 +9031,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>29/10/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Mitilicultura Ellingsen. Nº Solicitud 201103293 (e-seia)</t>
+          <t>AGUANTAO, CULTIVO DE MOLUSCOS EN CHILOÉ (SOLICITUD Nº 202103079) (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,15 +9079,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>29/09/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PULLAO, CULTIVO DE MOLUSCOS EN CASTRO, CHILOÉ (Solicitud Nº201103235) (e-seia)</t>
+          <t>Mitilicultura Ellingsen. Nº Solicitud 201103293 (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,15 +9127,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>29/09/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=463045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS SECTOR PULLAO, COMUNA DE CASTRO, DECIMA REGION. Nº PERT 98103113 (e-seia)</t>
+          <t>PULLAO, CULTIVO DE MOLUSCOS EN CASTRO, CHILOÉ (Solicitud Nº201103235) (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,15 +9175,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>24/09/2004</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=454582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=463045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MOLUSCOS CANAL QUEHUI N° SOLICITUD 201103253 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS SECTOR PULLAO, COMUNA DE CASTRO, DECIMA REGION. Nº PERT 98103113 (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>RODRIGO AQUILES RUIZ PEREZ</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=454582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Centro de Cultivos y Engorda de Moluscos, Rilan 2004, (Nº Sol. 99103018) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MOLUSCOS CANAL QUEHUI N° SOLICITUD 201103253 (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,15 +9271,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>RODRIGO AQUILES RUIZ PEREZ</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>30/08/2004</t>
+          <t>24/09/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=460474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Centro de Cultivos y Engorda de Moluscos, Rilan 2004, (Nº Sol. 99103018) (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,20 +9314,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>30/08/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR PUNTA PINDO, ISLA CHELIN, CASTRO, PROVINCIA DE CHILOE (Sol. 200103097) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,20 +9362,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>30/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=414978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR PUNTA PINDO, ISLA CHELIN, CASTRO, PROVINCIA DE CHILOE (Sol. 200103097) (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,20 +9410,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>4000</v>
+        <v>659</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>30/07/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=414978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS, SECTOR PUNTA VALENZUELA, SAN JOSE, COMUNA DE CASTRO (Nº SOL. 98103007) (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,20 +9458,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ERNESTO ALFONSO OLAVARRIA HERNANDEZ</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>127</v>
+        <v>4000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>12/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=398599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CURAHUE Nº 98103027 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS, SECTOR PUNTA VALENZUELA, SAN JOSE, COMUNA DE CASTRO (Nº SOL. 98103007) (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,15 +9511,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Cultivos Curahue S.A.</t>
+          <t>ERNESTO ALFONSO OLAVARRIA HERNANDEZ</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>07/07/2004</t>
+          <t>12/07/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=394709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=398599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>CULTIVOS MARINOS CURAHUE Nº 98103027 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,20 +9554,20 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Cultivos Curahue S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>07/07/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=394709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,12 +9602,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, Nº Sol. 97103106 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,15 +9703,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>17/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>"Centro de Cultivo de Mitílidos, Punta Lepe, Canal Lemuy, Comuna de Castro, X Región, N° Pert. 201103292" (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONÍDEOS, Nº Sol. 97103106 (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Asmund Ellingsen Ellingsen</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>19/05/2004</t>
+          <t>17/06/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=357056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>"Centro de Cultivo de Mitílidos, Punta Lepe, Canal Lemuy, Comuna de Castro, X Región, N° Pert. 201103292" (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,30 +9794,30 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Asmund Ellingsen Ellingsen</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>19/05/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=357056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Plan Regulador de Castro (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,30 +9842,30 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>19/04/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=323663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CULTIVO MARINOS CURAHUE 1 Nº98103026 (e-seia)</t>
+          <t>Plan Regulador de Castro (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>LUIS FRANCISCO HIDALGO SOLAR</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>13/04/2004</t>
+          <t>19/04/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=319362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=323663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Sector Quinched (no. pert 202103127) (e-seia)</t>
+          <t>CULTIVO MARINOS CURAHUE 1 Nº98103026 (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,15 +9943,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Arturo Rosendo Astroza Manosalva</t>
+          <t>LUIS FRANCISCO HIDALGO SOLAR</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>27/02/2004</t>
+          <t>13/04/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=319362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Cultivos Lingue (Nº Sol. 97103098) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Sector Quinched (no. pert 202103127) (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,15 +9991,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Carlos Victor Sandoval Dunkler</t>
+          <t>Arturo Rosendo Astroza Manosalva</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>27/02/2004</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=255083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
+          <t>Cultivos Lingue (Nº Sol. 97103098) (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,15 +10039,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Carlos Victor Sandoval Dunkler</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>07/01/2004</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=255083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>" Cultivos Marinos Estero Rilan, N° Sol. 98103003" (e-seia)</t>
+          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,15 +10087,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>05/01/2004</t>
+          <t>07/01/2004</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=239491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS, SECTOR PUNTA LEPE, COMUNA DE CASTRO. PERT Nº 99103028 (e-seia)</t>
+          <t>" Cultivos Marinos Estero Rilan, N° Sol. 98103003" (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,15 +10135,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>CULTIVOS MAR ATLÁNTICO SpA</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>02/01/2004</t>
+          <t>05/01/2004</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=239491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ABALONES ISLA QUINCHAO N° de Solicitud 201103186 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Y OSTREIDOS, SECTOR PUNTA LEPE, COMUNA DE CASTRO. PERT Nº 99103028 (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,15 +10183,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>CULTIVOS MAR ATLÁNTICO SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>22/12/2003</t>
+          <t>02/01/2004</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>ABALONES ISLA QUINCHAO N° de Solicitud 201103186 (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,20 +10226,20 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>22/12/2003</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=224302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivos Punta Pullao (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,20 +10274,20 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>860</v>
+        <v>200</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>31/10/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chai Chai ( Solicitud N°99103166)</t>
+          <t>Cultivos Punta Pullao (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,15 +10327,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Pedro Edgardo Vidal Vargas</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>4</v>
+        <v>860</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>31/10/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Astillero Artesanal Castro</t>
+          <t>Cultivos Marinos Chai Chai ( Solicitud N°99103166)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,25 +10375,25 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Dago Huberto Gonzalez Villarroel</t>
+          <t>Pedro Edgardo Vidal Vargas</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>21/03/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Concesión de Acuicultura en el Sector de Punta Pullao Comuna de Castro Provincia de Chiloé N° de Solicitud 201103014</t>
+          <t>Astillero Artesanal Castro</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,25 +10423,25 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Cultivos Marinos del Pacífico S.A.</t>
+          <t>Dago Huberto Gonzalez Villarroel</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>860</v>
+        <v>10</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>21/03/2002</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación de Proyecto Técnico en Concesión de Acuicultura en el Sector de Punta Pullao Comuna de Castro Provincia de Chiloé N° de Solicitud 201103014</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,30 +10466,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cultivos Marinos del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>200</v>
+        <v>860</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ampliación de Especie Hatchery para la Producción de Semillas de Moluscos Cultivo Mare Aperto S A Ten Ten Castro Isla Chiloé</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,30 +10514,30 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Cultivos Mare Aperto S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>12/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Linlinao</t>
+          <t>Ampliación de Especie Hatchery para la Producción de Semillas de Moluscos Cultivo Mare Aperto S A Ten Ten Castro Isla Chiloé</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,15 +10567,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
+          <t>Cultivos Mare Aperto S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>17/08/2001</t>
+          <t>12/09/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Taller Artesanal de Redes de Agua Dulce Don Alberto</t>
+          <t>Cultivos Marinos Linlinao</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10613,23 +10613,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
+        </is>
+      </c>
       <c r="F214" t="n">
         <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>22/06/2001</t>
+          <t>17/08/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Castro (Tercera Presentación)</t>
+          <t>Taller Artesanal de Redes de Agua Dulce Don Alberto</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10657,27 +10661,23 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
-        </is>
-      </c>
+      <c r="E215" t="inlineStr"/>
       <c r="F215" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>09/04/2001</t>
+          <t>22/06/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Cultivo de Molusco en Yutuy Estero Castro</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Castro (Tercera Presentación)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Alonso Fernando Hernández Andrade</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>10</v>
+        <v>920</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>28/03/2001</t>
+          <t>09/04/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Castro Sector Gamboa</t>
+          <t>Cultivo de Molusco en Yutuy Estero Castro</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial de Vivienda y Urbanismo, X Región de Los Lagos</t>
+          <t>Alonso Fernando Hernández Andrade</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>27/03/2001</t>
+          <t>28/03/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Riles y Rises Emanados del Lavado de Redes Salmoneras "Taller de Redes Piscis"</t>
+          <t>Modificación al Plan Regulador Comunal de Castro Sector Gamboa</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,25 +10803,25 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Mirna Gómez Paredes</t>
+          <t>Secretaría Ministerial de Vivienda y Urbanismo, X Región de Los Lagos</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>13/02/2001</t>
+          <t>27/03/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Ampliación de Camping El Pudú</t>
+          <t>Tratamiento y Disposición Final de Riles y Rises Emanados del Lavado de Redes Salmoneras "Taller de Redes Piscis"</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Sociedad Hotelera Plaza Beckna Ltda.</t>
+          <t>Mirna Gómez Paredes</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>27/11/2000</t>
+          <t>13/02/2001</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición de Riles y Rises del Lavado de Redes de Cultivo Marcelo Calderón</t>
+          <t>Ampliación de Camping El Pudú</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,25 +10899,25 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SOC. MarMau Ltda.</t>
+          <t>Sociedad Hotelera Plaza Beckna Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>03/10/2000</t>
+          <t>27/11/2000</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Eléctrica Pid Pid</t>
+          <t>Tratamiento y Disposición de Riles y Rises del Lavado de Redes de Cultivo Marcelo Calderón</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,15 +10947,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>SOC. MarMau Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>800</v>
+        <v>140</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>02/08/2000</t>
+          <t>03/10/2000</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar Sociedad Huimar Limitada</t>
+          <t>Construcción y Operación Subestación Eléctrica Pid Pid</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,15 +10995,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>02/08/2000</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta Procesadora de Productos del Mar Sociedad Huimar Limitada</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11038,20 +11038,20 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Construcción Centro Turístico</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11086,30 +11086,30 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Adriana Den Braber Soza</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>07/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Construcción de 202 Viviendas Sociales comuna de Castro</t>
+          <t>Construcción Centro Turístico</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,25 +11139,25 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Adriana Den Braber Soza</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>1440</v>
+        <v>40</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>20/10/1999</t>
+          <t>07/12/1999</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Castro sector Plaza de Armas</t>
+          <t>Construcción de 202 Viviendas Sociales comuna de Castro</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,15 +11187,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Castro</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>03/03/1999</t>
+          <t>20/10/1999</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas ( Segunda Presentación)</t>
+          <t>Modificación al Plan Regulador Comunal de Castro sector Plaza de Armas</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,25 +11235,25 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Ilustre Municipalidad de Castro</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>17/02/1999</t>
+          <t>03/03/1999</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Proyecto Construcción Establecimiento Educacional en Castro Isla de Chiloe</t>
+          <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas ( Segunda Presentación)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,25 +11283,25 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Archipielago S. A.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>440</v>
+        <v>9100</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>29/10/1998</t>
+          <t>17/02/1999</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,43 +11316,91 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
+          <t>Proyecto Construcción Establecimiento Educacional en Castro Isla de Chiloe</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Sociedad Inmobiliaria Archipielago S. A.</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>440</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>29/10/1998</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1453&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
           <t>Alcantarillado de Castro Mejoramiento y Disposición Final de Aguas Servidas</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
         <is>
           <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
-      <c r="F229" t="n">
+      <c r="F230" t="n">
         <v>9170</v>
       </c>
-      <c r="G229" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>30/03/1998</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
+      <c r="H230" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I229" t="inlineStr">
+      <c r="I230" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=800&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J229" t="inlineStr">
+      <c r="J230" t="inlineStr">
         <is>
           <t>Castro</t>
         </is>

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, WESTE DE ISLA IMELEV, PERT Nº 206103098 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4227504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Andrés Hoffmann León</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
+          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA RAMIREZ, CANAL LEMUY. Nº 98103052 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONÍDEOS OESTE ISLA IMELEV, Nº SOL 203103090 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PUNTA TUTIL, CANAL LEMUY. Nº 98103061 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Andrés Hoffmann León</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO SALMONIDEOS ESTERO CASTRO, SECTOR PELLO Nº 99103032 (e-seia)</t>
+          <t>CENTRO CULTIVO MITILIDOS PULLAO, GOLFO DE ANCUD, COMUNA DE CASTRO. Nº 98103167 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=584889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
+          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
+          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Mitilicultura Chelín Oeste Número de Solicitud 202103121 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JOSÉ Nº PERT: 202103002 (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>FRANCISCO GUIDO OYARZÚN KROEGER</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/07/2023</t>
+          <t>03/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J230"/>
+  <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11406,6 +11406,50 @@
         </is>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>gfhg</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130325011&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">

--- a/data/Castro.xlsx
+++ b/data/Castro.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J231"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico para Ampliación de Especies a Mitílidos y Ostreidos del Centro 103816, sector este Punta Quirahuín, Isla Chelín, Comuna de Castro, Provincia de Chiloé, Región de Los Lagos - PERT N° 221103029</t>
+          <t>Nueva Línea 2x220 kV Gamboa - Chonchi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>SOCIEDAD AUSTRAL DE TRANSMISION TRONCAL S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>228</v>
+        <v>26431</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159699230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160273001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico, Centro 102548, Canal Dalcahue, al Este de Punta Atal- Comuna de Castro</t>
+          <t>Modificación de Proyecto Técnico para Ampliación de Especies a Mitílidos y Ostreidos del Centro 103816, sector este Punta Quirahuín, Isla Chelín, Comuna de Castro, Provincia de Chiloé, Región de Los Lagos - PERT N° 221103029</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>María Patricia Vargas Torrez</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>03/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876193&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159699230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
+          <t>Modificación Proyecto Técnico, Centro 102548, Canal Dalcahue, al Este de Punta Atal- Comuna de Castro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>María Patricia Vargas Torrez</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>303</v>
+        <v>30</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876193&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico, Centro 102548, Canal Dalcahue, al Este de Punta Atal- Comuna de Castro</t>
+          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>María Patricia Vargas Torrez</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>21/03/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157731846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
+          <t>Modificación Proyecto Técnico, Centro 102548, Canal Dalcahue, al Este de Punta Atal- Comuna de Castro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>María Patricia Vargas Torrez</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157645850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157731846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
+          <t>Proyecto Técnico, Centro N° Pert. 211103001, Canal Hudson, Al Noreste de Punta Aguantao, Comuna de Castro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CULTIVOS SANTURRON SPA</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156678810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157645850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NORESTE PUNTA AGUANTAO</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>CULTIVOS SANTURRON SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17/08/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156671155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156678810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, centro 102.515, Punta Ramírez - Canal Lemuy</t>
+          <t>NORESTE PUNTA AGUANTAO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CULTIVOS SANTURRON SPA</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154885769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156671155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
+          <t>Modificación de Proyecto Técnico, centro 102.515, Punta Ramírez - Canal Lemuy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>26/01/2022</t>
+          <t>03/02/2022</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154756826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154885769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.515, PUNTA RAMIREZ - CANAL LEMUY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MARES ANDINOS SpA</t>
+          <t>CULTIVOS SANTURRON SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>26/01/2022</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148917546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154756826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Subestación Nueva Gamboa</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>MARES ANDINOS SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>19000</v>
+        <v>45</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148779560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148917546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Regularización de la base en tierra y modificación de Proyecto Técnico para la ampliación de biomasa de abalón rojo del Centro 101154, Canal Quehui, noreste Punta Camahue, Isla Quehui, Castro ? Región de los Lagos. N° Pert 218103034</t>
+          <t>Subestación Nueva Gamboa</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pesca y Cultivos Don Jorge Ltda</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1900</v>
+        <v>19000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147645415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148779560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, IMELEV. CÓDIGO DE CENTRO N° 102066</t>
+          <t>Regularización de la base en tierra y modificación de Proyecto Técnico para la ampliación de biomasa de abalón rojo del Centro 101154, Canal Quehui, noreste Punta Camahue, Isla Quehui, Castro ? Región de los Lagos. N° Pert 218103034</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Pesca y Cultivos Don Jorge Ltda</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5000</v>
+        <v>1900</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>03/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147536901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147645415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental para ?Ampliación de Biomasa Centro de Cultivo de Mitílidos Pert N° 219103043?, Sector este de Punta Pullao, Canal Hudson, Comuna de Castro, Provincia de Chiloé - Décima Región, código centro 103669</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, IMELEV. CÓDIGO DE CENTRO N° 102066</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sociedad Comercial e Insdustrial Jomar Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>260</v>
+        <v>5000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>29/05/2020</t>
+          <t>03/08/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146699104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147536901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
+          <t>Declaración de Impacto Ambiental para ?Ampliación de Biomasa Centro de Cultivo de Mitílidos Pert N° 219103043?, Sector este de Punta Pullao, Canal Hudson, Comuna de Castro, Provincia de Chiloé - Décima Región, código centro 103669</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL MAR Y MAR LTDA.</t>
+          <t>sociedad Comercial e Insdustrial Jomar Ltda.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/05/2019</t>
+          <t>29/05/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143246458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146699104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Cultivos Marinos Punta Pullao 2, N° PERT 99103222?</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102.412 SUROESTE PUNTA AGUANTAO, MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>SOCIEDAD COMERCIAL MAR Y MAR LTDA.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>22/05/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142948123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143246458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, MATADERO SAN DANIEL, CASTRO, CHILOE</t>
+          <t>Modificación del Proyecto ?Cultivos Marinos Punta Pullao 2, N° PERT 99103222?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sociedad Comercial San Daniel SpA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132474245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142948123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RILES, MATADERO SAN DANIEL, CASTRO, CHILOE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Sociedad Comercial San Daniel SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/09/2016</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131752002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132474245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>41000</v>
+        <v>10000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>06/09/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131752002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 103.844 LINGUE-ESTERO CASTRO, RIO BLANCO LTDA.</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>41000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/12/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 103.844 LINGUE-ESTERO CASTRO, RIO BLANCO LTDA.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>41000</v>
+        <v>40</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>22/12/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10000</v>
+        <v>41000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/09/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
+          <t>Estacionamientos Subterráneos, Plaza de Armas de Castro</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>02/12/2014</t>
+          <t>23/09/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130005588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130765129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063</t>
+          <t>MODIFICACION DE PROYECTO TECNICO ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>02/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130005588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RELOCALIZACIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COSTA OESTE ISLA CHELIN (SECTOR 1), COMUNA CASTRO, REGIÓN DE LOS LAGOS, PERT N° 210100051</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1 PERT Nº 213103028</t>
+          <t>RELOCALIZACIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COSTA OESTE ISLA CHELIN (SECTOR 1), COMUNA CASTRO, REGIÓN DE LOS LAGOS, PERT N° 210100051</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128822375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2 PERT Nº 213103027</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1 PERT Nº 213103028</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128823101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128822375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"Proyecto Técnico para el cultivo de Mitílidos del Centro Canal Lemuy, Sur este de Punta Tutil, Nº de Pert 209103036".</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2 PERT Nº 213103027</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Servicios Monprori Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15/11/2013</t>
+          <t>04/12/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128830269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128823101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1</t>
+          <t>"Proyecto Técnico para el cultivo de Mitílidos del Centro Canal Lemuy, Sur este de Punta Tutil, Nº de Pert 209103036".</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>Servicios Monprori Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>15/11/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128755417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128830269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE MOLUSCOS BIVALVOS NOROESTE PUNTA TUTIL 1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128755417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Alimentos Salmofood</t>
+          <t>MODIFICACIÓN EN LA PRODUCCIÓN DEL CENTRO DE CULTIVO DE BIVALVOS NOROESTE PUNTA TUTIL 2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Vitapro Chile S.A</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128575060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modificación manejo de mortalidad mediante sistema de ensilaje en el centro de cultivo Pullao, Ensenada Pullao, Canal Hudson</t>
+          <t>Ampliación Planta de Alimentos Salmofood</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Vitapro Chile S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>90</v>
+        <v>50000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/07/2013</t>
+          <t>12/09/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8364977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128575060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Modificación manejo de mortalidad mediante sistema de ensilaje en el centro de cultivo Pullao, Ensenada Pullao, Canal Hudson</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>18/07/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8364977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PROYECTO TÉCNICO PARA EL CULTIVO DE MITÍLIDOS, DEL CENTRO TUTIL, Nº de Pert 211103055"</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8263817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>"AMPLIACIÓN DE PROYECTO TÉCNICO PARA EL CULTIVO DE MITÍLIDOS, DEL CENTRO TUTIL, Nº de Pert 211103055"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>ISABEL ADRIANA PRADENAS VILLALOBOS</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>19/06/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8263817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Aguantao, Comuna de Castro, Décima Región. Nº PERT 211103088"</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>2475</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7867000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de abalones, Punta Chulequehue, Canal Dalcahue, Comuna de Castro, Décima Región. Nº PERT 211103043".</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Aguantao, Comuna de Castro, Décima Región. Nº PERT 211103088"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SPINETECH CHILE S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>19/02/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7856866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7867000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SUR DE PUNTA PINDO, ISLA CHELÍN, COMUNA DE CASTRO, Xa. REGIÓN DE LOS LAGOS" N° de Solicitud 211103039. AMPLIACIÓN BIOMASA CCS SUR DE PUNTA PINDO</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de abalones, Punta Chulequehue, Canal Dalcahue, Comuna de Castro, Décima Región. Nº PERT 211103043".</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SPINETECH CHILE S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>04/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7596276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7856866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Parque Eólico Pichihué</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SUR DE PUNTA PINDO, ISLA CHELÍN, COMUNA DE CASTRO, Xa. REGIÓN DE LOS LAGOS" N° de Solicitud 211103039. AMPLIACIÓN BIOMASA CCS SUR DE PUNTA PINDO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA...</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>240000</v>
+        <v>2800</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>04/12/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7596276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>INSTALACIÓN Y OPERACIÓN DE UNA ESTACIÓN DE TRANSFERENCIA DE ENSILAJE EN TERMINAL PORTUARIO MULTIPROPÓSITO DE CASTRO ESTACIÓN DE TRANSF. ENSILAJE T.PORTUARIO CASTRO</t>
+          <t>Parque Eólico Pichihué</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Pesquera Pacific Star S.A.</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>252</v>
+        <v>240000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29/08/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7283633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>INSTALACIÓN Y OPERACIÓN DE UNA ESTACIÓN DE TRANSFERENCIA DE ENSILAJE EN TERMINAL PORTUARIO MULTIPROPÓSITO DE CASTRO ESTACIÓN DE TRANSF. ENSILAJE T.PORTUARIO CASTRO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pesquera Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>29/08/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7283633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, ESTERO CASTRO,PUNTA TUTIL, código 100.497,PERT 212103011" MODIFICACIÓN DE PROYECTO TECNICO CENTRO CULTIVO SA</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>23/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6685989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, CANAL LEMUY, SECTOR PUNTA LEPE, código 100.418, PERT 212103009" Modificación Proyecto Técnico CCS, Canal Lemuy</t>
+          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, ESTERO CASTRO,PUNTA TUTIL, código 100.497,PERT 212103011" MODIFICACIÓN DE PROYECTO TECNICO CENTRO CULTIVO SA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6686385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6685989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, CANAL LEMUY, SECTOR PUNTA LEPE, código 100.418, PERT 212103009" Modificación Proyecto Técnico CCS, Canal Lemuy</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/03/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6686385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Al Sureste de Isla Quehui, Comuna de Castro, Nº Solicitud: 210103188</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6472492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Al Sureste de Isla Quehui, Comuna de Castro, Nº Solicitud: 210103188</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>12/01/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6472492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, TUTIL, código 100.497"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2800</v>
+        <v>100</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>03/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6342215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación de biomasa de salmónidos, concesión Canal Quehui, al norte de Punta Camahue, Isla Quehui, Comuna de Castro, Nº solicitud: 211103076</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, TUTIL, código 100.497"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21/12/2011</t>
+          <t>03/01/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6361376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6342215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Ampliación de biomasa de salmónidos, concesión Canal Quehui, al norte de Punta Camahue, Isla Quehui, Comuna de Castro, Nº solicitud: 211103076</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>21/12/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6361376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR NOROESTE PUNTA AGUANTAO Y NORESTE DE ESTERO RILAN COMUNA DE CASTRO (SOL Nº 210103212)"</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>647</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Nueva Captación y Planta de Tratamiento de Agua Potable Sector Alto Castro</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR NOROESTE PUNTA AGUANTAO Y NORESTE DE ESTERO RILAN COMUNA DE CASTRO (SOL Nº 210103212)"</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Suralis S.A.</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>7000</v>
+        <v>647</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19/10/2011</t>
+          <t>20/10/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5823734&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Nueva Captación y Planta de Tratamiento de Agua Potable Sector Alto Castro</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>319</v>
+        <v>7000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>19/10/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5823734&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 3 COMUNA DE CASTRO (SOL Nº 206103131)"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>656</v>
+        <v>319</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 1 COMUNA DE CASTRO (SOL Nº 206103132)"</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 3 COMUNA DE CASTRO (SOL Nº 206103131)"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA ÁNIMO, X REGION Nº 211103009 (Código del Centro: 100208)</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR ISLA QUEHUI, SECTOR QUEHUI 1 COMUNA DE CASTRO (SOL Nº 206103132)"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2000</v>
+        <v>656</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5874896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6072162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LA ESTANCIA, X REGION" Nº de Ingreso a Trámite: 210103216 (Código del Centro: 100981)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA ÁNIMO, X REGION Nº 211103009 (Código del Centro: 100208)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>22/07/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5874896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Península Rilan</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LA ESTANCIA, X REGION" Nº de Ingreso a Trámite: 210103216 (Código del Centro: 100981)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Agricola Santa Ana S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>25/04/2011</t>
+          <t>22/07/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5558971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Cementerio, código 100.417</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Península Rilan</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Agricola Santa Ana S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>25/04/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5558971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Lepe, código 100.418</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Cementerio, código 100.417</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tutil, código 100.497</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Lepe, código 100.418</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Pangue - X Región</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tutil, código 100.497</t>
  